--- a/database/industries/chemical/shamla/product/monthly_seprated.xlsx
+++ b/database/industries/chemical/shamla/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\chemical\shamla\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F66F64-0E1F-4470-A5EE-DC1E71276CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -285,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,7 +479,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -490,7 +491,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -537,6 +538,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -572,6 +590,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -723,17 +758,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -788,7 +823,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +880,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -902,7 +937,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -957,7 +992,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1049,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +1106,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1126,7 +1161,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1338,7 +1373,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1395,7 +1430,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1463,98 +1498,98 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>15865</v>
       </c>
       <c r="Z11" s="11">
-        <v>15865</v>
+        <v>15442</v>
       </c>
       <c r="AA11" s="11">
-        <v>15442</v>
+        <v>14913</v>
       </c>
       <c r="AB11" s="11">
-        <v>14913</v>
+        <v>13300</v>
       </c>
       <c r="AC11" s="11">
-        <v>13300</v>
+        <v>15554</v>
       </c>
       <c r="AD11" s="11">
-        <v>15554</v>
+        <v>15322</v>
       </c>
       <c r="AE11" s="11">
-        <v>15322</v>
+        <v>14110</v>
       </c>
       <c r="AF11" s="11">
-        <v>14110</v>
+        <v>15234</v>
       </c>
       <c r="AG11" s="11">
-        <v>15234</v>
+        <v>14448</v>
       </c>
       <c r="AH11" s="11">
-        <v>14448</v>
+        <v>15652</v>
       </c>
       <c r="AI11" s="11">
-        <v>15652</v>
+        <v>15091</v>
       </c>
       <c r="AJ11" s="11">
+        <v>15695</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>15525</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>14911</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>15546</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>15626</v>
+      </c>
+      <c r="AO11" s="11">
         <v>15091</v>
       </c>
-      <c r="AK11" s="11">
-        <v>15695</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>15525</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>14911</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>15546</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>15626</v>
-      </c>
       <c r="AP11" s="11">
-        <v>15091</v>
+        <v>15366</v>
       </c>
       <c r="AQ11" s="11">
-        <v>15366</v>
+        <v>15587</v>
       </c>
       <c r="AR11" s="11">
-        <v>15587</v>
+        <v>15066</v>
       </c>
       <c r="AS11" s="11">
-        <v>15066</v>
+        <v>14828</v>
       </c>
       <c r="AT11" s="11">
-        <v>14828</v>
+        <v>15760</v>
       </c>
       <c r="AU11" s="11">
-        <v>15760</v>
+        <v>15258</v>
       </c>
       <c r="AV11" s="11">
-        <v>15258</v>
+        <v>15269</v>
       </c>
       <c r="AW11" s="11">
-        <v>15269</v>
+        <v>15656</v>
       </c>
       <c r="AX11" s="11">
-        <v>15656</v>
+        <v>15268</v>
       </c>
       <c r="AY11" s="11">
-        <v>15268</v>
+        <v>14926</v>
       </c>
       <c r="AZ11" s="11">
-        <v>14926</v>
+        <v>15140</v>
       </c>
       <c r="BA11" s="11">
-        <v>15140</v>
+        <v>14754</v>
       </c>
       <c r="BB11" s="11">
-        <v>14754</v>
+        <v>14391</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1622,98 +1657,98 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>3712</v>
       </c>
       <c r="Z12" s="13">
-        <v>3712</v>
+        <v>4617</v>
       </c>
       <c r="AA12" s="13">
-        <v>4617</v>
+        <v>4989</v>
       </c>
       <c r="AB12" s="13">
-        <v>4989</v>
+        <v>4534</v>
       </c>
       <c r="AC12" s="13">
-        <v>4534</v>
+        <v>5046</v>
       </c>
       <c r="AD12" s="13">
-        <v>5046</v>
+        <v>4593</v>
       </c>
       <c r="AE12" s="13">
-        <v>4593</v>
+        <v>3612</v>
       </c>
       <c r="AF12" s="13">
-        <v>3612</v>
+        <v>5126</v>
       </c>
       <c r="AG12" s="13">
-        <v>5126</v>
+        <v>4973</v>
       </c>
       <c r="AH12" s="13">
-        <v>4973</v>
+        <v>4121</v>
       </c>
       <c r="AI12" s="13">
-        <v>4121</v>
+        <v>6316</v>
       </c>
       <c r="AJ12" s="13">
-        <v>6316</v>
+        <v>4298</v>
       </c>
       <c r="AK12" s="13">
-        <v>4298</v>
+        <v>4876</v>
       </c>
       <c r="AL12" s="13">
-        <v>4876</v>
+        <v>4583</v>
       </c>
       <c r="AM12" s="13">
-        <v>4583</v>
+        <v>6362</v>
       </c>
       <c r="AN12" s="13">
-        <v>6362</v>
+        <v>6125</v>
       </c>
       <c r="AO12" s="13">
-        <v>6125</v>
+        <v>4515</v>
       </c>
       <c r="AP12" s="13">
-        <v>4515</v>
+        <v>6602</v>
       </c>
       <c r="AQ12" s="13">
-        <v>6602</v>
+        <v>6378</v>
       </c>
       <c r="AR12" s="13">
-        <v>6378</v>
+        <v>6984</v>
       </c>
       <c r="AS12" s="13">
-        <v>6984</v>
+        <v>6540</v>
       </c>
       <c r="AT12" s="13">
-        <v>6540</v>
+        <v>1748</v>
       </c>
       <c r="AU12" s="13">
-        <v>1748</v>
+        <v>5565</v>
       </c>
       <c r="AV12" s="13">
-        <v>5565</v>
+        <v>5317</v>
       </c>
       <c r="AW12" s="13">
-        <v>5317</v>
+        <v>5984</v>
       </c>
       <c r="AX12" s="13">
-        <v>5984</v>
+        <v>5271</v>
       </c>
       <c r="AY12" s="13">
-        <v>5271</v>
+        <v>6867</v>
       </c>
       <c r="AZ12" s="13">
-        <v>6867</v>
+        <v>6040</v>
       </c>
       <c r="BA12" s="13">
-        <v>6040</v>
+        <v>7027</v>
       </c>
       <c r="BB12" s="13">
-        <v>7027</v>
+        <v>6151</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1844,8 +1879,8 @@
       <c r="AS13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT13" s="11" t="s">
-        <v>58</v>
+      <c r="AT13" s="11">
+        <v>0</v>
       </c>
       <c r="AU13" s="11">
         <v>0</v>
@@ -1872,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2003,8 +2038,8 @@
       <c r="AS14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="13" t="s">
-        <v>58</v>
+      <c r="AT14" s="13">
+        <v>0</v>
       </c>
       <c r="AU14" s="13">
         <v>0</v>
@@ -2031,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2098,97 +2133,97 @@
         <v>0</v>
       </c>
       <c r="Y15" s="15">
-        <v>0</v>
+        <v>19577</v>
       </c>
       <c r="Z15" s="15">
-        <v>19577</v>
+        <v>20059</v>
       </c>
       <c r="AA15" s="15">
-        <v>20059</v>
+        <v>19902</v>
       </c>
       <c r="AB15" s="15">
-        <v>19902</v>
+        <v>17834</v>
       </c>
       <c r="AC15" s="15">
-        <v>17834</v>
+        <v>20600</v>
       </c>
       <c r="AD15" s="15">
-        <v>20600</v>
+        <v>19915</v>
       </c>
       <c r="AE15" s="15">
-        <v>19915</v>
+        <v>17722</v>
       </c>
       <c r="AF15" s="15">
-        <v>17722</v>
+        <v>20360</v>
       </c>
       <c r="AG15" s="15">
-        <v>20360</v>
+        <v>19421</v>
       </c>
       <c r="AH15" s="15">
-        <v>19421</v>
+        <v>19773</v>
       </c>
       <c r="AI15" s="15">
-        <v>19773</v>
+        <v>21407</v>
       </c>
       <c r="AJ15" s="15">
-        <v>21407</v>
+        <v>19993</v>
       </c>
       <c r="AK15" s="15">
-        <v>19993</v>
+        <v>20401</v>
       </c>
       <c r="AL15" s="15">
-        <v>20401</v>
+        <v>19494</v>
       </c>
       <c r="AM15" s="15">
-        <v>19494</v>
+        <v>21908</v>
       </c>
       <c r="AN15" s="15">
-        <v>21908</v>
+        <v>21751</v>
       </c>
       <c r="AO15" s="15">
-        <v>21751</v>
+        <v>19606</v>
       </c>
       <c r="AP15" s="15">
-        <v>19606</v>
+        <v>21968</v>
       </c>
       <c r="AQ15" s="15">
-        <v>21968</v>
+        <v>21965</v>
       </c>
       <c r="AR15" s="15">
-        <v>21965</v>
+        <v>22050</v>
       </c>
       <c r="AS15" s="15">
-        <v>22050</v>
+        <v>21368</v>
       </c>
       <c r="AT15" s="15">
-        <v>21368</v>
+        <v>17508</v>
       </c>
       <c r="AU15" s="15">
-        <v>17508</v>
+        <v>20823</v>
       </c>
       <c r="AV15" s="15">
-        <v>20823</v>
+        <v>20586</v>
       </c>
       <c r="AW15" s="15">
-        <v>20586</v>
+        <v>21640</v>
       </c>
       <c r="AX15" s="15">
-        <v>21640</v>
+        <v>20539</v>
       </c>
       <c r="AY15" s="15">
-        <v>20539</v>
+        <v>21793</v>
       </c>
       <c r="AZ15" s="15">
-        <v>21793</v>
+        <v>21180</v>
       </c>
       <c r="BA15" s="15">
-        <v>21180</v>
+        <v>21781</v>
       </c>
       <c r="BB15" s="15">
-        <v>21781</v>
+        <v>20542</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
@@ -2245,7 +2280,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
@@ -2313,98 +2348,98 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>254</v>
       </c>
       <c r="Z17" s="11">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="AA17" s="11">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="AB17" s="11">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="AC17" s="11">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="AD17" s="11">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="AE17" s="11">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="AF17" s="11">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="AG17" s="11">
+        <v>71</v>
+      </c>
+      <c r="AH17" s="11">
+        <v>49</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>196</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>40</v>
+      </c>
+      <c r="AK17" s="11">
         <v>100</v>
       </c>
-      <c r="AH17" s="11">
-        <v>71</v>
-      </c>
-      <c r="AI17" s="11">
+      <c r="AL17" s="11">
+        <v>48</v>
+      </c>
+      <c r="AM17" s="11">
         <v>49</v>
       </c>
-      <c r="AJ17" s="11">
-        <v>196</v>
-      </c>
-      <c r="AK17" s="11">
-        <v>40</v>
-      </c>
-      <c r="AL17" s="11">
-        <v>100</v>
-      </c>
-      <c r="AM17" s="11">
-        <v>48</v>
-      </c>
       <c r="AN17" s="11">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="AO17" s="11">
-        <v>101</v>
+        <v>795</v>
       </c>
       <c r="AP17" s="11">
-        <v>795</v>
+        <v>471</v>
       </c>
       <c r="AQ17" s="11">
-        <v>471</v>
+        <v>234</v>
       </c>
       <c r="AR17" s="11">
-        <v>234</v>
+        <v>667</v>
       </c>
       <c r="AS17" s="11">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="AT17" s="11">
-        <v>444</v>
+        <v>126</v>
       </c>
       <c r="AU17" s="11">
-        <v>126</v>
+        <v>505</v>
       </c>
       <c r="AV17" s="11">
-        <v>505</v>
+        <v>628</v>
       </c>
       <c r="AW17" s="11">
-        <v>628</v>
+        <v>248</v>
       </c>
       <c r="AX17" s="11">
-        <v>248</v>
+        <v>475</v>
       </c>
       <c r="AY17" s="11">
-        <v>475</v>
+        <v>846</v>
       </c>
       <c r="AZ17" s="11">
-        <v>846</v>
+        <v>426</v>
       </c>
       <c r="BA17" s="11">
-        <v>426</v>
+        <v>855</v>
       </c>
       <c r="BB17" s="11">
-        <v>855</v>
+        <v>957</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>59</v>
       </c>
@@ -2472,98 +2507,98 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>2476</v>
       </c>
       <c r="Z18" s="13">
-        <v>2476</v>
+        <v>1847</v>
       </c>
       <c r="AA18" s="13">
-        <v>1847</v>
+        <v>2289</v>
       </c>
       <c r="AB18" s="13">
-        <v>2289</v>
+        <v>2428</v>
       </c>
       <c r="AC18" s="13">
-        <v>2428</v>
+        <v>2094</v>
       </c>
       <c r="AD18" s="13">
-        <v>2094</v>
+        <v>1173</v>
       </c>
       <c r="AE18" s="13">
-        <v>1173</v>
+        <v>3201</v>
       </c>
       <c r="AF18" s="13">
-        <v>3201</v>
+        <v>2124</v>
       </c>
       <c r="AG18" s="13">
-        <v>2124</v>
+        <v>2258</v>
       </c>
       <c r="AH18" s="13">
-        <v>2258</v>
+        <v>3179</v>
       </c>
       <c r="AI18" s="13">
-        <v>3179</v>
+        <v>1063</v>
       </c>
       <c r="AJ18" s="13">
-        <v>1063</v>
+        <v>2407</v>
       </c>
       <c r="AK18" s="13">
-        <v>2407</v>
+        <v>2327</v>
       </c>
       <c r="AL18" s="13">
-        <v>2327</v>
+        <v>3222</v>
       </c>
       <c r="AM18" s="13">
-        <v>3222</v>
+        <v>2760</v>
       </c>
       <c r="AN18" s="13">
-        <v>2760</v>
+        <v>2896</v>
       </c>
       <c r="AO18" s="13">
-        <v>2896</v>
+        <v>2862</v>
       </c>
       <c r="AP18" s="13">
-        <v>2862</v>
+        <v>3674</v>
       </c>
       <c r="AQ18" s="13">
-        <v>3674</v>
+        <v>1843</v>
       </c>
       <c r="AR18" s="13">
-        <v>1843</v>
+        <v>1573</v>
       </c>
       <c r="AS18" s="13">
-        <v>1573</v>
+        <v>3194</v>
       </c>
       <c r="AT18" s="13">
-        <v>3194</v>
+        <v>3591</v>
       </c>
       <c r="AU18" s="13">
-        <v>3591</v>
+        <v>4075</v>
       </c>
       <c r="AV18" s="13">
-        <v>4075</v>
+        <v>4984</v>
       </c>
       <c r="AW18" s="13">
-        <v>4984</v>
+        <v>5116</v>
       </c>
       <c r="AX18" s="13">
-        <v>5116</v>
+        <v>6454</v>
       </c>
       <c r="AY18" s="13">
-        <v>6454</v>
+        <v>4432</v>
       </c>
       <c r="AZ18" s="13">
-        <v>4432</v>
+        <v>4360</v>
       </c>
       <c r="BA18" s="13">
-        <v>4360</v>
+        <v>2922</v>
       </c>
       <c r="BB18" s="13">
-        <v>2922</v>
+        <v>3975</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>61</v>
       </c>
@@ -2694,8 +2729,8 @@
       <c r="AS19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT19" s="11" t="s">
-        <v>58</v>
+      <c r="AT19" s="11">
+        <v>0</v>
       </c>
       <c r="AU19" s="11">
         <v>0</v>
@@ -2722,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>64</v>
       </c>
@@ -2789,97 +2824,97 @@
         <v>0</v>
       </c>
       <c r="Y20" s="17">
-        <v>0</v>
+        <v>2730</v>
       </c>
       <c r="Z20" s="17">
-        <v>2730</v>
+        <v>2071</v>
       </c>
       <c r="AA20" s="17">
-        <v>2071</v>
+        <v>2540</v>
       </c>
       <c r="AB20" s="17">
-        <v>2540</v>
+        <v>2646</v>
       </c>
       <c r="AC20" s="17">
-        <v>2646</v>
+        <v>2192</v>
       </c>
       <c r="AD20" s="17">
-        <v>2192</v>
+        <v>1371</v>
       </c>
       <c r="AE20" s="17">
-        <v>1371</v>
+        <v>3424</v>
       </c>
       <c r="AF20" s="17">
-        <v>3424</v>
+        <v>2224</v>
       </c>
       <c r="AG20" s="17">
-        <v>2224</v>
+        <v>2329</v>
       </c>
       <c r="AH20" s="17">
-        <v>2329</v>
+        <v>3228</v>
       </c>
       <c r="AI20" s="17">
-        <v>3228</v>
+        <v>1259</v>
       </c>
       <c r="AJ20" s="17">
-        <v>1259</v>
+        <v>2447</v>
       </c>
       <c r="AK20" s="17">
-        <v>2447</v>
+        <v>2427</v>
       </c>
       <c r="AL20" s="17">
-        <v>2427</v>
+        <v>3270</v>
       </c>
       <c r="AM20" s="17">
-        <v>3270</v>
+        <v>2809</v>
       </c>
       <c r="AN20" s="17">
-        <v>2809</v>
+        <v>2997</v>
       </c>
       <c r="AO20" s="17">
-        <v>2997</v>
+        <v>3657</v>
       </c>
       <c r="AP20" s="17">
-        <v>3657</v>
+        <v>4145</v>
       </c>
       <c r="AQ20" s="17">
-        <v>4145</v>
+        <v>2077</v>
       </c>
       <c r="AR20" s="17">
-        <v>2077</v>
+        <v>2240</v>
       </c>
       <c r="AS20" s="17">
-        <v>2240</v>
+        <v>3638</v>
       </c>
       <c r="AT20" s="17">
-        <v>3638</v>
+        <v>3717</v>
       </c>
       <c r="AU20" s="17">
-        <v>3717</v>
+        <v>4580</v>
       </c>
       <c r="AV20" s="17">
-        <v>4580</v>
+        <v>5612</v>
       </c>
       <c r="AW20" s="17">
-        <v>5612</v>
+        <v>5364</v>
       </c>
       <c r="AX20" s="17">
-        <v>5364</v>
+        <v>6929</v>
       </c>
       <c r="AY20" s="17">
-        <v>6929</v>
+        <v>5278</v>
       </c>
       <c r="AZ20" s="17">
-        <v>5278</v>
+        <v>4786</v>
       </c>
       <c r="BA20" s="17">
-        <v>4786</v>
+        <v>3777</v>
       </c>
       <c r="BB20" s="17">
-        <v>3777</v>
+        <v>4932</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>65</v>
       </c>
@@ -2936,7 +2971,7 @@
       <c r="BA21" s="19"/>
       <c r="BB21" s="19"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>66</v>
       </c>
@@ -3002,8 +3037,8 @@
       <c r="X22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="15" t="s">
-        <v>58</v>
+      <c r="Y22" s="15">
+        <v>0</v>
       </c>
       <c r="Z22" s="15">
         <v>0</v>
@@ -3093,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>67</v>
       </c>
@@ -3160,97 +3195,97 @@
         <v>0</v>
       </c>
       <c r="Y23" s="17">
-        <v>0</v>
+        <v>22307</v>
       </c>
       <c r="Z23" s="17">
-        <v>22307</v>
+        <v>22130</v>
       </c>
       <c r="AA23" s="17">
-        <v>22130</v>
+        <v>22442</v>
       </c>
       <c r="AB23" s="17">
-        <v>22442</v>
+        <v>20480</v>
       </c>
       <c r="AC23" s="17">
-        <v>20480</v>
+        <v>22792</v>
       </c>
       <c r="AD23" s="17">
-        <v>22792</v>
+        <v>21286</v>
       </c>
       <c r="AE23" s="17">
-        <v>21286</v>
+        <v>21146</v>
       </c>
       <c r="AF23" s="17">
-        <v>21146</v>
+        <v>22584</v>
       </c>
       <c r="AG23" s="17">
-        <v>22584</v>
+        <v>21750</v>
       </c>
       <c r="AH23" s="17">
-        <v>21750</v>
+        <v>23001</v>
       </c>
       <c r="AI23" s="17">
-        <v>23001</v>
+        <v>22666</v>
       </c>
       <c r="AJ23" s="17">
-        <v>22666</v>
+        <v>22440</v>
       </c>
       <c r="AK23" s="17">
-        <v>22440</v>
+        <v>22828</v>
       </c>
       <c r="AL23" s="17">
-        <v>22828</v>
+        <v>22764</v>
       </c>
       <c r="AM23" s="17">
-        <v>22764</v>
+        <v>24717</v>
       </c>
       <c r="AN23" s="17">
-        <v>24717</v>
+        <v>24748</v>
       </c>
       <c r="AO23" s="17">
-        <v>24748</v>
+        <v>23263</v>
       </c>
       <c r="AP23" s="17">
-        <v>23263</v>
+        <v>26113</v>
       </c>
       <c r="AQ23" s="17">
-        <v>26113</v>
+        <v>24042</v>
       </c>
       <c r="AR23" s="17">
-        <v>24042</v>
+        <v>24290</v>
       </c>
       <c r="AS23" s="17">
-        <v>24290</v>
+        <v>25006</v>
       </c>
       <c r="AT23" s="17">
-        <v>25006</v>
+        <v>21225</v>
       </c>
       <c r="AU23" s="17">
-        <v>21225</v>
+        <v>25403</v>
       </c>
       <c r="AV23" s="17">
-        <v>25403</v>
+        <v>26198</v>
       </c>
       <c r="AW23" s="17">
-        <v>26198</v>
+        <v>27004</v>
       </c>
       <c r="AX23" s="17">
-        <v>27004</v>
+        <v>27468</v>
       </c>
       <c r="AY23" s="17">
-        <v>27468</v>
+        <v>27071</v>
       </c>
       <c r="AZ23" s="17">
-        <v>27071</v>
+        <v>25966</v>
       </c>
       <c r="BA23" s="17">
-        <v>25966</v>
+        <v>25558</v>
       </c>
       <c r="BB23" s="17">
-        <v>25558</v>
+        <v>25474</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3305,7 +3340,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3360,7 +3395,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3415,7 +3450,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>68</v>
       </c>
@@ -3572,7 +3607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3627,7 +3662,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>69</v>
       </c>
@@ -3684,7 +3719,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>56</v>
       </c>
@@ -3752,98 +3787,98 @@
       <c r="X30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y30" s="11" t="s">
-        <v>58</v>
+      <c r="Y30" s="11">
+        <v>16672</v>
       </c>
       <c r="Z30" s="11">
-        <v>16672</v>
+        <v>14880</v>
       </c>
       <c r="AA30" s="11">
-        <v>14880</v>
+        <v>15265</v>
       </c>
       <c r="AB30" s="11">
-        <v>15265</v>
+        <v>13358</v>
       </c>
       <c r="AC30" s="11">
-        <v>13358</v>
+        <v>15115</v>
       </c>
       <c r="AD30" s="11">
-        <v>15115</v>
+        <v>15276</v>
       </c>
       <c r="AE30" s="11">
-        <v>15276</v>
+        <v>14421</v>
       </c>
       <c r="AF30" s="11">
-        <v>14421</v>
+        <v>14911</v>
       </c>
       <c r="AG30" s="11">
-        <v>14911</v>
+        <v>13336</v>
       </c>
       <c r="AH30" s="11">
-        <v>13336</v>
+        <v>12715</v>
       </c>
       <c r="AI30" s="11">
-        <v>12715</v>
+        <v>17490</v>
       </c>
       <c r="AJ30" s="11">
-        <v>17490</v>
+        <v>16505</v>
       </c>
       <c r="AK30" s="11">
-        <v>16505</v>
+        <v>15991</v>
       </c>
       <c r="AL30" s="11">
-        <v>15991</v>
+        <v>11937</v>
       </c>
       <c r="AM30" s="11">
-        <v>11937</v>
+        <v>17109</v>
       </c>
       <c r="AN30" s="11">
-        <v>17109</v>
+        <v>14487</v>
       </c>
       <c r="AO30" s="11">
-        <v>14487</v>
+        <v>15446</v>
       </c>
       <c r="AP30" s="11">
-        <v>15446</v>
+        <v>14294</v>
       </c>
       <c r="AQ30" s="11">
-        <v>14294</v>
+        <v>11985</v>
       </c>
       <c r="AR30" s="11">
-        <v>11985</v>
+        <v>11001</v>
       </c>
       <c r="AS30" s="11">
-        <v>11001</v>
+        <v>20825</v>
       </c>
       <c r="AT30" s="11">
-        <v>20825</v>
+        <v>3865</v>
       </c>
       <c r="AU30" s="11">
-        <v>3865</v>
+        <v>15355</v>
       </c>
       <c r="AV30" s="11">
-        <v>15355</v>
+        <v>21359</v>
       </c>
       <c r="AW30" s="11">
-        <v>21359</v>
+        <v>20092</v>
       </c>
       <c r="AX30" s="11">
-        <v>20092</v>
+        <v>16106</v>
       </c>
       <c r="AY30" s="11">
-        <v>16106</v>
+        <v>12872</v>
       </c>
       <c r="AZ30" s="11">
-        <v>12872</v>
+        <v>10896</v>
       </c>
       <c r="BA30" s="11">
-        <v>10896</v>
+        <v>15021</v>
       </c>
       <c r="BB30" s="11">
-        <v>15021</v>
+        <v>18143</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
@@ -3911,98 +3946,98 @@
       <c r="X31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="13" t="s">
-        <v>58</v>
+      <c r="Y31" s="13">
+        <v>4611</v>
       </c>
       <c r="Z31" s="13">
-        <v>4611</v>
+        <v>3801</v>
       </c>
       <c r="AA31" s="13">
-        <v>3801</v>
+        <v>4769</v>
       </c>
       <c r="AB31" s="13">
-        <v>4769</v>
+        <v>4728</v>
       </c>
       <c r="AC31" s="13">
-        <v>4728</v>
+        <v>4417</v>
       </c>
       <c r="AD31" s="13">
-        <v>4417</v>
+        <v>4685</v>
       </c>
       <c r="AE31" s="13">
-        <v>4685</v>
+        <v>4292</v>
       </c>
       <c r="AF31" s="13">
-        <v>4292</v>
+        <v>5061</v>
       </c>
       <c r="AG31" s="13">
-        <v>5061</v>
+        <v>4621</v>
       </c>
       <c r="AH31" s="13">
-        <v>4621</v>
+        <v>4304</v>
       </c>
       <c r="AI31" s="13">
-        <v>4304</v>
+        <v>5178</v>
       </c>
       <c r="AJ31" s="13">
-        <v>5178</v>
+        <v>5302</v>
       </c>
       <c r="AK31" s="13">
-        <v>5302</v>
+        <v>4532</v>
       </c>
       <c r="AL31" s="13">
-        <v>4532</v>
+        <v>4344</v>
       </c>
       <c r="AM31" s="13">
-        <v>4344</v>
+        <v>5765</v>
       </c>
       <c r="AN31" s="13">
-        <v>5765</v>
+        <v>5438</v>
       </c>
       <c r="AO31" s="13">
-        <v>5438</v>
+        <v>5788</v>
       </c>
       <c r="AP31" s="13">
-        <v>5788</v>
+        <v>6084</v>
       </c>
       <c r="AQ31" s="13">
-        <v>6084</v>
+        <v>5941</v>
       </c>
       <c r="AR31" s="13">
-        <v>5941</v>
+        <v>6559</v>
       </c>
       <c r="AS31" s="13">
-        <v>6559</v>
+        <v>5746</v>
       </c>
       <c r="AT31" s="13">
-        <v>5746</v>
+        <v>3236</v>
       </c>
       <c r="AU31" s="13">
-        <v>3236</v>
+        <v>5658</v>
       </c>
       <c r="AV31" s="13">
-        <v>5658</v>
+        <v>5664</v>
       </c>
       <c r="AW31" s="13">
-        <v>5664</v>
+        <v>5173</v>
       </c>
       <c r="AX31" s="13">
-        <v>5173</v>
+        <v>5689</v>
       </c>
       <c r="AY31" s="13">
-        <v>5689</v>
+        <v>5821</v>
       </c>
       <c r="AZ31" s="13">
-        <v>5821</v>
+        <v>5723</v>
       </c>
       <c r="BA31" s="13">
-        <v>5723</v>
+        <v>7343</v>
       </c>
       <c r="BB31" s="13">
-        <v>7343</v>
+        <v>6417</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>60</v>
       </c>
@@ -4133,8 +4168,8 @@
       <c r="AS32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT32" s="11" t="s">
-        <v>58</v>
+      <c r="AT32" s="11">
+        <v>0</v>
       </c>
       <c r="AU32" s="11">
         <v>0</v>
@@ -4161,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>61</v>
       </c>
@@ -4292,8 +4327,8 @@
       <c r="AS33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT33" s="13" t="s">
-        <v>58</v>
+      <c r="AT33" s="13">
+        <v>0</v>
       </c>
       <c r="AU33" s="13">
         <v>0</v>
@@ -4320,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>70</v>
       </c>
@@ -4387,97 +4422,97 @@
         <v>0</v>
       </c>
       <c r="Y34" s="15">
-        <v>0</v>
+        <v>21283</v>
       </c>
       <c r="Z34" s="15">
-        <v>21283</v>
+        <v>18681</v>
       </c>
       <c r="AA34" s="15">
-        <v>18681</v>
+        <v>20034</v>
       </c>
       <c r="AB34" s="15">
-        <v>20034</v>
+        <v>18086</v>
       </c>
       <c r="AC34" s="15">
-        <v>18086</v>
+        <v>19532</v>
       </c>
       <c r="AD34" s="15">
-        <v>19532</v>
+        <v>19961</v>
       </c>
       <c r="AE34" s="15">
-        <v>19961</v>
+        <v>18713</v>
       </c>
       <c r="AF34" s="15">
-        <v>18713</v>
+        <v>19972</v>
       </c>
       <c r="AG34" s="15">
-        <v>19972</v>
+        <v>17957</v>
       </c>
       <c r="AH34" s="15">
-        <v>17957</v>
+        <v>17019</v>
       </c>
       <c r="AI34" s="15">
-        <v>17019</v>
+        <v>22668</v>
       </c>
       <c r="AJ34" s="15">
-        <v>22668</v>
+        <v>21807</v>
       </c>
       <c r="AK34" s="15">
-        <v>21807</v>
+        <v>20523</v>
       </c>
       <c r="AL34" s="15">
-        <v>20523</v>
+        <v>16281</v>
       </c>
       <c r="AM34" s="15">
-        <v>16281</v>
+        <v>22874</v>
       </c>
       <c r="AN34" s="15">
-        <v>22874</v>
+        <v>19925</v>
       </c>
       <c r="AO34" s="15">
-        <v>19925</v>
+        <v>21234</v>
       </c>
       <c r="AP34" s="15">
-        <v>21234</v>
+        <v>20378</v>
       </c>
       <c r="AQ34" s="15">
-        <v>20378</v>
+        <v>17926</v>
       </c>
       <c r="AR34" s="15">
-        <v>17926</v>
+        <v>17560</v>
       </c>
       <c r="AS34" s="15">
-        <v>17560</v>
+        <v>26571</v>
       </c>
       <c r="AT34" s="15">
-        <v>26571</v>
+        <v>7101</v>
       </c>
       <c r="AU34" s="15">
-        <v>7101</v>
+        <v>21013</v>
       </c>
       <c r="AV34" s="15">
-        <v>21013</v>
+        <v>27023</v>
       </c>
       <c r="AW34" s="15">
-        <v>27023</v>
+        <v>25265</v>
       </c>
       <c r="AX34" s="15">
-        <v>25265</v>
+        <v>21795</v>
       </c>
       <c r="AY34" s="15">
-        <v>21795</v>
+        <v>18693</v>
       </c>
       <c r="AZ34" s="15">
-        <v>18693</v>
+        <v>16619</v>
       </c>
       <c r="BA34" s="15">
-        <v>16619</v>
+        <v>22364</v>
       </c>
       <c r="BB34" s="15">
-        <v>22364</v>
+        <v>24560</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>71</v>
       </c>
@@ -4534,7 +4569,7 @@
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>56</v>
       </c>
@@ -4602,98 +4637,98 @@
       <c r="X36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="11" t="s">
-        <v>58</v>
+      <c r="Y36" s="11">
+        <v>254</v>
       </c>
       <c r="Z36" s="11">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="AA36" s="11">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="AB36" s="11">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="AC36" s="11">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="AD36" s="11">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="AE36" s="11">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="AF36" s="11">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="AG36" s="11">
+        <v>71</v>
+      </c>
+      <c r="AH36" s="11">
+        <v>49</v>
+      </c>
+      <c r="AI36" s="11">
+        <v>196</v>
+      </c>
+      <c r="AJ36" s="11">
+        <v>40</v>
+      </c>
+      <c r="AK36" s="11">
         <v>100</v>
       </c>
-      <c r="AH36" s="11">
-        <v>71</v>
-      </c>
-      <c r="AI36" s="11">
+      <c r="AL36" s="11">
+        <v>48</v>
+      </c>
+      <c r="AM36" s="11">
         <v>49</v>
       </c>
-      <c r="AJ36" s="11">
-        <v>196</v>
-      </c>
-      <c r="AK36" s="11">
-        <v>40</v>
-      </c>
-      <c r="AL36" s="11">
-        <v>100</v>
-      </c>
-      <c r="AM36" s="11">
-        <v>48</v>
-      </c>
       <c r="AN36" s="11">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="AO36" s="11">
-        <v>101</v>
+        <v>795</v>
       </c>
       <c r="AP36" s="11">
-        <v>795</v>
+        <v>471</v>
       </c>
       <c r="AQ36" s="11">
-        <v>471</v>
+        <v>234</v>
       </c>
       <c r="AR36" s="11">
-        <v>234</v>
+        <v>667</v>
       </c>
       <c r="AS36" s="11">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="AT36" s="11">
-        <v>444</v>
+        <v>126</v>
       </c>
       <c r="AU36" s="11">
-        <v>126</v>
+        <v>505</v>
       </c>
       <c r="AV36" s="11">
-        <v>505</v>
+        <v>628</v>
       </c>
       <c r="AW36" s="11">
-        <v>628</v>
+        <v>248</v>
       </c>
       <c r="AX36" s="11">
-        <v>248</v>
+        <v>475</v>
       </c>
       <c r="AY36" s="11">
-        <v>475</v>
+        <v>846</v>
       </c>
       <c r="AZ36" s="11">
-        <v>846</v>
+        <v>426</v>
       </c>
       <c r="BA36" s="11">
-        <v>426</v>
+        <v>855</v>
       </c>
       <c r="BB36" s="11">
-        <v>855</v>
+        <v>957</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>59</v>
       </c>
@@ -4761,98 +4796,98 @@
       <c r="X37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="13" t="s">
-        <v>58</v>
+      <c r="Y37" s="13">
+        <v>1889</v>
       </c>
       <c r="Z37" s="13">
-        <v>1889</v>
+        <v>1847</v>
       </c>
       <c r="AA37" s="13">
-        <v>1847</v>
+        <v>2287</v>
       </c>
       <c r="AB37" s="13">
-        <v>2287</v>
+        <v>2428</v>
       </c>
       <c r="AC37" s="13">
-        <v>2428</v>
+        <v>2094</v>
       </c>
       <c r="AD37" s="13">
-        <v>2094</v>
+        <v>1173</v>
       </c>
       <c r="AE37" s="13">
-        <v>1173</v>
+        <v>3201</v>
       </c>
       <c r="AF37" s="13">
-        <v>3201</v>
+        <v>2124</v>
       </c>
       <c r="AG37" s="13">
-        <v>2124</v>
+        <v>2258</v>
       </c>
       <c r="AH37" s="13">
-        <v>2258</v>
+        <v>3179</v>
       </c>
       <c r="AI37" s="13">
-        <v>3179</v>
+        <v>1063</v>
       </c>
       <c r="AJ37" s="13">
-        <v>1063</v>
+        <v>2407</v>
       </c>
       <c r="AK37" s="13">
-        <v>2407</v>
+        <v>2327</v>
       </c>
       <c r="AL37" s="13">
-        <v>2327</v>
+        <v>3222</v>
       </c>
       <c r="AM37" s="13">
-        <v>3222</v>
+        <v>2760</v>
       </c>
       <c r="AN37" s="13">
-        <v>2760</v>
+        <v>2896</v>
       </c>
       <c r="AO37" s="13">
-        <v>2896</v>
+        <v>2862</v>
       </c>
       <c r="AP37" s="13">
-        <v>2862</v>
+        <v>3674</v>
       </c>
       <c r="AQ37" s="13">
-        <v>3674</v>
+        <v>1842</v>
       </c>
       <c r="AR37" s="13">
-        <v>1842</v>
+        <v>1574</v>
       </c>
       <c r="AS37" s="13">
-        <v>1574</v>
+        <v>3194</v>
       </c>
       <c r="AT37" s="13">
-        <v>3194</v>
+        <v>3591</v>
       </c>
       <c r="AU37" s="13">
-        <v>3591</v>
+        <v>4075</v>
       </c>
       <c r="AV37" s="13">
-        <v>4075</v>
+        <v>4984</v>
       </c>
       <c r="AW37" s="13">
-        <v>4984</v>
+        <v>5116</v>
       </c>
       <c r="AX37" s="13">
-        <v>5116</v>
+        <v>6454</v>
       </c>
       <c r="AY37" s="13">
-        <v>6454</v>
+        <v>4432</v>
       </c>
       <c r="AZ37" s="13">
-        <v>4432</v>
+        <v>4360</v>
       </c>
       <c r="BA37" s="13">
-        <v>4360</v>
+        <v>2922</v>
       </c>
       <c r="BB37" s="13">
-        <v>2922</v>
+        <v>3975</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -4983,8 +5018,8 @@
       <c r="AS38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT38" s="11" t="s">
-        <v>58</v>
+      <c r="AT38" s="11">
+        <v>0</v>
       </c>
       <c r="AU38" s="11">
         <v>0</v>
@@ -5011,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>72</v>
       </c>
@@ -5078,97 +5113,97 @@
         <v>0</v>
       </c>
       <c r="Y39" s="17">
-        <v>0</v>
+        <v>2143</v>
       </c>
       <c r="Z39" s="17">
-        <v>2143</v>
+        <v>2071</v>
       </c>
       <c r="AA39" s="17">
-        <v>2071</v>
+        <v>2538</v>
       </c>
       <c r="AB39" s="17">
-        <v>2538</v>
+        <v>2646</v>
       </c>
       <c r="AC39" s="17">
-        <v>2646</v>
+        <v>2192</v>
       </c>
       <c r="AD39" s="17">
-        <v>2192</v>
+        <v>1371</v>
       </c>
       <c r="AE39" s="17">
-        <v>1371</v>
+        <v>3424</v>
       </c>
       <c r="AF39" s="17">
-        <v>3424</v>
+        <v>2224</v>
       </c>
       <c r="AG39" s="17">
-        <v>2224</v>
+        <v>2329</v>
       </c>
       <c r="AH39" s="17">
-        <v>2329</v>
+        <v>3228</v>
       </c>
       <c r="AI39" s="17">
-        <v>3228</v>
+        <v>1259</v>
       </c>
       <c r="AJ39" s="17">
-        <v>1259</v>
+        <v>2447</v>
       </c>
       <c r="AK39" s="17">
-        <v>2447</v>
+        <v>2427</v>
       </c>
       <c r="AL39" s="17">
-        <v>2427</v>
+        <v>3270</v>
       </c>
       <c r="AM39" s="17">
-        <v>3270</v>
+        <v>2809</v>
       </c>
       <c r="AN39" s="17">
-        <v>2809</v>
+        <v>2997</v>
       </c>
       <c r="AO39" s="17">
-        <v>2997</v>
+        <v>3657</v>
       </c>
       <c r="AP39" s="17">
-        <v>3657</v>
+        <v>4145</v>
       </c>
       <c r="AQ39" s="17">
-        <v>4145</v>
+        <v>2076</v>
       </c>
       <c r="AR39" s="17">
-        <v>2076</v>
+        <v>2241</v>
       </c>
       <c r="AS39" s="17">
-        <v>2241</v>
+        <v>3638</v>
       </c>
       <c r="AT39" s="17">
-        <v>3638</v>
+        <v>3717</v>
       </c>
       <c r="AU39" s="17">
-        <v>3717</v>
+        <v>4580</v>
       </c>
       <c r="AV39" s="17">
-        <v>4580</v>
+        <v>5612</v>
       </c>
       <c r="AW39" s="17">
-        <v>5612</v>
+        <v>5364</v>
       </c>
       <c r="AX39" s="17">
-        <v>5364</v>
+        <v>6929</v>
       </c>
       <c r="AY39" s="17">
-        <v>6929</v>
+        <v>5278</v>
       </c>
       <c r="AZ39" s="17">
-        <v>5278</v>
+        <v>4786</v>
       </c>
       <c r="BA39" s="17">
-        <v>4786</v>
+        <v>3777</v>
       </c>
       <c r="BB39" s="17">
-        <v>3777</v>
+        <v>4932</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
         <v>65</v>
       </c>
@@ -5225,7 +5260,7 @@
       <c r="BA40" s="19"/>
       <c r="BB40" s="19"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>66</v>
       </c>
@@ -5291,8 +5326,8 @@
       <c r="X41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="15" t="s">
-        <v>58</v>
+      <c r="Y41" s="15">
+        <v>0</v>
       </c>
       <c r="Z41" s="15">
         <v>0</v>
@@ -5382,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>73</v>
       </c>
@@ -5439,7 +5474,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>56</v>
       </c>
@@ -5507,8 +5542,8 @@
       <c r="X43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>58</v>
+      <c r="Y43" s="11">
+        <v>0</v>
       </c>
       <c r="Z43" s="11">
         <v>0</v>
@@ -5537,8 +5572,8 @@
       <c r="AH43" s="11">
         <v>0</v>
       </c>
-      <c r="AI43" s="11">
-        <v>0</v>
+      <c r="AI43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ43" s="11" t="s">
         <v>58</v>
@@ -5598,7 +5633,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>59</v>
       </c>
@@ -5666,8 +5701,8 @@
       <c r="X44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="13" t="s">
-        <v>58</v>
+      <c r="Y44" s="13">
+        <v>0</v>
       </c>
       <c r="Z44" s="13">
         <v>0</v>
@@ -5696,8 +5731,8 @@
       <c r="AH44" s="13">
         <v>0</v>
       </c>
-      <c r="AI44" s="13">
-        <v>0</v>
+      <c r="AI44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ44" s="13" t="s">
         <v>58</v>
@@ -5757,7 +5792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>74</v>
       </c>
@@ -5823,8 +5858,8 @@
       <c r="X45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="15" t="s">
-        <v>58</v>
+      <c r="Y45" s="15">
+        <v>0</v>
       </c>
       <c r="Z45" s="15">
         <v>0</v>
@@ -5914,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>67</v>
       </c>
@@ -5981,97 +6016,97 @@
         <v>0</v>
       </c>
       <c r="Y46" s="17">
-        <v>0</v>
+        <v>23426</v>
       </c>
       <c r="Z46" s="17">
-        <v>23426</v>
+        <v>20752</v>
       </c>
       <c r="AA46" s="17">
-        <v>20752</v>
+        <v>22572</v>
       </c>
       <c r="AB46" s="17">
-        <v>22572</v>
+        <v>20732</v>
       </c>
       <c r="AC46" s="17">
-        <v>20732</v>
+        <v>21724</v>
       </c>
       <c r="AD46" s="17">
-        <v>21724</v>
+        <v>21332</v>
       </c>
       <c r="AE46" s="17">
-        <v>21332</v>
+        <v>22137</v>
       </c>
       <c r="AF46" s="17">
-        <v>22137</v>
+        <v>22196</v>
       </c>
       <c r="AG46" s="17">
-        <v>22196</v>
+        <v>20286</v>
       </c>
       <c r="AH46" s="17">
-        <v>20286</v>
+        <v>20247</v>
       </c>
       <c r="AI46" s="17">
-        <v>20247</v>
+        <v>23927</v>
       </c>
       <c r="AJ46" s="17">
-        <v>23927</v>
+        <v>24254</v>
       </c>
       <c r="AK46" s="17">
-        <v>24254</v>
+        <v>22950</v>
       </c>
       <c r="AL46" s="17">
-        <v>22950</v>
+        <v>19551</v>
       </c>
       <c r="AM46" s="17">
-        <v>19551</v>
+        <v>25683</v>
       </c>
       <c r="AN46" s="17">
-        <v>25683</v>
+        <v>22922</v>
       </c>
       <c r="AO46" s="17">
-        <v>22922</v>
+        <v>24891</v>
       </c>
       <c r="AP46" s="17">
-        <v>24891</v>
+        <v>24523</v>
       </c>
       <c r="AQ46" s="17">
-        <v>24523</v>
+        <v>20002</v>
       </c>
       <c r="AR46" s="17">
-        <v>20002</v>
+        <v>19801</v>
       </c>
       <c r="AS46" s="17">
-        <v>19801</v>
+        <v>30209</v>
       </c>
       <c r="AT46" s="17">
-        <v>30209</v>
+        <v>10818</v>
       </c>
       <c r="AU46" s="17">
-        <v>10818</v>
+        <v>25593</v>
       </c>
       <c r="AV46" s="17">
-        <v>25593</v>
+        <v>32635</v>
       </c>
       <c r="AW46" s="17">
-        <v>32635</v>
+        <v>30629</v>
       </c>
       <c r="AX46" s="17">
-        <v>30629</v>
+        <v>28724</v>
       </c>
       <c r="AY46" s="17">
-        <v>28724</v>
+        <v>23971</v>
       </c>
       <c r="AZ46" s="17">
-        <v>23971</v>
+        <v>21405</v>
       </c>
       <c r="BA46" s="17">
-        <v>21405</v>
+        <v>26141</v>
       </c>
       <c r="BB46" s="17">
-        <v>26141</v>
+        <v>29492</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6126,7 +6161,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6181,7 +6216,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6236,7 +6271,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>75</v>
       </c>
@@ -6393,7 +6428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6448,7 +6483,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>76</v>
       </c>
@@ -6505,7 +6540,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
@@ -6573,98 +6608,98 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>240396</v>
       </c>
       <c r="Z53" s="11">
-        <v>240396</v>
+        <v>221268</v>
       </c>
       <c r="AA53" s="11">
-        <v>221268</v>
+        <v>226628</v>
       </c>
       <c r="AB53" s="11">
-        <v>226628</v>
+        <v>221668</v>
       </c>
       <c r="AC53" s="11">
-        <v>221668</v>
+        <v>291836</v>
       </c>
       <c r="AD53" s="11">
-        <v>291836</v>
+        <v>322709</v>
       </c>
       <c r="AE53" s="11">
-        <v>322709</v>
+        <v>368101</v>
       </c>
       <c r="AF53" s="11">
-        <v>368101</v>
+        <v>422892</v>
       </c>
       <c r="AG53" s="11">
-        <v>422892</v>
+        <v>382599</v>
       </c>
       <c r="AH53" s="11">
-        <v>382599</v>
+        <v>325749</v>
       </c>
       <c r="AI53" s="11">
-        <v>325749</v>
+        <v>446616</v>
       </c>
       <c r="AJ53" s="11">
-        <v>446616</v>
+        <v>421001</v>
       </c>
       <c r="AK53" s="11">
-        <v>421001</v>
+        <v>414233</v>
       </c>
       <c r="AL53" s="11">
-        <v>414233</v>
+        <v>305806</v>
       </c>
       <c r="AM53" s="11">
-        <v>305806</v>
+        <v>443645</v>
       </c>
       <c r="AN53" s="11">
-        <v>443645</v>
+        <v>394831</v>
       </c>
       <c r="AO53" s="11">
-        <v>394831</v>
+        <v>432928</v>
       </c>
       <c r="AP53" s="11">
-        <v>432928</v>
+        <v>405259</v>
       </c>
       <c r="AQ53" s="11">
-        <v>405259</v>
+        <v>340475</v>
       </c>
       <c r="AR53" s="11">
-        <v>340475</v>
+        <v>321645</v>
       </c>
       <c r="AS53" s="11">
-        <v>321645</v>
+        <v>591174</v>
       </c>
       <c r="AT53" s="11">
-        <v>591174</v>
+        <v>109707</v>
       </c>
       <c r="AU53" s="11">
-        <v>109707</v>
+        <v>433882</v>
       </c>
       <c r="AV53" s="11">
-        <v>433882</v>
+        <v>626367</v>
       </c>
       <c r="AW53" s="11">
-        <v>626367</v>
+        <v>624118</v>
       </c>
       <c r="AX53" s="11">
-        <v>624118</v>
+        <v>520408</v>
       </c>
       <c r="AY53" s="11">
-        <v>520408</v>
+        <v>453577</v>
       </c>
       <c r="AZ53" s="11">
-        <v>453577</v>
+        <v>382354</v>
       </c>
       <c r="BA53" s="11">
-        <v>382354</v>
+        <v>534196</v>
       </c>
       <c r="BB53" s="11">
-        <v>534196</v>
+        <v>639351</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>59</v>
       </c>
@@ -6732,98 +6767,98 @@
       <c r="X54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="13" t="s">
-        <v>58</v>
+      <c r="Y54" s="13">
+        <v>32482</v>
       </c>
       <c r="Z54" s="13">
-        <v>32482</v>
+        <v>29197</v>
       </c>
       <c r="AA54" s="13">
-        <v>29197</v>
+        <v>35269</v>
       </c>
       <c r="AB54" s="13">
-        <v>35269</v>
+        <v>38228</v>
       </c>
       <c r="AC54" s="13">
-        <v>38228</v>
+        <v>44308</v>
       </c>
       <c r="AD54" s="13">
-        <v>44308</v>
+        <v>48405</v>
       </c>
       <c r="AE54" s="13">
-        <v>48405</v>
+        <v>45235</v>
       </c>
       <c r="AF54" s="13">
-        <v>45235</v>
+        <v>50483</v>
       </c>
       <c r="AG54" s="13">
-        <v>50483</v>
+        <v>44652</v>
       </c>
       <c r="AH54" s="13">
-        <v>44652</v>
+        <v>44926</v>
       </c>
       <c r="AI54" s="13">
-        <v>44926</v>
+        <v>57981</v>
       </c>
       <c r="AJ54" s="13">
-        <v>57981</v>
+        <v>57536</v>
       </c>
       <c r="AK54" s="13">
-        <v>57536</v>
+        <v>54650</v>
       </c>
       <c r="AL54" s="13">
-        <v>54650</v>
+        <v>55864</v>
       </c>
       <c r="AM54" s="13">
-        <v>55864</v>
+        <v>72335</v>
       </c>
       <c r="AN54" s="13">
-        <v>72335</v>
+        <v>66553</v>
       </c>
       <c r="AO54" s="13">
-        <v>66553</v>
+        <v>72293</v>
       </c>
       <c r="AP54" s="13">
-        <v>72293</v>
+        <v>79371</v>
       </c>
       <c r="AQ54" s="13">
-        <v>79371</v>
+        <v>81433</v>
       </c>
       <c r="AR54" s="13">
-        <v>81433</v>
+        <v>91026</v>
       </c>
       <c r="AS54" s="13">
-        <v>91026</v>
+        <v>82711</v>
       </c>
       <c r="AT54" s="13">
-        <v>82711</v>
+        <v>49439</v>
       </c>
       <c r="AU54" s="13">
-        <v>49439</v>
+        <v>89649</v>
       </c>
       <c r="AV54" s="13">
-        <v>89649</v>
+        <v>89136</v>
       </c>
       <c r="AW54" s="13">
-        <v>89136</v>
+        <v>79274</v>
       </c>
       <c r="AX54" s="13">
-        <v>79274</v>
+        <v>91761</v>
       </c>
       <c r="AY54" s="13">
-        <v>91761</v>
+        <v>90951</v>
       </c>
       <c r="AZ54" s="13">
-        <v>90951</v>
+        <v>89409</v>
       </c>
       <c r="BA54" s="13">
-        <v>89409</v>
+        <v>112599</v>
       </c>
       <c r="BB54" s="13">
-        <v>112599</v>
+        <v>105840</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>60</v>
       </c>
@@ -6954,8 +6989,8 @@
       <c r="AS55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT55" s="11" t="s">
-        <v>58</v>
+      <c r="AT55" s="11">
+        <v>0</v>
       </c>
       <c r="AU55" s="11">
         <v>0</v>
@@ -6982,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>61</v>
       </c>
@@ -7113,8 +7148,8 @@
       <c r="AS56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT56" s="13" t="s">
-        <v>58</v>
+      <c r="AT56" s="13">
+        <v>0</v>
       </c>
       <c r="AU56" s="13">
         <v>0</v>
@@ -7141,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>70</v>
       </c>
@@ -7208,97 +7243,97 @@
         <v>0</v>
       </c>
       <c r="Y57" s="15">
-        <v>0</v>
+        <v>272878</v>
       </c>
       <c r="Z57" s="15">
-        <v>272878</v>
+        <v>250465</v>
       </c>
       <c r="AA57" s="15">
-        <v>250465</v>
+        <v>261897</v>
       </c>
       <c r="AB57" s="15">
-        <v>261897</v>
+        <v>259896</v>
       </c>
       <c r="AC57" s="15">
-        <v>259896</v>
+        <v>336144</v>
       </c>
       <c r="AD57" s="15">
-        <v>336144</v>
+        <v>371114</v>
       </c>
       <c r="AE57" s="15">
-        <v>371114</v>
+        <v>413336</v>
       </c>
       <c r="AF57" s="15">
-        <v>413336</v>
+        <v>473375</v>
       </c>
       <c r="AG57" s="15">
-        <v>473375</v>
+        <v>427251</v>
       </c>
       <c r="AH57" s="15">
-        <v>427251</v>
+        <v>370675</v>
       </c>
       <c r="AI57" s="15">
-        <v>370675</v>
+        <v>504597</v>
       </c>
       <c r="AJ57" s="15">
-        <v>504597</v>
+        <v>478537</v>
       </c>
       <c r="AK57" s="15">
-        <v>478537</v>
+        <v>468883</v>
       </c>
       <c r="AL57" s="15">
-        <v>468883</v>
+        <v>361670</v>
       </c>
       <c r="AM57" s="15">
-        <v>361670</v>
+        <v>515980</v>
       </c>
       <c r="AN57" s="15">
-        <v>515980</v>
+        <v>461384</v>
       </c>
       <c r="AO57" s="15">
-        <v>461384</v>
+        <v>505221</v>
       </c>
       <c r="AP57" s="15">
-        <v>505221</v>
+        <v>484630</v>
       </c>
       <c r="AQ57" s="15">
-        <v>484630</v>
+        <v>421908</v>
       </c>
       <c r="AR57" s="15">
-        <v>421908</v>
+        <v>412671</v>
       </c>
       <c r="AS57" s="15">
-        <v>412671</v>
+        <v>673885</v>
       </c>
       <c r="AT57" s="15">
-        <v>673885</v>
+        <v>159146</v>
       </c>
       <c r="AU57" s="15">
-        <v>159146</v>
+        <v>523531</v>
       </c>
       <c r="AV57" s="15">
-        <v>523531</v>
+        <v>715503</v>
       </c>
       <c r="AW57" s="15">
-        <v>715503</v>
+        <v>703392</v>
       </c>
       <c r="AX57" s="15">
-        <v>703392</v>
+        <v>612169</v>
       </c>
       <c r="AY57" s="15">
-        <v>612169</v>
+        <v>544528</v>
       </c>
       <c r="AZ57" s="15">
-        <v>544528</v>
+        <v>471763</v>
       </c>
       <c r="BA57" s="15">
-        <v>471763</v>
+        <v>646795</v>
       </c>
       <c r="BB57" s="15">
-        <v>646795</v>
+        <v>745191</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>78</v>
       </c>
@@ -7355,7 +7390,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>56</v>
       </c>
@@ -7423,98 +7458,98 @@
       <c r="X59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>58</v>
+      <c r="Y59" s="11">
+        <v>6342</v>
       </c>
       <c r="Z59" s="11">
-        <v>6342</v>
+        <v>6201</v>
       </c>
       <c r="AA59" s="11">
-        <v>6201</v>
+        <v>7467</v>
       </c>
       <c r="AB59" s="11">
-        <v>7467</v>
+        <v>8509</v>
       </c>
       <c r="AC59" s="11">
-        <v>8509</v>
+        <v>3918</v>
       </c>
       <c r="AD59" s="11">
-        <v>3918</v>
+        <v>6911</v>
       </c>
       <c r="AE59" s="11">
-        <v>6911</v>
+        <v>8296</v>
       </c>
       <c r="AF59" s="11">
-        <v>8296</v>
+        <v>3354</v>
       </c>
       <c r="AG59" s="11">
-        <v>3354</v>
+        <v>2639</v>
       </c>
       <c r="AH59" s="11">
-        <v>2639</v>
+        <v>1789</v>
       </c>
       <c r="AI59" s="11">
-        <v>1789</v>
+        <v>6401</v>
       </c>
       <c r="AJ59" s="11">
-        <v>6401</v>
+        <v>1358</v>
       </c>
       <c r="AK59" s="11">
-        <v>1358</v>
+        <v>3637</v>
       </c>
       <c r="AL59" s="11">
-        <v>3637</v>
+        <v>1770</v>
       </c>
       <c r="AM59" s="11">
-        <v>1770</v>
+        <v>1958</v>
       </c>
       <c r="AN59" s="11">
-        <v>1958</v>
+        <v>3227</v>
       </c>
       <c r="AO59" s="11">
-        <v>3227</v>
+        <v>27109</v>
       </c>
       <c r="AP59" s="11">
-        <v>27109</v>
+        <v>14868</v>
       </c>
       <c r="AQ59" s="11">
-        <v>14868</v>
+        <v>8376</v>
       </c>
       <c r="AR59" s="11">
-        <v>8376</v>
+        <v>21482</v>
       </c>
       <c r="AS59" s="11">
-        <v>21482</v>
+        <v>14314</v>
       </c>
       <c r="AT59" s="11">
-        <v>14314</v>
+        <v>3612</v>
       </c>
       <c r="AU59" s="11">
-        <v>3612</v>
+        <v>15989</v>
       </c>
       <c r="AV59" s="11">
-        <v>15989</v>
+        <v>20467</v>
       </c>
       <c r="AW59" s="11">
-        <v>20467</v>
+        <v>9475</v>
       </c>
       <c r="AX59" s="11">
-        <v>9475</v>
+        <v>16690</v>
       </c>
       <c r="AY59" s="11">
-        <v>16690</v>
+        <v>30994</v>
       </c>
       <c r="AZ59" s="11">
-        <v>30994</v>
+        <v>17682</v>
       </c>
       <c r="BA59" s="11">
-        <v>17682</v>
+        <v>37726</v>
       </c>
       <c r="BB59" s="11">
-        <v>37726</v>
+        <v>40968</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>59</v>
       </c>
@@ -7582,98 +7617,98 @@
       <c r="X60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y60" s="13" t="s">
-        <v>58</v>
+      <c r="Y60" s="13">
+        <v>8068</v>
       </c>
       <c r="Z60" s="13">
-        <v>8068</v>
+        <v>10462</v>
       </c>
       <c r="AA60" s="13">
-        <v>10462</v>
+        <v>11489</v>
       </c>
       <c r="AB60" s="13">
-        <v>11489</v>
+        <v>10963</v>
       </c>
       <c r="AC60" s="13">
-        <v>10963</v>
+        <v>11304</v>
       </c>
       <c r="AD60" s="13">
-        <v>11304</v>
+        <v>9028</v>
       </c>
       <c r="AE60" s="13">
-        <v>9028</v>
+        <v>17506</v>
       </c>
       <c r="AF60" s="13">
-        <v>17506</v>
+        <v>9947</v>
       </c>
       <c r="AG60" s="13">
-        <v>9947</v>
+        <v>10681</v>
       </c>
       <c r="AH60" s="13">
-        <v>10681</v>
+        <v>17973</v>
       </c>
       <c r="AI60" s="13">
-        <v>17973</v>
+        <v>5851</v>
       </c>
       <c r="AJ60" s="13">
-        <v>5851</v>
+        <v>14924</v>
       </c>
       <c r="AK60" s="13">
-        <v>14924</v>
+        <v>17266</v>
       </c>
       <c r="AL60" s="13">
-        <v>17266</v>
+        <v>22849</v>
       </c>
       <c r="AM60" s="13">
-        <v>22849</v>
+        <v>20877</v>
       </c>
       <c r="AN60" s="13">
-        <v>20877</v>
+        <v>23564</v>
       </c>
       <c r="AO60" s="13">
-        <v>23564</v>
+        <v>22238</v>
       </c>
       <c r="AP60" s="13">
-        <v>22238</v>
+        <v>28272</v>
       </c>
       <c r="AQ60" s="13">
-        <v>28272</v>
+        <v>14535</v>
       </c>
       <c r="AR60" s="13">
-        <v>14535</v>
+        <v>14749</v>
       </c>
       <c r="AS60" s="13">
-        <v>14749</v>
+        <v>34545</v>
       </c>
       <c r="AT60" s="13">
-        <v>34545</v>
+        <v>34541</v>
       </c>
       <c r="AU60" s="13">
-        <v>34541</v>
+        <v>36915</v>
       </c>
       <c r="AV60" s="13">
-        <v>36915</v>
+        <v>46845</v>
       </c>
       <c r="AW60" s="13">
-        <v>46845</v>
+        <v>47743</v>
       </c>
       <c r="AX60" s="13">
-        <v>47743</v>
+        <v>68605</v>
       </c>
       <c r="AY60" s="13">
-        <v>68605</v>
+        <v>47724</v>
       </c>
       <c r="AZ60" s="13">
-        <v>47724</v>
+        <v>46103</v>
       </c>
       <c r="BA60" s="13">
-        <v>46103</v>
+        <v>39866</v>
       </c>
       <c r="BB60" s="13">
-        <v>39866</v>
+        <v>49892</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>61</v>
       </c>
@@ -7804,8 +7839,8 @@
       <c r="AS61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT61" s="11" t="s">
-        <v>58</v>
+      <c r="AT61" s="11">
+        <v>0</v>
       </c>
       <c r="AU61" s="11">
         <v>0</v>
@@ -7832,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="16" t="s">
         <v>72</v>
       </c>
@@ -7899,97 +7934,97 @@
         <v>0</v>
       </c>
       <c r="Y62" s="17">
-        <v>0</v>
+        <v>14410</v>
       </c>
       <c r="Z62" s="17">
-        <v>14410</v>
+        <v>16663</v>
       </c>
       <c r="AA62" s="17">
-        <v>16663</v>
+        <v>18956</v>
       </c>
       <c r="AB62" s="17">
-        <v>18956</v>
+        <v>19472</v>
       </c>
       <c r="AC62" s="17">
-        <v>19472</v>
+        <v>15222</v>
       </c>
       <c r="AD62" s="17">
-        <v>15222</v>
+        <v>15939</v>
       </c>
       <c r="AE62" s="17">
-        <v>15939</v>
+        <v>25802</v>
       </c>
       <c r="AF62" s="17">
-        <v>25802</v>
+        <v>13301</v>
       </c>
       <c r="AG62" s="17">
-        <v>13301</v>
+        <v>13320</v>
       </c>
       <c r="AH62" s="17">
-        <v>13320</v>
+        <v>19762</v>
       </c>
       <c r="AI62" s="17">
-        <v>19762</v>
+        <v>12252</v>
       </c>
       <c r="AJ62" s="17">
-        <v>12252</v>
+        <v>16282</v>
       </c>
       <c r="AK62" s="17">
-        <v>16282</v>
+        <v>20903</v>
       </c>
       <c r="AL62" s="17">
-        <v>20903</v>
+        <v>24619</v>
       </c>
       <c r="AM62" s="17">
-        <v>24619</v>
+        <v>22835</v>
       </c>
       <c r="AN62" s="17">
-        <v>22835</v>
+        <v>26791</v>
       </c>
       <c r="AO62" s="17">
-        <v>26791</v>
+        <v>49347</v>
       </c>
       <c r="AP62" s="17">
-        <v>49347</v>
+        <v>43140</v>
       </c>
       <c r="AQ62" s="17">
-        <v>43140</v>
+        <v>22911</v>
       </c>
       <c r="AR62" s="17">
-        <v>22911</v>
+        <v>36231</v>
       </c>
       <c r="AS62" s="17">
-        <v>36231</v>
+        <v>48859</v>
       </c>
       <c r="AT62" s="17">
-        <v>48859</v>
+        <v>38153</v>
       </c>
       <c r="AU62" s="17">
-        <v>38153</v>
+        <v>52904</v>
       </c>
       <c r="AV62" s="17">
-        <v>52904</v>
+        <v>67312</v>
       </c>
       <c r="AW62" s="17">
-        <v>67312</v>
+        <v>57218</v>
       </c>
       <c r="AX62" s="17">
-        <v>57218</v>
+        <v>85295</v>
       </c>
       <c r="AY62" s="17">
-        <v>85295</v>
+        <v>78718</v>
       </c>
       <c r="AZ62" s="17">
-        <v>78718</v>
+        <v>63785</v>
       </c>
       <c r="BA62" s="17">
-        <v>63785</v>
+        <v>77592</v>
       </c>
       <c r="BB62" s="17">
-        <v>77592</v>
+        <v>90860</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="18" t="s">
         <v>79</v>
       </c>
@@ -8046,7 +8081,7 @@
       <c r="BA63" s="19"/>
       <c r="BB63" s="19"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>66</v>
       </c>
@@ -8114,8 +8149,8 @@
       <c r="X64" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="15" t="s">
-        <v>58</v>
+      <c r="Y64" s="15">
+        <v>0</v>
       </c>
       <c r="Z64" s="15">
         <v>0</v>
@@ -8205,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>80</v>
       </c>
@@ -8262,7 +8297,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>56</v>
       </c>
@@ -8330,8 +8365,8 @@
       <c r="X66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="11" t="s">
-        <v>58</v>
+      <c r="Y66" s="11">
+        <v>0</v>
       </c>
       <c r="Z66" s="11">
         <v>0</v>
@@ -8393,8 +8428,8 @@
       <c r="AS66" s="11">
         <v>0</v>
       </c>
-      <c r="AT66" s="11">
-        <v>0</v>
+      <c r="AT66" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU66" s="11" t="s">
         <v>58</v>
@@ -8421,7 +8456,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>59</v>
       </c>
@@ -8489,8 +8524,8 @@
       <c r="X67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="13" t="s">
-        <v>58</v>
+      <c r="Y67" s="13">
+        <v>0</v>
       </c>
       <c r="Z67" s="13">
         <v>0</v>
@@ -8552,8 +8587,8 @@
       <c r="AS67" s="13">
         <v>0</v>
       </c>
-      <c r="AT67" s="13">
-        <v>0</v>
+      <c r="AT67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU67" s="13" t="s">
         <v>58</v>
@@ -8580,7 +8615,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
         <v>74</v>
       </c>
@@ -8648,8 +8683,8 @@
       <c r="X68" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="15" t="s">
-        <v>58</v>
+      <c r="Y68" s="15">
+        <v>0</v>
       </c>
       <c r="Z68" s="15">
         <v>0</v>
@@ -8739,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>81</v>
       </c>
@@ -8796,7 +8831,7 @@
       <c r="BA69" s="9"/>
       <c r="BB69" s="9"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>82</v>
       </c>
@@ -8864,8 +8899,8 @@
       <c r="X70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y70" s="11" t="s">
-        <v>58</v>
+      <c r="Y70" s="11">
+        <v>0</v>
       </c>
       <c r="Z70" s="11">
         <v>0</v>
@@ -8955,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="16" t="s">
         <v>67</v>
       </c>
@@ -9022,97 +9057,97 @@
         <v>0</v>
       </c>
       <c r="Y71" s="17">
-        <v>0</v>
+        <v>287288</v>
       </c>
       <c r="Z71" s="17">
-        <v>287288</v>
+        <v>267128</v>
       </c>
       <c r="AA71" s="17">
-        <v>267128</v>
+        <v>280853</v>
       </c>
       <c r="AB71" s="17">
-        <v>280853</v>
+        <v>279368</v>
       </c>
       <c r="AC71" s="17">
-        <v>279368</v>
+        <v>351366</v>
       </c>
       <c r="AD71" s="17">
-        <v>351366</v>
+        <v>387053</v>
       </c>
       <c r="AE71" s="17">
-        <v>387053</v>
+        <v>439138</v>
       </c>
       <c r="AF71" s="17">
-        <v>439138</v>
+        <v>486676</v>
       </c>
       <c r="AG71" s="17">
-        <v>486676</v>
+        <v>440571</v>
       </c>
       <c r="AH71" s="17">
-        <v>440571</v>
+        <v>390437</v>
       </c>
       <c r="AI71" s="17">
-        <v>390437</v>
+        <v>516849</v>
       </c>
       <c r="AJ71" s="17">
-        <v>516849</v>
+        <v>494819</v>
       </c>
       <c r="AK71" s="17">
-        <v>494819</v>
+        <v>489786</v>
       </c>
       <c r="AL71" s="17">
-        <v>489786</v>
+        <v>386289</v>
       </c>
       <c r="AM71" s="17">
-        <v>386289</v>
+        <v>538815</v>
       </c>
       <c r="AN71" s="17">
-        <v>538815</v>
+        <v>488175</v>
       </c>
       <c r="AO71" s="17">
-        <v>488175</v>
+        <v>554568</v>
       </c>
       <c r="AP71" s="17">
-        <v>554568</v>
+        <v>527770</v>
       </c>
       <c r="AQ71" s="17">
-        <v>527770</v>
+        <v>444819</v>
       </c>
       <c r="AR71" s="17">
-        <v>444819</v>
+        <v>448902</v>
       </c>
       <c r="AS71" s="17">
-        <v>448902</v>
+        <v>722744</v>
       </c>
       <c r="AT71" s="17">
-        <v>722744</v>
+        <v>197299</v>
       </c>
       <c r="AU71" s="17">
-        <v>197299</v>
+        <v>576435</v>
       </c>
       <c r="AV71" s="17">
-        <v>576435</v>
+        <v>782815</v>
       </c>
       <c r="AW71" s="17">
-        <v>782815</v>
+        <v>760610</v>
       </c>
       <c r="AX71" s="17">
-        <v>760610</v>
+        <v>697464</v>
       </c>
       <c r="AY71" s="17">
-        <v>697464</v>
+        <v>623246</v>
       </c>
       <c r="AZ71" s="17">
-        <v>623246</v>
+        <v>535548</v>
       </c>
       <c r="BA71" s="17">
-        <v>535548</v>
+        <v>724387</v>
       </c>
       <c r="BB71" s="17">
-        <v>724387</v>
+        <v>836051</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9167,7 +9202,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9222,7 +9257,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9277,7 +9312,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>83</v>
       </c>
@@ -9434,7 +9469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9489,7 +9524,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>84</v>
       </c>
@@ -9546,7 +9581,7 @@
       <c r="BA77" s="9"/>
       <c r="BB77" s="9"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>56</v>
       </c>
@@ -9614,98 +9649,98 @@
       <c r="X78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y78" s="11" t="s">
-        <v>58</v>
+      <c r="Y78" s="11">
+        <v>14419146</v>
       </c>
       <c r="Z78" s="11">
-        <v>14419146</v>
+        <v>14870161</v>
       </c>
       <c r="AA78" s="11">
-        <v>14870161</v>
+        <v>14846250</v>
       </c>
       <c r="AB78" s="11">
-        <v>14846250</v>
+        <v>16594400</v>
       </c>
       <c r="AC78" s="11">
-        <v>16594400</v>
+        <v>19307708</v>
       </c>
       <c r="AD78" s="11">
-        <v>19307708</v>
+        <v>21125229</v>
       </c>
       <c r="AE78" s="11">
-        <v>21125229</v>
+        <v>25525345</v>
       </c>
       <c r="AF78" s="11">
-        <v>25525345</v>
+        <v>28361076</v>
       </c>
       <c r="AG78" s="11">
-        <v>28361076</v>
+        <v>28689187</v>
       </c>
       <c r="AH78" s="11">
-        <v>28689187</v>
+        <v>25619269</v>
       </c>
       <c r="AI78" s="11">
-        <v>25619269</v>
+        <v>25535506</v>
       </c>
       <c r="AJ78" s="11">
-        <v>25535506</v>
+        <v>25507483</v>
       </c>
       <c r="AK78" s="11">
-        <v>25507483</v>
+        <v>25904134</v>
       </c>
       <c r="AL78" s="11">
-        <v>25904134</v>
+        <v>25618330</v>
       </c>
       <c r="AM78" s="11">
-        <v>25618330</v>
+        <v>25930504</v>
       </c>
       <c r="AN78" s="11">
-        <v>25930504</v>
+        <v>27254159</v>
       </c>
       <c r="AO78" s="11">
-        <v>27254159</v>
+        <v>28028486</v>
       </c>
       <c r="AP78" s="11">
-        <v>28028486</v>
+        <v>28351686</v>
       </c>
       <c r="AQ78" s="11">
-        <v>28351686</v>
+        <v>28408427</v>
       </c>
       <c r="AR78" s="11">
-        <v>28408427</v>
+        <v>29237797</v>
       </c>
       <c r="AS78" s="11">
-        <v>29237797</v>
+        <v>28387707</v>
       </c>
       <c r="AT78" s="11">
-        <v>28387707</v>
+        <v>28384735</v>
       </c>
       <c r="AU78" s="11">
-        <v>28384735</v>
+        <v>28256724</v>
       </c>
       <c r="AV78" s="11">
-        <v>28256724</v>
+        <v>29325671</v>
       </c>
       <c r="AW78" s="11">
-        <v>29325671</v>
+        <v>31063010</v>
       </c>
       <c r="AX78" s="11">
-        <v>31063010</v>
+        <v>32311437</v>
       </c>
       <c r="AY78" s="11">
-        <v>32311437</v>
+        <v>35237492</v>
       </c>
       <c r="AZ78" s="11">
-        <v>35237492</v>
+        <v>35091226</v>
       </c>
       <c r="BA78" s="11">
-        <v>35091226</v>
+        <v>35563278</v>
       </c>
       <c r="BB78" s="11">
-        <v>35563278</v>
+        <v>35239541</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>59</v>
       </c>
@@ -9773,98 +9808,98 @@
       <c r="X79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="13" t="s">
-        <v>58</v>
+      <c r="Y79" s="13">
+        <v>7044459</v>
       </c>
       <c r="Z79" s="13">
-        <v>7044459</v>
+        <v>7681400</v>
       </c>
       <c r="AA79" s="13">
-        <v>7681400</v>
+        <v>7395471</v>
       </c>
       <c r="AB79" s="13">
-        <v>7395471</v>
+        <v>8085448</v>
       </c>
       <c r="AC79" s="13">
-        <v>8085448</v>
+        <v>10031243</v>
       </c>
       <c r="AD79" s="13">
-        <v>10031243</v>
+        <v>10331910</v>
       </c>
       <c r="AE79" s="13">
-        <v>10331910</v>
+        <v>10539376</v>
       </c>
       <c r="AF79" s="13">
-        <v>10539376</v>
+        <v>9974906</v>
       </c>
       <c r="AG79" s="13">
-        <v>9974906</v>
+        <v>9662844</v>
       </c>
       <c r="AH79" s="13">
-        <v>9662844</v>
+        <v>10438197</v>
       </c>
       <c r="AI79" s="13">
-        <v>10438197</v>
+        <v>11197567</v>
       </c>
       <c r="AJ79" s="13">
-        <v>11197567</v>
+        <v>10851754</v>
       </c>
       <c r="AK79" s="13">
-        <v>10851754</v>
+        <v>12058694</v>
       </c>
       <c r="AL79" s="13">
-        <v>12058694</v>
+        <v>12860037</v>
       </c>
       <c r="AM79" s="13">
-        <v>12860037</v>
+        <v>12547268</v>
       </c>
       <c r="AN79" s="13">
-        <v>12547268</v>
+        <v>12238507</v>
       </c>
       <c r="AO79" s="13">
-        <v>12238507</v>
+        <v>12490152</v>
       </c>
       <c r="AP79" s="13">
-        <v>12490152</v>
+        <v>13045858</v>
       </c>
       <c r="AQ79" s="13">
-        <v>13045858</v>
+        <v>13706952</v>
       </c>
       <c r="AR79" s="13">
-        <v>13706952</v>
+        <v>13878030</v>
       </c>
       <c r="AS79" s="13">
-        <v>13878030</v>
+        <v>14394535</v>
       </c>
       <c r="AT79" s="13">
-        <v>14394535</v>
+        <v>15277812</v>
       </c>
       <c r="AU79" s="13">
-        <v>15277812</v>
+        <v>15844645</v>
       </c>
       <c r="AV79" s="13">
-        <v>15844645</v>
+        <v>15737288</v>
       </c>
       <c r="AW79" s="13">
-        <v>15737288</v>
+        <v>15324570</v>
       </c>
       <c r="AX79" s="13">
-        <v>15324570</v>
+        <v>16129548</v>
       </c>
       <c r="AY79" s="13">
-        <v>16129548</v>
+        <v>15624635</v>
       </c>
       <c r="AZ79" s="13">
-        <v>15624635</v>
+        <v>15622750</v>
       </c>
       <c r="BA79" s="13">
-        <v>15622750</v>
+        <v>15334196</v>
       </c>
       <c r="BB79" s="13">
-        <v>15334196</v>
+        <v>16493689</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>86</v>
       </c>
@@ -9921,7 +9956,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>56</v>
       </c>
@@ -9989,98 +10024,98 @@
       <c r="X81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y81" s="11" t="s">
-        <v>58</v>
+      <c r="Y81" s="11">
+        <v>24968504</v>
       </c>
       <c r="Z81" s="11">
-        <v>24968504</v>
+        <v>27683036</v>
       </c>
       <c r="AA81" s="11">
-        <v>27683036</v>
+        <v>29749004</v>
       </c>
       <c r="AB81" s="11">
-        <v>29749004</v>
+        <v>39032110</v>
       </c>
       <c r="AC81" s="11">
-        <v>39032110</v>
+        <v>39979592</v>
       </c>
       <c r="AD81" s="11">
-        <v>39979592</v>
+        <v>34904040</v>
       </c>
       <c r="AE81" s="11">
-        <v>34904040</v>
+        <v>37201794</v>
       </c>
       <c r="AF81" s="11">
-        <v>37201794</v>
+        <v>33540000</v>
       </c>
       <c r="AG81" s="11">
-        <v>33540000</v>
+        <v>37169014</v>
       </c>
       <c r="AH81" s="11">
-        <v>37169014</v>
+        <v>36510204</v>
       </c>
       <c r="AI81" s="11">
-        <v>36510204</v>
+        <v>32658163</v>
       </c>
       <c r="AJ81" s="11">
-        <v>32658163</v>
+        <v>33950000</v>
       </c>
       <c r="AK81" s="11">
-        <v>33950000</v>
+        <v>36370000</v>
       </c>
       <c r="AL81" s="11">
-        <v>36370000</v>
+        <v>36875000</v>
       </c>
       <c r="AM81" s="11">
-        <v>36875000</v>
+        <v>39959184</v>
       </c>
       <c r="AN81" s="11">
-        <v>39959184</v>
+        <v>31950495</v>
       </c>
       <c r="AO81" s="11">
-        <v>31950495</v>
+        <v>34099371</v>
       </c>
       <c r="AP81" s="11">
-        <v>34099371</v>
+        <v>31566879</v>
       </c>
       <c r="AQ81" s="11">
-        <v>31566879</v>
+        <v>35794872</v>
       </c>
       <c r="AR81" s="11">
-        <v>35794872</v>
+        <v>32206897</v>
       </c>
       <c r="AS81" s="11">
-        <v>32206897</v>
+        <v>32238739</v>
       </c>
       <c r="AT81" s="11">
-        <v>32238739</v>
+        <v>28666667</v>
       </c>
       <c r="AU81" s="11">
-        <v>28666667</v>
+        <v>31661386</v>
       </c>
       <c r="AV81" s="11">
-        <v>31661386</v>
+        <v>32590764</v>
       </c>
       <c r="AW81" s="11">
-        <v>32590764</v>
+        <v>38205645</v>
       </c>
       <c r="AX81" s="11">
-        <v>38205645</v>
+        <v>35136842</v>
       </c>
       <c r="AY81" s="11">
-        <v>35136842</v>
+        <v>36635934</v>
       </c>
       <c r="AZ81" s="11">
-        <v>36635934</v>
+        <v>41507042</v>
       </c>
       <c r="BA81" s="11">
-        <v>41507042</v>
+        <v>44123977</v>
       </c>
       <c r="BB81" s="11">
-        <v>44123977</v>
+        <v>42808777</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>59</v>
       </c>
@@ -10148,95 +10183,95 @@
       <c r="X82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="13" t="s">
-        <v>58</v>
+      <c r="Y82" s="13">
+        <v>4271043</v>
       </c>
       <c r="Z82" s="13">
-        <v>4271043</v>
+        <v>5664321</v>
       </c>
       <c r="AA82" s="13">
-        <v>5664321</v>
+        <v>5023612</v>
       </c>
       <c r="AB82" s="13">
-        <v>5023612</v>
+        <v>4515239</v>
       </c>
       <c r="AC82" s="13">
-        <v>4515239</v>
+        <v>5398281</v>
       </c>
       <c r="AD82" s="13">
-        <v>5398281</v>
+        <v>7696505</v>
       </c>
       <c r="AE82" s="13">
-        <v>7696505</v>
+        <v>5468916</v>
       </c>
       <c r="AF82" s="13">
-        <v>5468916</v>
+        <v>4683145</v>
       </c>
       <c r="AG82" s="13">
-        <v>4683145</v>
+        <v>4730292</v>
       </c>
       <c r="AH82" s="13">
-        <v>4730292</v>
+        <v>5653665</v>
       </c>
       <c r="AI82" s="13">
-        <v>5653665</v>
+        <v>5504233</v>
       </c>
       <c r="AJ82" s="13">
-        <v>5504233</v>
+        <v>6200249</v>
       </c>
       <c r="AK82" s="13">
-        <v>6200249</v>
+        <v>7419854</v>
       </c>
       <c r="AL82" s="13">
-        <v>7419854</v>
+        <v>7091558</v>
       </c>
       <c r="AM82" s="13">
-        <v>7091558</v>
+        <v>7564130</v>
       </c>
       <c r="AN82" s="13">
-        <v>7564130</v>
+        <v>8136740</v>
       </c>
       <c r="AO82" s="13">
-        <v>8136740</v>
+        <v>7770091</v>
       </c>
       <c r="AP82" s="13">
-        <v>7770091</v>
+        <v>7695155</v>
       </c>
       <c r="AQ82" s="13">
-        <v>7695155</v>
+        <v>7890879</v>
       </c>
       <c r="AR82" s="13">
-        <v>7890879</v>
+        <v>9370394</v>
       </c>
       <c r="AS82" s="13">
-        <v>9370394</v>
+        <v>10815592</v>
       </c>
       <c r="AT82" s="13">
-        <v>10815592</v>
+        <v>9618769</v>
       </c>
       <c r="AU82" s="13">
-        <v>9618769</v>
+        <v>9058896</v>
       </c>
       <c r="AV82" s="13">
-        <v>9058896</v>
+        <v>9399077</v>
       </c>
       <c r="AW82" s="13">
-        <v>9399077</v>
+        <v>9332095</v>
       </c>
       <c r="AX82" s="13">
-        <v>9332095</v>
+        <v>10629842</v>
       </c>
       <c r="AY82" s="13">
-        <v>10629842</v>
+        <v>10768051</v>
       </c>
       <c r="AZ82" s="13">
-        <v>10768051</v>
+        <v>10574083</v>
       </c>
       <c r="BA82" s="13">
-        <v>10574083</v>
+        <v>13643395</v>
       </c>
       <c r="BB82" s="13">
-        <v>13643395</v>
+        <v>12551447</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/chemical/shamla/product/monthly_seprated.xlsx
+++ b/database/industries/chemical/shamla/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\chemical\shamla\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\shamla\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F66F64-0E1F-4470-A5EE-DC1E71276CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8756D649-AD01-4028-A378-D4B22B88BF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شاملا-معدنی‌ املاح‌  ایران‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -763,12 +763,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -823,7 +823,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -992,7 +992,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1161,7 +1161,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1492,104 +1492,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>15865</v>
+      </c>
+      <c r="X11" s="11">
+        <v>15442</v>
       </c>
       <c r="Y11" s="11">
-        <v>15865</v>
+        <v>14913</v>
       </c>
       <c r="Z11" s="11">
-        <v>15442</v>
+        <v>13300</v>
       </c>
       <c r="AA11" s="11">
-        <v>14913</v>
+        <v>15554</v>
       </c>
       <c r="AB11" s="11">
-        <v>13300</v>
+        <v>15322</v>
       </c>
       <c r="AC11" s="11">
-        <v>15554</v>
+        <v>14110</v>
       </c>
       <c r="AD11" s="11">
-        <v>15322</v>
+        <v>15234</v>
       </c>
       <c r="AE11" s="11">
-        <v>14110</v>
+        <v>14448</v>
       </c>
       <c r="AF11" s="11">
-        <v>15234</v>
+        <v>15652</v>
       </c>
       <c r="AG11" s="11">
-        <v>14448</v>
+        <v>15091</v>
       </c>
       <c r="AH11" s="11">
-        <v>15652</v>
+        <v>15695</v>
       </c>
       <c r="AI11" s="11">
+        <v>15525</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>14911</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>15546</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>15626</v>
+      </c>
+      <c r="AM11" s="11">
         <v>15091</v>
       </c>
-      <c r="AJ11" s="11">
-        <v>15695</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>15525</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>14911</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>15546</v>
-      </c>
       <c r="AN11" s="11">
-        <v>15626</v>
+        <v>15366</v>
       </c>
       <c r="AO11" s="11">
-        <v>15091</v>
+        <v>15587</v>
       </c>
       <c r="AP11" s="11">
-        <v>15366</v>
+        <v>15066</v>
       </c>
       <c r="AQ11" s="11">
-        <v>15587</v>
+        <v>14828</v>
       </c>
       <c r="AR11" s="11">
-        <v>15066</v>
+        <v>15760</v>
       </c>
       <c r="AS11" s="11">
-        <v>14828</v>
+        <v>15258</v>
       </c>
       <c r="AT11" s="11">
-        <v>15760</v>
+        <v>15269</v>
       </c>
       <c r="AU11" s="11">
-        <v>15258</v>
+        <v>15656</v>
       </c>
       <c r="AV11" s="11">
-        <v>15269</v>
+        <v>15268</v>
       </c>
       <c r="AW11" s="11">
-        <v>15656</v>
+        <v>14926</v>
       </c>
       <c r="AX11" s="11">
-        <v>15268</v>
+        <v>15140</v>
       </c>
       <c r="AY11" s="11">
-        <v>14926</v>
+        <v>14754</v>
       </c>
       <c r="AZ11" s="11">
-        <v>15140</v>
+        <v>14391</v>
       </c>
       <c r="BA11" s="11">
-        <v>14754</v>
+        <v>14720</v>
       </c>
       <c r="BB11" s="11">
-        <v>14391</v>
+        <v>14801</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1651,104 +1651,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>3712</v>
+      </c>
+      <c r="X12" s="13">
+        <v>4617</v>
       </c>
       <c r="Y12" s="13">
-        <v>3712</v>
+        <v>4989</v>
       </c>
       <c r="Z12" s="13">
-        <v>4617</v>
+        <v>4534</v>
       </c>
       <c r="AA12" s="13">
-        <v>4989</v>
+        <v>5046</v>
       </c>
       <c r="AB12" s="13">
-        <v>4534</v>
+        <v>4593</v>
       </c>
       <c r="AC12" s="13">
-        <v>5046</v>
+        <v>3612</v>
       </c>
       <c r="AD12" s="13">
-        <v>4593</v>
+        <v>5126</v>
       </c>
       <c r="AE12" s="13">
-        <v>3612</v>
+        <v>4973</v>
       </c>
       <c r="AF12" s="13">
-        <v>5126</v>
+        <v>4121</v>
       </c>
       <c r="AG12" s="13">
-        <v>4973</v>
+        <v>6316</v>
       </c>
       <c r="AH12" s="13">
-        <v>4121</v>
+        <v>4298</v>
       </c>
       <c r="AI12" s="13">
-        <v>6316</v>
+        <v>4876</v>
       </c>
       <c r="AJ12" s="13">
-        <v>4298</v>
+        <v>4583</v>
       </c>
       <c r="AK12" s="13">
-        <v>4876</v>
+        <v>6362</v>
       </c>
       <c r="AL12" s="13">
-        <v>4583</v>
+        <v>6125</v>
       </c>
       <c r="AM12" s="13">
-        <v>6362</v>
+        <v>4515</v>
       </c>
       <c r="AN12" s="13">
-        <v>6125</v>
+        <v>6602</v>
       </c>
       <c r="AO12" s="13">
-        <v>4515</v>
+        <v>6378</v>
       </c>
       <c r="AP12" s="13">
-        <v>6602</v>
+        <v>6984</v>
       </c>
       <c r="AQ12" s="13">
-        <v>6378</v>
+        <v>6540</v>
       </c>
       <c r="AR12" s="13">
-        <v>6984</v>
+        <v>1748</v>
       </c>
       <c r="AS12" s="13">
-        <v>6540</v>
+        <v>5565</v>
       </c>
       <c r="AT12" s="13">
-        <v>1748</v>
+        <v>5317</v>
       </c>
       <c r="AU12" s="13">
-        <v>5565</v>
+        <v>5984</v>
       </c>
       <c r="AV12" s="13">
-        <v>5317</v>
+        <v>5271</v>
       </c>
       <c r="AW12" s="13">
-        <v>5984</v>
+        <v>6867</v>
       </c>
       <c r="AX12" s="13">
-        <v>5271</v>
+        <v>6040</v>
       </c>
       <c r="AY12" s="13">
-        <v>6867</v>
+        <v>7027</v>
       </c>
       <c r="AZ12" s="13">
-        <v>6040</v>
+        <v>6151</v>
       </c>
       <c r="BA12" s="13">
-        <v>7027</v>
+        <v>3732</v>
       </c>
       <c r="BB12" s="13">
-        <v>6151</v>
+        <v>5440</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1873,11 +1873,11 @@
       <c r="AQ13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS13" s="11" t="s">
-        <v>58</v>
+      <c r="AR13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>0</v>
       </c>
       <c r="AT13" s="11">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2032,11 +2032,11 @@
       <c r="AQ14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS14" s="13" t="s">
-        <v>58</v>
+      <c r="AR14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>0</v>
       </c>
       <c r="AT14" s="13">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2127,103 +2127,103 @@
         <v>0</v>
       </c>
       <c r="W15" s="15">
-        <v>0</v>
+        <v>19577</v>
       </c>
       <c r="X15" s="15">
-        <v>0</v>
+        <v>20059</v>
       </c>
       <c r="Y15" s="15">
-        <v>19577</v>
+        <v>19902</v>
       </c>
       <c r="Z15" s="15">
-        <v>20059</v>
+        <v>17834</v>
       </c>
       <c r="AA15" s="15">
-        <v>19902</v>
+        <v>20600</v>
       </c>
       <c r="AB15" s="15">
-        <v>17834</v>
+        <v>19915</v>
       </c>
       <c r="AC15" s="15">
-        <v>20600</v>
+        <v>17722</v>
       </c>
       <c r="AD15" s="15">
-        <v>19915</v>
+        <v>20360</v>
       </c>
       <c r="AE15" s="15">
-        <v>17722</v>
+        <v>19421</v>
       </c>
       <c r="AF15" s="15">
-        <v>20360</v>
+        <v>19773</v>
       </c>
       <c r="AG15" s="15">
-        <v>19421</v>
+        <v>21407</v>
       </c>
       <c r="AH15" s="15">
-        <v>19773</v>
+        <v>19993</v>
       </c>
       <c r="AI15" s="15">
-        <v>21407</v>
+        <v>20401</v>
       </c>
       <c r="AJ15" s="15">
-        <v>19993</v>
+        <v>19494</v>
       </c>
       <c r="AK15" s="15">
-        <v>20401</v>
+        <v>21908</v>
       </c>
       <c r="AL15" s="15">
-        <v>19494</v>
+        <v>21751</v>
       </c>
       <c r="AM15" s="15">
-        <v>21908</v>
+        <v>19606</v>
       </c>
       <c r="AN15" s="15">
-        <v>21751</v>
+        <v>21968</v>
       </c>
       <c r="AO15" s="15">
-        <v>19606</v>
+        <v>21965</v>
       </c>
       <c r="AP15" s="15">
-        <v>21968</v>
+        <v>22050</v>
       </c>
       <c r="AQ15" s="15">
-        <v>21965</v>
+        <v>21368</v>
       </c>
       <c r="AR15" s="15">
-        <v>22050</v>
+        <v>17508</v>
       </c>
       <c r="AS15" s="15">
-        <v>21368</v>
+        <v>20823</v>
       </c>
       <c r="AT15" s="15">
-        <v>17508</v>
+        <v>20586</v>
       </c>
       <c r="AU15" s="15">
-        <v>20823</v>
+        <v>21640</v>
       </c>
       <c r="AV15" s="15">
-        <v>20586</v>
+        <v>20539</v>
       </c>
       <c r="AW15" s="15">
-        <v>21640</v>
+        <v>21793</v>
       </c>
       <c r="AX15" s="15">
-        <v>20539</v>
+        <v>21180</v>
       </c>
       <c r="AY15" s="15">
-        <v>21793</v>
+        <v>21781</v>
       </c>
       <c r="AZ15" s="15">
-        <v>21180</v>
+        <v>20542</v>
       </c>
       <c r="BA15" s="15">
-        <v>21781</v>
+        <v>18452</v>
       </c>
       <c r="BB15" s="15">
-        <v>20542</v>
+        <v>20241</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
@@ -2280,7 +2280,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
@@ -2342,104 +2342,104 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>254</v>
+      </c>
+      <c r="X17" s="11">
+        <v>224</v>
       </c>
       <c r="Y17" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Z17" s="11">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AA17" s="11">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="AB17" s="11">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="AC17" s="11">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="AD17" s="11">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="AE17" s="11">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="AF17" s="11">
+        <v>49</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>196</v>
+      </c>
+      <c r="AH17" s="11">
+        <v>40</v>
+      </c>
+      <c r="AI17" s="11">
         <v>100</v>
       </c>
-      <c r="AG17" s="11">
-        <v>71</v>
-      </c>
-      <c r="AH17" s="11">
+      <c r="AJ17" s="11">
+        <v>48</v>
+      </c>
+      <c r="AK17" s="11">
         <v>49</v>
       </c>
-      <c r="AI17" s="11">
-        <v>196</v>
-      </c>
-      <c r="AJ17" s="11">
-        <v>40</v>
-      </c>
-      <c r="AK17" s="11">
-        <v>100</v>
-      </c>
       <c r="AL17" s="11">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="AM17" s="11">
-        <v>49</v>
+        <v>795</v>
       </c>
       <c r="AN17" s="11">
-        <v>101</v>
+        <v>471</v>
       </c>
       <c r="AO17" s="11">
-        <v>795</v>
+        <v>234</v>
       </c>
       <c r="AP17" s="11">
-        <v>471</v>
+        <v>667</v>
       </c>
       <c r="AQ17" s="11">
-        <v>234</v>
+        <v>444</v>
       </c>
       <c r="AR17" s="11">
-        <v>667</v>
+        <v>126</v>
       </c>
       <c r="AS17" s="11">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="AT17" s="11">
-        <v>126</v>
+        <v>628</v>
       </c>
       <c r="AU17" s="11">
-        <v>505</v>
+        <v>248</v>
       </c>
       <c r="AV17" s="11">
-        <v>628</v>
+        <v>475</v>
       </c>
       <c r="AW17" s="11">
-        <v>248</v>
+        <v>846</v>
       </c>
       <c r="AX17" s="11">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="AY17" s="11">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="AZ17" s="11">
-        <v>426</v>
+        <v>957</v>
       </c>
       <c r="BA17" s="11">
-        <v>855</v>
+        <v>481</v>
       </c>
       <c r="BB17" s="11">
-        <v>957</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>59</v>
       </c>
@@ -2501,104 +2501,104 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
+      <c r="W18" s="13">
+        <v>2476</v>
+      </c>
+      <c r="X18" s="13">
+        <v>1847</v>
       </c>
       <c r="Y18" s="13">
-        <v>2476</v>
+        <v>2289</v>
       </c>
       <c r="Z18" s="13">
-        <v>1847</v>
+        <v>2428</v>
       </c>
       <c r="AA18" s="13">
-        <v>2289</v>
+        <v>2094</v>
       </c>
       <c r="AB18" s="13">
-        <v>2428</v>
+        <v>1173</v>
       </c>
       <c r="AC18" s="13">
-        <v>2094</v>
+        <v>3201</v>
       </c>
       <c r="AD18" s="13">
-        <v>1173</v>
+        <v>2124</v>
       </c>
       <c r="AE18" s="13">
-        <v>3201</v>
+        <v>2258</v>
       </c>
       <c r="AF18" s="13">
-        <v>2124</v>
+        <v>3179</v>
       </c>
       <c r="AG18" s="13">
-        <v>2258</v>
+        <v>1063</v>
       </c>
       <c r="AH18" s="13">
-        <v>3179</v>
+        <v>2407</v>
       </c>
       <c r="AI18" s="13">
-        <v>1063</v>
+        <v>2327</v>
       </c>
       <c r="AJ18" s="13">
-        <v>2407</v>
+        <v>3222</v>
       </c>
       <c r="AK18" s="13">
-        <v>2327</v>
+        <v>2760</v>
       </c>
       <c r="AL18" s="13">
-        <v>3222</v>
+        <v>2896</v>
       </c>
       <c r="AM18" s="13">
-        <v>2760</v>
+        <v>2862</v>
       </c>
       <c r="AN18" s="13">
-        <v>2896</v>
+        <v>3674</v>
       </c>
       <c r="AO18" s="13">
-        <v>2862</v>
+        <v>1843</v>
       </c>
       <c r="AP18" s="13">
-        <v>3674</v>
+        <v>1573</v>
       </c>
       <c r="AQ18" s="13">
-        <v>1843</v>
+        <v>3194</v>
       </c>
       <c r="AR18" s="13">
-        <v>1573</v>
+        <v>3591</v>
       </c>
       <c r="AS18" s="13">
-        <v>3194</v>
+        <v>4075</v>
       </c>
       <c r="AT18" s="13">
-        <v>3591</v>
+        <v>4984</v>
       </c>
       <c r="AU18" s="13">
-        <v>4075</v>
+        <v>5116</v>
       </c>
       <c r="AV18" s="13">
-        <v>4984</v>
+        <v>6454</v>
       </c>
       <c r="AW18" s="13">
-        <v>5116</v>
+        <v>4432</v>
       </c>
       <c r="AX18" s="13">
-        <v>6454</v>
+        <v>4360</v>
       </c>
       <c r="AY18" s="13">
-        <v>4432</v>
+        <v>2922</v>
       </c>
       <c r="AZ18" s="13">
-        <v>4360</v>
+        <v>3975</v>
       </c>
       <c r="BA18" s="13">
-        <v>2922</v>
+        <v>3724</v>
       </c>
       <c r="BB18" s="13">
-        <v>3975</v>
+        <v>691</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>61</v>
       </c>
@@ -2723,11 +2723,11 @@
       <c r="AQ19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS19" s="11" t="s">
-        <v>58</v>
+      <c r="AR19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>0</v>
       </c>
       <c r="AT19" s="11">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>64</v>
       </c>
@@ -2818,103 +2818,103 @@
         <v>0</v>
       </c>
       <c r="W20" s="17">
-        <v>0</v>
+        <v>2730</v>
       </c>
       <c r="X20" s="17">
-        <v>0</v>
+        <v>2071</v>
       </c>
       <c r="Y20" s="17">
-        <v>2730</v>
+        <v>2540</v>
       </c>
       <c r="Z20" s="17">
-        <v>2071</v>
+        <v>2646</v>
       </c>
       <c r="AA20" s="17">
-        <v>2540</v>
+        <v>2192</v>
       </c>
       <c r="AB20" s="17">
-        <v>2646</v>
+        <v>1371</v>
       </c>
       <c r="AC20" s="17">
-        <v>2192</v>
+        <v>3424</v>
       </c>
       <c r="AD20" s="17">
-        <v>1371</v>
+        <v>2224</v>
       </c>
       <c r="AE20" s="17">
-        <v>3424</v>
+        <v>2329</v>
       </c>
       <c r="AF20" s="17">
-        <v>2224</v>
+        <v>3228</v>
       </c>
       <c r="AG20" s="17">
-        <v>2329</v>
+        <v>1259</v>
       </c>
       <c r="AH20" s="17">
-        <v>3228</v>
+        <v>2447</v>
       </c>
       <c r="AI20" s="17">
-        <v>1259</v>
+        <v>2427</v>
       </c>
       <c r="AJ20" s="17">
-        <v>2447</v>
+        <v>3270</v>
       </c>
       <c r="AK20" s="17">
-        <v>2427</v>
+        <v>2809</v>
       </c>
       <c r="AL20" s="17">
-        <v>3270</v>
+        <v>2997</v>
       </c>
       <c r="AM20" s="17">
-        <v>2809</v>
+        <v>3657</v>
       </c>
       <c r="AN20" s="17">
-        <v>2997</v>
+        <v>4145</v>
       </c>
       <c r="AO20" s="17">
-        <v>3657</v>
+        <v>2077</v>
       </c>
       <c r="AP20" s="17">
-        <v>4145</v>
+        <v>2240</v>
       </c>
       <c r="AQ20" s="17">
-        <v>2077</v>
+        <v>3638</v>
       </c>
       <c r="AR20" s="17">
-        <v>2240</v>
+        <v>3717</v>
       </c>
       <c r="AS20" s="17">
-        <v>3638</v>
+        <v>4580</v>
       </c>
       <c r="AT20" s="17">
-        <v>3717</v>
+        <v>5612</v>
       </c>
       <c r="AU20" s="17">
-        <v>4580</v>
+        <v>5364</v>
       </c>
       <c r="AV20" s="17">
-        <v>5612</v>
+        <v>6929</v>
       </c>
       <c r="AW20" s="17">
-        <v>5364</v>
+        <v>5278</v>
       </c>
       <c r="AX20" s="17">
-        <v>6929</v>
+        <v>4786</v>
       </c>
       <c r="AY20" s="17">
-        <v>5278</v>
+        <v>3777</v>
       </c>
       <c r="AZ20" s="17">
-        <v>4786</v>
+        <v>4932</v>
       </c>
       <c r="BA20" s="17">
-        <v>3777</v>
+        <v>4205</v>
       </c>
       <c r="BB20" s="17">
-        <v>4932</v>
+        <v>1170</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>65</v>
       </c>
@@ -2971,7 +2971,7 @@
       <c r="BA21" s="19"/>
       <c r="BB21" s="19"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>66</v>
       </c>
@@ -3031,11 +3031,11 @@
       <c r="V22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>58</v>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+      <c r="X22" s="15">
+        <v>0</v>
       </c>
       <c r="Y22" s="15">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>67</v>
       </c>
@@ -3189,103 +3189,103 @@
         <v>0</v>
       </c>
       <c r="W23" s="17">
-        <v>0</v>
+        <v>22307</v>
       </c>
       <c r="X23" s="17">
-        <v>0</v>
+        <v>22130</v>
       </c>
       <c r="Y23" s="17">
-        <v>22307</v>
+        <v>22442</v>
       </c>
       <c r="Z23" s="17">
-        <v>22130</v>
+        <v>20480</v>
       </c>
       <c r="AA23" s="17">
-        <v>22442</v>
+        <v>22792</v>
       </c>
       <c r="AB23" s="17">
-        <v>20480</v>
+        <v>21286</v>
       </c>
       <c r="AC23" s="17">
-        <v>22792</v>
+        <v>21146</v>
       </c>
       <c r="AD23" s="17">
-        <v>21286</v>
+        <v>22584</v>
       </c>
       <c r="AE23" s="17">
-        <v>21146</v>
+        <v>21750</v>
       </c>
       <c r="AF23" s="17">
-        <v>22584</v>
+        <v>23001</v>
       </c>
       <c r="AG23" s="17">
-        <v>21750</v>
+        <v>22666</v>
       </c>
       <c r="AH23" s="17">
-        <v>23001</v>
+        <v>22440</v>
       </c>
       <c r="AI23" s="17">
-        <v>22666</v>
+        <v>22828</v>
       </c>
       <c r="AJ23" s="17">
-        <v>22440</v>
+        <v>22764</v>
       </c>
       <c r="AK23" s="17">
-        <v>22828</v>
+        <v>24717</v>
       </c>
       <c r="AL23" s="17">
-        <v>22764</v>
+        <v>24748</v>
       </c>
       <c r="AM23" s="17">
-        <v>24717</v>
+        <v>23263</v>
       </c>
       <c r="AN23" s="17">
-        <v>24748</v>
+        <v>26113</v>
       </c>
       <c r="AO23" s="17">
-        <v>23263</v>
+        <v>24042</v>
       </c>
       <c r="AP23" s="17">
-        <v>26113</v>
+        <v>24290</v>
       </c>
       <c r="AQ23" s="17">
-        <v>24042</v>
+        <v>25006</v>
       </c>
       <c r="AR23" s="17">
-        <v>24290</v>
+        <v>21225</v>
       </c>
       <c r="AS23" s="17">
-        <v>25006</v>
+        <v>25403</v>
       </c>
       <c r="AT23" s="17">
-        <v>21225</v>
+        <v>26198</v>
       </c>
       <c r="AU23" s="17">
-        <v>25403</v>
+        <v>27004</v>
       </c>
       <c r="AV23" s="17">
-        <v>26198</v>
+        <v>27468</v>
       </c>
       <c r="AW23" s="17">
-        <v>27004</v>
+        <v>27071</v>
       </c>
       <c r="AX23" s="17">
-        <v>27468</v>
+        <v>25966</v>
       </c>
       <c r="AY23" s="17">
-        <v>27071</v>
+        <v>25558</v>
       </c>
       <c r="AZ23" s="17">
-        <v>25966</v>
+        <v>25474</v>
       </c>
       <c r="BA23" s="17">
-        <v>25558</v>
+        <v>22657</v>
       </c>
       <c r="BB23" s="17">
-        <v>25474</v>
+        <v>21411</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3340,7 +3340,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3395,7 +3395,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3450,7 +3450,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>68</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3662,7 +3662,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>69</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>56</v>
       </c>
@@ -3781,104 +3781,104 @@
       <c r="V30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X30" s="11" t="s">
-        <v>58</v>
+      <c r="W30" s="11">
+        <v>16672</v>
+      </c>
+      <c r="X30" s="11">
+        <v>14880</v>
       </c>
       <c r="Y30" s="11">
-        <v>16672</v>
+        <v>15265</v>
       </c>
       <c r="Z30" s="11">
-        <v>14880</v>
+        <v>13358</v>
       </c>
       <c r="AA30" s="11">
-        <v>15265</v>
+        <v>15115</v>
       </c>
       <c r="AB30" s="11">
-        <v>13358</v>
+        <v>15276</v>
       </c>
       <c r="AC30" s="11">
-        <v>15115</v>
+        <v>14421</v>
       </c>
       <c r="AD30" s="11">
-        <v>15276</v>
+        <v>14911</v>
       </c>
       <c r="AE30" s="11">
-        <v>14421</v>
+        <v>13336</v>
       </c>
       <c r="AF30" s="11">
-        <v>14911</v>
+        <v>12715</v>
       </c>
       <c r="AG30" s="11">
-        <v>13336</v>
+        <v>17490</v>
       </c>
       <c r="AH30" s="11">
-        <v>12715</v>
+        <v>16505</v>
       </c>
       <c r="AI30" s="11">
-        <v>17490</v>
+        <v>15991</v>
       </c>
       <c r="AJ30" s="11">
-        <v>16505</v>
+        <v>11937</v>
       </c>
       <c r="AK30" s="11">
-        <v>15991</v>
+        <v>17109</v>
       </c>
       <c r="AL30" s="11">
-        <v>11937</v>
+        <v>14487</v>
       </c>
       <c r="AM30" s="11">
-        <v>17109</v>
+        <v>15446</v>
       </c>
       <c r="AN30" s="11">
-        <v>14487</v>
+        <v>14294</v>
       </c>
       <c r="AO30" s="11">
-        <v>15446</v>
+        <v>11985</v>
       </c>
       <c r="AP30" s="11">
-        <v>14294</v>
+        <v>11001</v>
       </c>
       <c r="AQ30" s="11">
-        <v>11985</v>
+        <v>20825</v>
       </c>
       <c r="AR30" s="11">
-        <v>11001</v>
+        <v>3865</v>
       </c>
       <c r="AS30" s="11">
-        <v>20825</v>
+        <v>15355</v>
       </c>
       <c r="AT30" s="11">
-        <v>3865</v>
+        <v>21359</v>
       </c>
       <c r="AU30" s="11">
-        <v>15355</v>
+        <v>20092</v>
       </c>
       <c r="AV30" s="11">
-        <v>21359</v>
+        <v>16106</v>
       </c>
       <c r="AW30" s="11">
-        <v>20092</v>
+        <v>12872</v>
       </c>
       <c r="AX30" s="11">
-        <v>16106</v>
+        <v>10896</v>
       </c>
       <c r="AY30" s="11">
-        <v>12872</v>
+        <v>15021</v>
       </c>
       <c r="AZ30" s="11">
-        <v>10896</v>
+        <v>18143</v>
       </c>
       <c r="BA30" s="11">
-        <v>15021</v>
+        <v>15430</v>
       </c>
       <c r="BB30" s="11">
-        <v>18143</v>
+        <v>17725</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
@@ -3940,104 +3940,104 @@
       <c r="V31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="13" t="s">
-        <v>58</v>
+      <c r="W31" s="13">
+        <v>4611</v>
+      </c>
+      <c r="X31" s="13">
+        <v>3801</v>
       </c>
       <c r="Y31" s="13">
-        <v>4611</v>
+        <v>4769</v>
       </c>
       <c r="Z31" s="13">
-        <v>3801</v>
+        <v>4728</v>
       </c>
       <c r="AA31" s="13">
-        <v>4769</v>
+        <v>4417</v>
       </c>
       <c r="AB31" s="13">
-        <v>4728</v>
+        <v>4685</v>
       </c>
       <c r="AC31" s="13">
-        <v>4417</v>
+        <v>4292</v>
       </c>
       <c r="AD31" s="13">
-        <v>4685</v>
+        <v>5061</v>
       </c>
       <c r="AE31" s="13">
-        <v>4292</v>
+        <v>4621</v>
       </c>
       <c r="AF31" s="13">
-        <v>5061</v>
+        <v>4304</v>
       </c>
       <c r="AG31" s="13">
-        <v>4621</v>
+        <v>5178</v>
       </c>
       <c r="AH31" s="13">
-        <v>4304</v>
+        <v>5302</v>
       </c>
       <c r="AI31" s="13">
-        <v>5178</v>
+        <v>4532</v>
       </c>
       <c r="AJ31" s="13">
-        <v>5302</v>
+        <v>4344</v>
       </c>
       <c r="AK31" s="13">
-        <v>4532</v>
+        <v>5765</v>
       </c>
       <c r="AL31" s="13">
-        <v>4344</v>
+        <v>5438</v>
       </c>
       <c r="AM31" s="13">
-        <v>5765</v>
+        <v>5788</v>
       </c>
       <c r="AN31" s="13">
-        <v>5438</v>
+        <v>6084</v>
       </c>
       <c r="AO31" s="13">
-        <v>5788</v>
+        <v>5941</v>
       </c>
       <c r="AP31" s="13">
-        <v>6084</v>
+        <v>6559</v>
       </c>
       <c r="AQ31" s="13">
-        <v>5941</v>
+        <v>5746</v>
       </c>
       <c r="AR31" s="13">
-        <v>6559</v>
+        <v>3236</v>
       </c>
       <c r="AS31" s="13">
-        <v>5746</v>
+        <v>5658</v>
       </c>
       <c r="AT31" s="13">
-        <v>3236</v>
+        <v>5664</v>
       </c>
       <c r="AU31" s="13">
-        <v>5658</v>
+        <v>5173</v>
       </c>
       <c r="AV31" s="13">
-        <v>5664</v>
+        <v>5689</v>
       </c>
       <c r="AW31" s="13">
-        <v>5173</v>
+        <v>5821</v>
       </c>
       <c r="AX31" s="13">
-        <v>5689</v>
+        <v>5723</v>
       </c>
       <c r="AY31" s="13">
-        <v>5821</v>
+        <v>7343</v>
       </c>
       <c r="AZ31" s="13">
-        <v>5723</v>
+        <v>6417</v>
       </c>
       <c r="BA31" s="13">
-        <v>7343</v>
+        <v>5813</v>
       </c>
       <c r="BB31" s="13">
-        <v>6417</v>
+        <v>5533</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>60</v>
       </c>
@@ -4162,11 +4162,11 @@
       <c r="AQ32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS32" s="11" t="s">
-        <v>58</v>
+      <c r="AR32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="11">
+        <v>0</v>
       </c>
       <c r="AT32" s="11">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>61</v>
       </c>
@@ -4321,11 +4321,11 @@
       <c r="AQ33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS33" s="13" t="s">
-        <v>58</v>
+      <c r="AR33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="13">
+        <v>0</v>
       </c>
       <c r="AT33" s="13">
         <v>0</v>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>70</v>
       </c>
@@ -4416,103 +4416,103 @@
         <v>0</v>
       </c>
       <c r="W34" s="15">
-        <v>0</v>
+        <v>21283</v>
       </c>
       <c r="X34" s="15">
-        <v>0</v>
+        <v>18681</v>
       </c>
       <c r="Y34" s="15">
-        <v>21283</v>
+        <v>20034</v>
       </c>
       <c r="Z34" s="15">
-        <v>18681</v>
+        <v>18086</v>
       </c>
       <c r="AA34" s="15">
-        <v>20034</v>
+        <v>19532</v>
       </c>
       <c r="AB34" s="15">
-        <v>18086</v>
+        <v>19961</v>
       </c>
       <c r="AC34" s="15">
-        <v>19532</v>
+        <v>18713</v>
       </c>
       <c r="AD34" s="15">
-        <v>19961</v>
+        <v>19972</v>
       </c>
       <c r="AE34" s="15">
-        <v>18713</v>
+        <v>17957</v>
       </c>
       <c r="AF34" s="15">
-        <v>19972</v>
+        <v>17019</v>
       </c>
       <c r="AG34" s="15">
-        <v>17957</v>
+        <v>22668</v>
       </c>
       <c r="AH34" s="15">
-        <v>17019</v>
+        <v>21807</v>
       </c>
       <c r="AI34" s="15">
-        <v>22668</v>
+        <v>20523</v>
       </c>
       <c r="AJ34" s="15">
-        <v>21807</v>
+        <v>16281</v>
       </c>
       <c r="AK34" s="15">
-        <v>20523</v>
+        <v>22874</v>
       </c>
       <c r="AL34" s="15">
-        <v>16281</v>
+        <v>19925</v>
       </c>
       <c r="AM34" s="15">
-        <v>22874</v>
+        <v>21234</v>
       </c>
       <c r="AN34" s="15">
-        <v>19925</v>
+        <v>20378</v>
       </c>
       <c r="AO34" s="15">
-        <v>21234</v>
+        <v>17926</v>
       </c>
       <c r="AP34" s="15">
-        <v>20378</v>
+        <v>17560</v>
       </c>
       <c r="AQ34" s="15">
-        <v>17926</v>
+        <v>26571</v>
       </c>
       <c r="AR34" s="15">
-        <v>17560</v>
+        <v>7101</v>
       </c>
       <c r="AS34" s="15">
-        <v>26571</v>
+        <v>21013</v>
       </c>
       <c r="AT34" s="15">
-        <v>7101</v>
+        <v>27023</v>
       </c>
       <c r="AU34" s="15">
-        <v>21013</v>
+        <v>25265</v>
       </c>
       <c r="AV34" s="15">
-        <v>27023</v>
+        <v>21795</v>
       </c>
       <c r="AW34" s="15">
-        <v>25265</v>
+        <v>18693</v>
       </c>
       <c r="AX34" s="15">
-        <v>21795</v>
+        <v>16619</v>
       </c>
       <c r="AY34" s="15">
-        <v>18693</v>
+        <v>22364</v>
       </c>
       <c r="AZ34" s="15">
-        <v>16619</v>
+        <v>24560</v>
       </c>
       <c r="BA34" s="15">
-        <v>22364</v>
+        <v>21243</v>
       </c>
       <c r="BB34" s="15">
-        <v>24560</v>
+        <v>23258</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>71</v>
       </c>
@@ -4569,7 +4569,7 @@
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>56</v>
       </c>
@@ -4631,104 +4631,104 @@
       <c r="V36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="11" t="s">
-        <v>58</v>
+      <c r="W36" s="11">
+        <v>254</v>
+      </c>
+      <c r="X36" s="11">
+        <v>224</v>
       </c>
       <c r="Y36" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Z36" s="11">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AA36" s="11">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="AB36" s="11">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="AC36" s="11">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="AD36" s="11">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="AE36" s="11">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="AF36" s="11">
+        <v>49</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>196</v>
+      </c>
+      <c r="AH36" s="11">
+        <v>40</v>
+      </c>
+      <c r="AI36" s="11">
         <v>100</v>
       </c>
-      <c r="AG36" s="11">
-        <v>71</v>
-      </c>
-      <c r="AH36" s="11">
+      <c r="AJ36" s="11">
+        <v>48</v>
+      </c>
+      <c r="AK36" s="11">
         <v>49</v>
       </c>
-      <c r="AI36" s="11">
-        <v>196</v>
-      </c>
-      <c r="AJ36" s="11">
-        <v>40</v>
-      </c>
-      <c r="AK36" s="11">
-        <v>100</v>
-      </c>
       <c r="AL36" s="11">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="AM36" s="11">
-        <v>49</v>
+        <v>795</v>
       </c>
       <c r="AN36" s="11">
-        <v>101</v>
+        <v>471</v>
       </c>
       <c r="AO36" s="11">
-        <v>795</v>
+        <v>234</v>
       </c>
       <c r="AP36" s="11">
-        <v>471</v>
+        <v>667</v>
       </c>
       <c r="AQ36" s="11">
-        <v>234</v>
+        <v>444</v>
       </c>
       <c r="AR36" s="11">
-        <v>667</v>
+        <v>126</v>
       </c>
       <c r="AS36" s="11">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="AT36" s="11">
-        <v>126</v>
+        <v>628</v>
       </c>
       <c r="AU36" s="11">
-        <v>505</v>
+        <v>248</v>
       </c>
       <c r="AV36" s="11">
-        <v>628</v>
+        <v>475</v>
       </c>
       <c r="AW36" s="11">
-        <v>248</v>
+        <v>846</v>
       </c>
       <c r="AX36" s="11">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="AY36" s="11">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="AZ36" s="11">
-        <v>426</v>
+        <v>957</v>
       </c>
       <c r="BA36" s="11">
-        <v>855</v>
+        <v>481</v>
       </c>
       <c r="BB36" s="11">
-        <v>957</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>59</v>
       </c>
@@ -4790,104 +4790,104 @@
       <c r="V37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="13" t="s">
-        <v>58</v>
+      <c r="W37" s="13">
+        <v>1889</v>
+      </c>
+      <c r="X37" s="13">
+        <v>1847</v>
       </c>
       <c r="Y37" s="13">
-        <v>1889</v>
+        <v>2287</v>
       </c>
       <c r="Z37" s="13">
-        <v>1847</v>
+        <v>2428</v>
       </c>
       <c r="AA37" s="13">
-        <v>2287</v>
+        <v>2094</v>
       </c>
       <c r="AB37" s="13">
-        <v>2428</v>
+        <v>1173</v>
       </c>
       <c r="AC37" s="13">
-        <v>2094</v>
+        <v>3201</v>
       </c>
       <c r="AD37" s="13">
-        <v>1173</v>
+        <v>2124</v>
       </c>
       <c r="AE37" s="13">
-        <v>3201</v>
+        <v>2258</v>
       </c>
       <c r="AF37" s="13">
-        <v>2124</v>
+        <v>3179</v>
       </c>
       <c r="AG37" s="13">
-        <v>2258</v>
+        <v>1063</v>
       </c>
       <c r="AH37" s="13">
-        <v>3179</v>
+        <v>2407</v>
       </c>
       <c r="AI37" s="13">
-        <v>1063</v>
+        <v>2327</v>
       </c>
       <c r="AJ37" s="13">
-        <v>2407</v>
+        <v>3222</v>
       </c>
       <c r="AK37" s="13">
-        <v>2327</v>
+        <v>2760</v>
       </c>
       <c r="AL37" s="13">
-        <v>3222</v>
+        <v>2896</v>
       </c>
       <c r="AM37" s="13">
-        <v>2760</v>
+        <v>2862</v>
       </c>
       <c r="AN37" s="13">
-        <v>2896</v>
+        <v>3674</v>
       </c>
       <c r="AO37" s="13">
-        <v>2862</v>
+        <v>1842</v>
       </c>
       <c r="AP37" s="13">
-        <v>3674</v>
+        <v>1574</v>
       </c>
       <c r="AQ37" s="13">
-        <v>1842</v>
+        <v>3194</v>
       </c>
       <c r="AR37" s="13">
-        <v>1574</v>
+        <v>3591</v>
       </c>
       <c r="AS37" s="13">
-        <v>3194</v>
+        <v>4075</v>
       </c>
       <c r="AT37" s="13">
-        <v>3591</v>
+        <v>4984</v>
       </c>
       <c r="AU37" s="13">
-        <v>4075</v>
+        <v>5116</v>
       </c>
       <c r="AV37" s="13">
-        <v>4984</v>
+        <v>6454</v>
       </c>
       <c r="AW37" s="13">
-        <v>5116</v>
+        <v>4432</v>
       </c>
       <c r="AX37" s="13">
-        <v>6454</v>
+        <v>4360</v>
       </c>
       <c r="AY37" s="13">
-        <v>4432</v>
+        <v>2922</v>
       </c>
       <c r="AZ37" s="13">
-        <v>4360</v>
+        <v>3975</v>
       </c>
       <c r="BA37" s="13">
-        <v>2922</v>
+        <v>3724</v>
       </c>
       <c r="BB37" s="13">
-        <v>3975</v>
+        <v>691</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -5012,11 +5012,11 @@
       <c r="AQ38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS38" s="11" t="s">
-        <v>58</v>
+      <c r="AR38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="11">
+        <v>0</v>
       </c>
       <c r="AT38" s="11">
         <v>0</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>72</v>
       </c>
@@ -5107,103 +5107,103 @@
         <v>0</v>
       </c>
       <c r="W39" s="17">
-        <v>0</v>
+        <v>2143</v>
       </c>
       <c r="X39" s="17">
-        <v>0</v>
+        <v>2071</v>
       </c>
       <c r="Y39" s="17">
-        <v>2143</v>
+        <v>2538</v>
       </c>
       <c r="Z39" s="17">
-        <v>2071</v>
+        <v>2646</v>
       </c>
       <c r="AA39" s="17">
-        <v>2538</v>
+        <v>2192</v>
       </c>
       <c r="AB39" s="17">
-        <v>2646</v>
+        <v>1371</v>
       </c>
       <c r="AC39" s="17">
-        <v>2192</v>
+        <v>3424</v>
       </c>
       <c r="AD39" s="17">
-        <v>1371</v>
+        <v>2224</v>
       </c>
       <c r="AE39" s="17">
-        <v>3424</v>
+        <v>2329</v>
       </c>
       <c r="AF39" s="17">
-        <v>2224</v>
+        <v>3228</v>
       </c>
       <c r="AG39" s="17">
-        <v>2329</v>
+        <v>1259</v>
       </c>
       <c r="AH39" s="17">
-        <v>3228</v>
+        <v>2447</v>
       </c>
       <c r="AI39" s="17">
-        <v>1259</v>
+        <v>2427</v>
       </c>
       <c r="AJ39" s="17">
-        <v>2447</v>
+        <v>3270</v>
       </c>
       <c r="AK39" s="17">
-        <v>2427</v>
+        <v>2809</v>
       </c>
       <c r="AL39" s="17">
-        <v>3270</v>
+        <v>2997</v>
       </c>
       <c r="AM39" s="17">
-        <v>2809</v>
+        <v>3657</v>
       </c>
       <c r="AN39" s="17">
-        <v>2997</v>
+        <v>4145</v>
       </c>
       <c r="AO39" s="17">
-        <v>3657</v>
+        <v>2076</v>
       </c>
       <c r="AP39" s="17">
-        <v>4145</v>
+        <v>2241</v>
       </c>
       <c r="AQ39" s="17">
-        <v>2076</v>
+        <v>3638</v>
       </c>
       <c r="AR39" s="17">
-        <v>2241</v>
+        <v>3717</v>
       </c>
       <c r="AS39" s="17">
-        <v>3638</v>
+        <v>4580</v>
       </c>
       <c r="AT39" s="17">
-        <v>3717</v>
+        <v>5612</v>
       </c>
       <c r="AU39" s="17">
-        <v>4580</v>
+        <v>5364</v>
       </c>
       <c r="AV39" s="17">
-        <v>5612</v>
+        <v>6929</v>
       </c>
       <c r="AW39" s="17">
-        <v>5364</v>
+        <v>5278</v>
       </c>
       <c r="AX39" s="17">
-        <v>6929</v>
+        <v>4786</v>
       </c>
       <c r="AY39" s="17">
-        <v>5278</v>
+        <v>3777</v>
       </c>
       <c r="AZ39" s="17">
-        <v>4786</v>
+        <v>4932</v>
       </c>
       <c r="BA39" s="17">
-        <v>3777</v>
+        <v>4205</v>
       </c>
       <c r="BB39" s="17">
-        <v>4932</v>
+        <v>1170</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>65</v>
       </c>
@@ -5260,7 +5260,7 @@
       <c r="BA40" s="19"/>
       <c r="BB40" s="19"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>66</v>
       </c>
@@ -5320,11 +5320,11 @@
       <c r="V41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X41" s="15" t="s">
-        <v>58</v>
+      <c r="W41" s="15">
+        <v>0</v>
+      </c>
+      <c r="X41" s="15">
+        <v>0</v>
       </c>
       <c r="Y41" s="15">
         <v>0</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>73</v>
       </c>
@@ -5474,7 +5474,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>56</v>
       </c>
@@ -5536,11 +5536,11 @@
       <c r="V43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>58</v>
+      <c r="W43" s="11">
+        <v>0</v>
+      </c>
+      <c r="X43" s="11">
+        <v>0</v>
       </c>
       <c r="Y43" s="11">
         <v>0</v>
@@ -5566,11 +5566,11 @@
       <c r="AF43" s="11">
         <v>0</v>
       </c>
-      <c r="AG43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="11">
-        <v>0</v>
+      <c r="AG43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI43" s="11" t="s">
         <v>58</v>
@@ -5633,7 +5633,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>59</v>
       </c>
@@ -5695,11 +5695,11 @@
       <c r="V44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X44" s="13" t="s">
-        <v>58</v>
+      <c r="W44" s="13">
+        <v>0</v>
+      </c>
+      <c r="X44" s="13">
+        <v>0</v>
       </c>
       <c r="Y44" s="13">
         <v>0</v>
@@ -5725,11 +5725,11 @@
       <c r="AF44" s="13">
         <v>0</v>
       </c>
-      <c r="AG44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="13">
-        <v>0</v>
+      <c r="AG44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI44" s="13" t="s">
         <v>58</v>
@@ -5792,7 +5792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>74</v>
       </c>
@@ -5852,11 +5852,11 @@
       <c r="V45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="15" t="s">
-        <v>58</v>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+      <c r="X45" s="15">
+        <v>0</v>
       </c>
       <c r="Y45" s="15">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>67</v>
       </c>
@@ -6010,103 +6010,103 @@
         <v>0</v>
       </c>
       <c r="W46" s="17">
-        <v>0</v>
+        <v>23426</v>
       </c>
       <c r="X46" s="17">
-        <v>0</v>
+        <v>20752</v>
       </c>
       <c r="Y46" s="17">
-        <v>23426</v>
+        <v>22572</v>
       </c>
       <c r="Z46" s="17">
-        <v>20752</v>
+        <v>20732</v>
       </c>
       <c r="AA46" s="17">
-        <v>22572</v>
+        <v>21724</v>
       </c>
       <c r="AB46" s="17">
-        <v>20732</v>
+        <v>21332</v>
       </c>
       <c r="AC46" s="17">
-        <v>21724</v>
+        <v>22137</v>
       </c>
       <c r="AD46" s="17">
-        <v>21332</v>
+        <v>22196</v>
       </c>
       <c r="AE46" s="17">
-        <v>22137</v>
+        <v>20286</v>
       </c>
       <c r="AF46" s="17">
-        <v>22196</v>
+        <v>20247</v>
       </c>
       <c r="AG46" s="17">
-        <v>20286</v>
+        <v>23927</v>
       </c>
       <c r="AH46" s="17">
-        <v>20247</v>
+        <v>24254</v>
       </c>
       <c r="AI46" s="17">
-        <v>23927</v>
+        <v>22950</v>
       </c>
       <c r="AJ46" s="17">
-        <v>24254</v>
+        <v>19551</v>
       </c>
       <c r="AK46" s="17">
-        <v>22950</v>
+        <v>25683</v>
       </c>
       <c r="AL46" s="17">
-        <v>19551</v>
+        <v>22922</v>
       </c>
       <c r="AM46" s="17">
-        <v>25683</v>
+        <v>24891</v>
       </c>
       <c r="AN46" s="17">
-        <v>22922</v>
+        <v>24523</v>
       </c>
       <c r="AO46" s="17">
-        <v>24891</v>
+        <v>20002</v>
       </c>
       <c r="AP46" s="17">
-        <v>24523</v>
+        <v>19801</v>
       </c>
       <c r="AQ46" s="17">
-        <v>20002</v>
+        <v>30209</v>
       </c>
       <c r="AR46" s="17">
-        <v>19801</v>
+        <v>10818</v>
       </c>
       <c r="AS46" s="17">
-        <v>30209</v>
+        <v>25593</v>
       </c>
       <c r="AT46" s="17">
-        <v>10818</v>
+        <v>32635</v>
       </c>
       <c r="AU46" s="17">
-        <v>25593</v>
+        <v>30629</v>
       </c>
       <c r="AV46" s="17">
-        <v>32635</v>
+        <v>28724</v>
       </c>
       <c r="AW46" s="17">
-        <v>30629</v>
+        <v>23971</v>
       </c>
       <c r="AX46" s="17">
-        <v>28724</v>
+        <v>21405</v>
       </c>
       <c r="AY46" s="17">
-        <v>23971</v>
+        <v>26141</v>
       </c>
       <c r="AZ46" s="17">
-        <v>21405</v>
+        <v>29492</v>
       </c>
       <c r="BA46" s="17">
-        <v>26141</v>
+        <v>25448</v>
       </c>
       <c r="BB46" s="17">
-        <v>29492</v>
+        <v>24428</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6161,7 +6161,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6216,7 +6216,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6271,7 +6271,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>75</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6483,7 +6483,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>76</v>
       </c>
@@ -6540,7 +6540,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
@@ -6602,104 +6602,104 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>240396</v>
+      </c>
+      <c r="X53" s="11">
+        <v>221268</v>
       </c>
       <c r="Y53" s="11">
-        <v>240396</v>
+        <v>226628</v>
       </c>
       <c r="Z53" s="11">
-        <v>221268</v>
+        <v>221668</v>
       </c>
       <c r="AA53" s="11">
-        <v>226628</v>
+        <v>291836</v>
       </c>
       <c r="AB53" s="11">
-        <v>221668</v>
+        <v>322709</v>
       </c>
       <c r="AC53" s="11">
-        <v>291836</v>
+        <v>368101</v>
       </c>
       <c r="AD53" s="11">
-        <v>322709</v>
+        <v>422892</v>
       </c>
       <c r="AE53" s="11">
-        <v>368101</v>
+        <v>382599</v>
       </c>
       <c r="AF53" s="11">
-        <v>422892</v>
+        <v>325749</v>
       </c>
       <c r="AG53" s="11">
-        <v>382599</v>
+        <v>446616</v>
       </c>
       <c r="AH53" s="11">
-        <v>325749</v>
+        <v>421001</v>
       </c>
       <c r="AI53" s="11">
-        <v>446616</v>
+        <v>414233</v>
       </c>
       <c r="AJ53" s="11">
-        <v>421001</v>
+        <v>305806</v>
       </c>
       <c r="AK53" s="11">
-        <v>414233</v>
+        <v>443645</v>
       </c>
       <c r="AL53" s="11">
-        <v>305806</v>
+        <v>394831</v>
       </c>
       <c r="AM53" s="11">
-        <v>443645</v>
+        <v>432928</v>
       </c>
       <c r="AN53" s="11">
-        <v>394831</v>
+        <v>405259</v>
       </c>
       <c r="AO53" s="11">
-        <v>432928</v>
+        <v>340475</v>
       </c>
       <c r="AP53" s="11">
-        <v>405259</v>
+        <v>321645</v>
       </c>
       <c r="AQ53" s="11">
-        <v>340475</v>
+        <v>591174</v>
       </c>
       <c r="AR53" s="11">
-        <v>321645</v>
+        <v>109707</v>
       </c>
       <c r="AS53" s="11">
-        <v>591174</v>
+        <v>433882</v>
       </c>
       <c r="AT53" s="11">
-        <v>109707</v>
+        <v>626367</v>
       </c>
       <c r="AU53" s="11">
-        <v>433882</v>
+        <v>624118</v>
       </c>
       <c r="AV53" s="11">
-        <v>626367</v>
+        <v>520408</v>
       </c>
       <c r="AW53" s="11">
-        <v>624118</v>
+        <v>453577</v>
       </c>
       <c r="AX53" s="11">
-        <v>520408</v>
+        <v>382354</v>
       </c>
       <c r="AY53" s="11">
-        <v>453577</v>
+        <v>534196</v>
       </c>
       <c r="AZ53" s="11">
-        <v>382354</v>
+        <v>639351</v>
       </c>
       <c r="BA53" s="11">
-        <v>534196</v>
+        <v>544106</v>
       </c>
       <c r="BB53" s="11">
-        <v>639351</v>
+        <v>638184</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>59</v>
       </c>
@@ -6761,104 +6761,104 @@
       <c r="V54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="13" t="s">
-        <v>58</v>
+      <c r="W54" s="13">
+        <v>32482</v>
+      </c>
+      <c r="X54" s="13">
+        <v>29197</v>
       </c>
       <c r="Y54" s="13">
-        <v>32482</v>
+        <v>35269</v>
       </c>
       <c r="Z54" s="13">
-        <v>29197</v>
+        <v>38228</v>
       </c>
       <c r="AA54" s="13">
-        <v>35269</v>
+        <v>44308</v>
       </c>
       <c r="AB54" s="13">
-        <v>38228</v>
+        <v>48405</v>
       </c>
       <c r="AC54" s="13">
-        <v>44308</v>
+        <v>45235</v>
       </c>
       <c r="AD54" s="13">
-        <v>48405</v>
+        <v>50483</v>
       </c>
       <c r="AE54" s="13">
-        <v>45235</v>
+        <v>44652</v>
       </c>
       <c r="AF54" s="13">
-        <v>50483</v>
+        <v>44926</v>
       </c>
       <c r="AG54" s="13">
-        <v>44652</v>
+        <v>57981</v>
       </c>
       <c r="AH54" s="13">
-        <v>44926</v>
+        <v>57536</v>
       </c>
       <c r="AI54" s="13">
-        <v>57981</v>
+        <v>54650</v>
       </c>
       <c r="AJ54" s="13">
-        <v>57536</v>
+        <v>55864</v>
       </c>
       <c r="AK54" s="13">
-        <v>54650</v>
+        <v>72335</v>
       </c>
       <c r="AL54" s="13">
-        <v>55864</v>
+        <v>66553</v>
       </c>
       <c r="AM54" s="13">
-        <v>72335</v>
+        <v>72293</v>
       </c>
       <c r="AN54" s="13">
-        <v>66553</v>
+        <v>79371</v>
       </c>
       <c r="AO54" s="13">
-        <v>72293</v>
+        <v>81433</v>
       </c>
       <c r="AP54" s="13">
-        <v>79371</v>
+        <v>91026</v>
       </c>
       <c r="AQ54" s="13">
-        <v>81433</v>
+        <v>82711</v>
       </c>
       <c r="AR54" s="13">
-        <v>91026</v>
+        <v>49439</v>
       </c>
       <c r="AS54" s="13">
-        <v>82711</v>
+        <v>89649</v>
       </c>
       <c r="AT54" s="13">
-        <v>49439</v>
+        <v>89136</v>
       </c>
       <c r="AU54" s="13">
-        <v>89649</v>
+        <v>79274</v>
       </c>
       <c r="AV54" s="13">
-        <v>89136</v>
+        <v>91761</v>
       </c>
       <c r="AW54" s="13">
-        <v>79274</v>
+        <v>90951</v>
       </c>
       <c r="AX54" s="13">
-        <v>91761</v>
+        <v>89409</v>
       </c>
       <c r="AY54" s="13">
-        <v>90951</v>
+        <v>112599</v>
       </c>
       <c r="AZ54" s="13">
-        <v>89409</v>
+        <v>105840</v>
       </c>
       <c r="BA54" s="13">
-        <v>112599</v>
+        <v>101757</v>
       </c>
       <c r="BB54" s="13">
-        <v>105840</v>
+        <v>88296</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>60</v>
       </c>
@@ -6983,11 +6983,11 @@
       <c r="AQ55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS55" s="11" t="s">
-        <v>58</v>
+      <c r="AR55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="11">
+        <v>0</v>
       </c>
       <c r="AT55" s="11">
         <v>0</v>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>61</v>
       </c>
@@ -7142,11 +7142,11 @@
       <c r="AQ56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS56" s="13" t="s">
-        <v>58</v>
+      <c r="AR56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="13">
+        <v>0</v>
       </c>
       <c r="AT56" s="13">
         <v>0</v>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>70</v>
       </c>
@@ -7237,103 +7237,103 @@
         <v>0</v>
       </c>
       <c r="W57" s="15">
-        <v>0</v>
+        <v>272878</v>
       </c>
       <c r="X57" s="15">
-        <v>0</v>
+        <v>250465</v>
       </c>
       <c r="Y57" s="15">
-        <v>272878</v>
+        <v>261897</v>
       </c>
       <c r="Z57" s="15">
-        <v>250465</v>
+        <v>259896</v>
       </c>
       <c r="AA57" s="15">
-        <v>261897</v>
+        <v>336144</v>
       </c>
       <c r="AB57" s="15">
-        <v>259896</v>
+        <v>371114</v>
       </c>
       <c r="AC57" s="15">
-        <v>336144</v>
+        <v>413336</v>
       </c>
       <c r="AD57" s="15">
-        <v>371114</v>
+        <v>473375</v>
       </c>
       <c r="AE57" s="15">
-        <v>413336</v>
+        <v>427251</v>
       </c>
       <c r="AF57" s="15">
-        <v>473375</v>
+        <v>370675</v>
       </c>
       <c r="AG57" s="15">
-        <v>427251</v>
+        <v>504597</v>
       </c>
       <c r="AH57" s="15">
-        <v>370675</v>
+        <v>478537</v>
       </c>
       <c r="AI57" s="15">
-        <v>504597</v>
+        <v>468883</v>
       </c>
       <c r="AJ57" s="15">
-        <v>478537</v>
+        <v>361670</v>
       </c>
       <c r="AK57" s="15">
-        <v>468883</v>
+        <v>515980</v>
       </c>
       <c r="AL57" s="15">
-        <v>361670</v>
+        <v>461384</v>
       </c>
       <c r="AM57" s="15">
-        <v>515980</v>
+        <v>505221</v>
       </c>
       <c r="AN57" s="15">
-        <v>461384</v>
+        <v>484630</v>
       </c>
       <c r="AO57" s="15">
-        <v>505221</v>
+        <v>421908</v>
       </c>
       <c r="AP57" s="15">
-        <v>484630</v>
+        <v>412671</v>
       </c>
       <c r="AQ57" s="15">
-        <v>421908</v>
+        <v>673885</v>
       </c>
       <c r="AR57" s="15">
-        <v>412671</v>
+        <v>159146</v>
       </c>
       <c r="AS57" s="15">
-        <v>673885</v>
+        <v>523531</v>
       </c>
       <c r="AT57" s="15">
-        <v>159146</v>
+        <v>715503</v>
       </c>
       <c r="AU57" s="15">
-        <v>523531</v>
+        <v>703392</v>
       </c>
       <c r="AV57" s="15">
-        <v>715503</v>
+        <v>612169</v>
       </c>
       <c r="AW57" s="15">
-        <v>703392</v>
+        <v>544528</v>
       </c>
       <c r="AX57" s="15">
-        <v>612169</v>
+        <v>471763</v>
       </c>
       <c r="AY57" s="15">
-        <v>544528</v>
+        <v>646795</v>
       </c>
       <c r="AZ57" s="15">
-        <v>471763</v>
+        <v>745191</v>
       </c>
       <c r="BA57" s="15">
-        <v>646795</v>
+        <v>645863</v>
       </c>
       <c r="BB57" s="15">
-        <v>745191</v>
+        <v>726480</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>78</v>
       </c>
@@ -7390,7 +7390,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>56</v>
       </c>
@@ -7452,104 +7452,104 @@
       <c r="V59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>58</v>
+      <c r="W59" s="11">
+        <v>6342</v>
+      </c>
+      <c r="X59" s="11">
+        <v>6201</v>
       </c>
       <c r="Y59" s="11">
-        <v>6342</v>
+        <v>7467</v>
       </c>
       <c r="Z59" s="11">
-        <v>6201</v>
+        <v>8509</v>
       </c>
       <c r="AA59" s="11">
-        <v>7467</v>
+        <v>3918</v>
       </c>
       <c r="AB59" s="11">
-        <v>8509</v>
+        <v>6911</v>
       </c>
       <c r="AC59" s="11">
-        <v>3918</v>
+        <v>8296</v>
       </c>
       <c r="AD59" s="11">
-        <v>6911</v>
+        <v>3354</v>
       </c>
       <c r="AE59" s="11">
-        <v>8296</v>
+        <v>2639</v>
       </c>
       <c r="AF59" s="11">
-        <v>3354</v>
+        <v>1789</v>
       </c>
       <c r="AG59" s="11">
-        <v>2639</v>
+        <v>6401</v>
       </c>
       <c r="AH59" s="11">
-        <v>1789</v>
+        <v>1358</v>
       </c>
       <c r="AI59" s="11">
-        <v>6401</v>
+        <v>3637</v>
       </c>
       <c r="AJ59" s="11">
-        <v>1358</v>
+        <v>1770</v>
       </c>
       <c r="AK59" s="11">
-        <v>3637</v>
+        <v>1958</v>
       </c>
       <c r="AL59" s="11">
-        <v>1770</v>
+        <v>3227</v>
       </c>
       <c r="AM59" s="11">
-        <v>1958</v>
+        <v>27109</v>
       </c>
       <c r="AN59" s="11">
-        <v>3227</v>
+        <v>14868</v>
       </c>
       <c r="AO59" s="11">
-        <v>27109</v>
+        <v>8376</v>
       </c>
       <c r="AP59" s="11">
-        <v>14868</v>
+        <v>21482</v>
       </c>
       <c r="AQ59" s="11">
-        <v>8376</v>
+        <v>14314</v>
       </c>
       <c r="AR59" s="11">
-        <v>21482</v>
+        <v>3612</v>
       </c>
       <c r="AS59" s="11">
-        <v>14314</v>
+        <v>15989</v>
       </c>
       <c r="AT59" s="11">
-        <v>3612</v>
+        <v>20467</v>
       </c>
       <c r="AU59" s="11">
-        <v>15989</v>
+        <v>9475</v>
       </c>
       <c r="AV59" s="11">
-        <v>20467</v>
+        <v>16690</v>
       </c>
       <c r="AW59" s="11">
-        <v>9475</v>
+        <v>30994</v>
       </c>
       <c r="AX59" s="11">
-        <v>16690</v>
+        <v>17682</v>
       </c>
       <c r="AY59" s="11">
-        <v>30994</v>
+        <v>37726</v>
       </c>
       <c r="AZ59" s="11">
-        <v>17682</v>
+        <v>40968</v>
       </c>
       <c r="BA59" s="11">
-        <v>37726</v>
+        <v>21487</v>
       </c>
       <c r="BB59" s="11">
-        <v>40968</v>
+        <v>25250</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>59</v>
       </c>
@@ -7611,104 +7611,104 @@
       <c r="V60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X60" s="13" t="s">
-        <v>58</v>
+      <c r="W60" s="13">
+        <v>8068</v>
+      </c>
+      <c r="X60" s="13">
+        <v>10462</v>
       </c>
       <c r="Y60" s="13">
-        <v>8068</v>
+        <v>11489</v>
       </c>
       <c r="Z60" s="13">
-        <v>10462</v>
+        <v>10963</v>
       </c>
       <c r="AA60" s="13">
-        <v>11489</v>
+        <v>11304</v>
       </c>
       <c r="AB60" s="13">
-        <v>10963</v>
+        <v>9028</v>
       </c>
       <c r="AC60" s="13">
-        <v>11304</v>
+        <v>17506</v>
       </c>
       <c r="AD60" s="13">
-        <v>9028</v>
+        <v>9947</v>
       </c>
       <c r="AE60" s="13">
-        <v>17506</v>
+        <v>10681</v>
       </c>
       <c r="AF60" s="13">
-        <v>9947</v>
+        <v>17973</v>
       </c>
       <c r="AG60" s="13">
-        <v>10681</v>
+        <v>5851</v>
       </c>
       <c r="AH60" s="13">
-        <v>17973</v>
+        <v>14924</v>
       </c>
       <c r="AI60" s="13">
-        <v>5851</v>
+        <v>17266</v>
       </c>
       <c r="AJ60" s="13">
-        <v>14924</v>
+        <v>22849</v>
       </c>
       <c r="AK60" s="13">
-        <v>17266</v>
+        <v>20877</v>
       </c>
       <c r="AL60" s="13">
-        <v>22849</v>
+        <v>23564</v>
       </c>
       <c r="AM60" s="13">
-        <v>20877</v>
+        <v>22238</v>
       </c>
       <c r="AN60" s="13">
-        <v>23564</v>
+        <v>28272</v>
       </c>
       <c r="AO60" s="13">
-        <v>22238</v>
+        <v>14535</v>
       </c>
       <c r="AP60" s="13">
-        <v>28272</v>
+        <v>14749</v>
       </c>
       <c r="AQ60" s="13">
-        <v>14535</v>
+        <v>34545</v>
       </c>
       <c r="AR60" s="13">
-        <v>14749</v>
+        <v>34541</v>
       </c>
       <c r="AS60" s="13">
-        <v>34545</v>
+        <v>36915</v>
       </c>
       <c r="AT60" s="13">
-        <v>34541</v>
+        <v>46845</v>
       </c>
       <c r="AU60" s="13">
-        <v>36915</v>
+        <v>47743</v>
       </c>
       <c r="AV60" s="13">
-        <v>46845</v>
+        <v>68605</v>
       </c>
       <c r="AW60" s="13">
-        <v>47743</v>
+        <v>47724</v>
       </c>
       <c r="AX60" s="13">
-        <v>68605</v>
+        <v>46103</v>
       </c>
       <c r="AY60" s="13">
-        <v>47724</v>
+        <v>39866</v>
       </c>
       <c r="AZ60" s="13">
-        <v>46103</v>
+        <v>49892</v>
       </c>
       <c r="BA60" s="13">
-        <v>39866</v>
+        <v>47689</v>
       </c>
       <c r="BB60" s="13">
-        <v>49892</v>
+        <v>9091</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>61</v>
       </c>
@@ -7833,11 +7833,11 @@
       <c r="AQ61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS61" s="11" t="s">
-        <v>58</v>
+      <c r="AR61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="11">
+        <v>0</v>
       </c>
       <c r="AT61" s="11">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
         <v>72</v>
       </c>
@@ -7928,103 +7928,103 @@
         <v>0</v>
       </c>
       <c r="W62" s="17">
-        <v>0</v>
+        <v>14410</v>
       </c>
       <c r="X62" s="17">
-        <v>0</v>
+        <v>16663</v>
       </c>
       <c r="Y62" s="17">
-        <v>14410</v>
+        <v>18956</v>
       </c>
       <c r="Z62" s="17">
-        <v>16663</v>
+        <v>19472</v>
       </c>
       <c r="AA62" s="17">
-        <v>18956</v>
+        <v>15222</v>
       </c>
       <c r="AB62" s="17">
-        <v>19472</v>
+        <v>15939</v>
       </c>
       <c r="AC62" s="17">
-        <v>15222</v>
+        <v>25802</v>
       </c>
       <c r="AD62" s="17">
-        <v>15939</v>
+        <v>13301</v>
       </c>
       <c r="AE62" s="17">
-        <v>25802</v>
+        <v>13320</v>
       </c>
       <c r="AF62" s="17">
-        <v>13301</v>
+        <v>19762</v>
       </c>
       <c r="AG62" s="17">
-        <v>13320</v>
+        <v>12252</v>
       </c>
       <c r="AH62" s="17">
-        <v>19762</v>
+        <v>16282</v>
       </c>
       <c r="AI62" s="17">
-        <v>12252</v>
+        <v>20903</v>
       </c>
       <c r="AJ62" s="17">
-        <v>16282</v>
+        <v>24619</v>
       </c>
       <c r="AK62" s="17">
-        <v>20903</v>
+        <v>22835</v>
       </c>
       <c r="AL62" s="17">
-        <v>24619</v>
+        <v>26791</v>
       </c>
       <c r="AM62" s="17">
-        <v>22835</v>
+        <v>49347</v>
       </c>
       <c r="AN62" s="17">
-        <v>26791</v>
+        <v>43140</v>
       </c>
       <c r="AO62" s="17">
-        <v>49347</v>
+        <v>22911</v>
       </c>
       <c r="AP62" s="17">
-        <v>43140</v>
+        <v>36231</v>
       </c>
       <c r="AQ62" s="17">
-        <v>22911</v>
+        <v>48859</v>
       </c>
       <c r="AR62" s="17">
-        <v>36231</v>
+        <v>38153</v>
       </c>
       <c r="AS62" s="17">
-        <v>48859</v>
+        <v>52904</v>
       </c>
       <c r="AT62" s="17">
-        <v>38153</v>
+        <v>67312</v>
       </c>
       <c r="AU62" s="17">
-        <v>52904</v>
+        <v>57218</v>
       </c>
       <c r="AV62" s="17">
-        <v>67312</v>
+        <v>85295</v>
       </c>
       <c r="AW62" s="17">
-        <v>57218</v>
+        <v>78718</v>
       </c>
       <c r="AX62" s="17">
-        <v>85295</v>
+        <v>63785</v>
       </c>
       <c r="AY62" s="17">
-        <v>78718</v>
+        <v>77592</v>
       </c>
       <c r="AZ62" s="17">
-        <v>63785</v>
+        <v>90860</v>
       </c>
       <c r="BA62" s="17">
-        <v>77592</v>
+        <v>69176</v>
       </c>
       <c r="BB62" s="17">
-        <v>90860</v>
+        <v>34341</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
         <v>79</v>
       </c>
@@ -8081,7 +8081,7 @@
       <c r="BA63" s="19"/>
       <c r="BB63" s="19"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>66</v>
       </c>
@@ -8143,11 +8143,11 @@
       <c r="V64" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X64" s="15" t="s">
-        <v>58</v>
+      <c r="W64" s="15">
+        <v>0</v>
+      </c>
+      <c r="X64" s="15">
+        <v>0</v>
       </c>
       <c r="Y64" s="15">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>80</v>
       </c>
@@ -8297,7 +8297,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>56</v>
       </c>
@@ -8359,11 +8359,11 @@
       <c r="V66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="11" t="s">
-        <v>58</v>
+      <c r="W66" s="11">
+        <v>0</v>
+      </c>
+      <c r="X66" s="11">
+        <v>0</v>
       </c>
       <c r="Y66" s="11">
         <v>0</v>
@@ -8422,11 +8422,11 @@
       <c r="AQ66" s="11">
         <v>0</v>
       </c>
-      <c r="AR66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS66" s="11">
-        <v>0</v>
+      <c r="AR66" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS66" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT66" s="11" t="s">
         <v>58</v>
@@ -8456,7 +8456,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>59</v>
       </c>
@@ -8518,11 +8518,11 @@
       <c r="V67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="13" t="s">
-        <v>58</v>
+      <c r="W67" s="13">
+        <v>0</v>
+      </c>
+      <c r="X67" s="13">
+        <v>0</v>
       </c>
       <c r="Y67" s="13">
         <v>0</v>
@@ -8581,11 +8581,11 @@
       <c r="AQ67" s="13">
         <v>0</v>
       </c>
-      <c r="AR67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS67" s="13">
-        <v>0</v>
+      <c r="AR67" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT67" s="13" t="s">
         <v>58</v>
@@ -8615,7 +8615,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
         <v>74</v>
       </c>
@@ -8677,11 +8677,11 @@
       <c r="V68" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W68" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X68" s="15" t="s">
-        <v>58</v>
+      <c r="W68" s="15">
+        <v>0</v>
+      </c>
+      <c r="X68" s="15">
+        <v>0</v>
       </c>
       <c r="Y68" s="15">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>81</v>
       </c>
@@ -8831,7 +8831,7 @@
       <c r="BA69" s="9"/>
       <c r="BB69" s="9"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>82</v>
       </c>
@@ -8893,11 +8893,11 @@
       <c r="V70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X70" s="11" t="s">
-        <v>58</v>
+      <c r="W70" s="11">
+        <v>0</v>
+      </c>
+      <c r="X70" s="11">
+        <v>0</v>
       </c>
       <c r="Y70" s="11">
         <v>0</v>
@@ -8990,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="16" t="s">
         <v>67</v>
       </c>
@@ -9051,103 +9051,103 @@
         <v>0</v>
       </c>
       <c r="W71" s="17">
-        <v>0</v>
+        <v>287288</v>
       </c>
       <c r="X71" s="17">
-        <v>0</v>
+        <v>267128</v>
       </c>
       <c r="Y71" s="17">
-        <v>287288</v>
+        <v>280853</v>
       </c>
       <c r="Z71" s="17">
-        <v>267128</v>
+        <v>279368</v>
       </c>
       <c r="AA71" s="17">
-        <v>280853</v>
+        <v>351366</v>
       </c>
       <c r="AB71" s="17">
-        <v>279368</v>
+        <v>387053</v>
       </c>
       <c r="AC71" s="17">
-        <v>351366</v>
+        <v>439138</v>
       </c>
       <c r="AD71" s="17">
-        <v>387053</v>
+        <v>486676</v>
       </c>
       <c r="AE71" s="17">
-        <v>439138</v>
+        <v>440571</v>
       </c>
       <c r="AF71" s="17">
-        <v>486676</v>
+        <v>390437</v>
       </c>
       <c r="AG71" s="17">
-        <v>440571</v>
+        <v>516849</v>
       </c>
       <c r="AH71" s="17">
-        <v>390437</v>
+        <v>494819</v>
       </c>
       <c r="AI71" s="17">
-        <v>516849</v>
+        <v>489786</v>
       </c>
       <c r="AJ71" s="17">
-        <v>494819</v>
+        <v>386289</v>
       </c>
       <c r="AK71" s="17">
-        <v>489786</v>
+        <v>538815</v>
       </c>
       <c r="AL71" s="17">
-        <v>386289</v>
+        <v>488175</v>
       </c>
       <c r="AM71" s="17">
-        <v>538815</v>
+        <v>554568</v>
       </c>
       <c r="AN71" s="17">
-        <v>488175</v>
+        <v>527770</v>
       </c>
       <c r="AO71" s="17">
-        <v>554568</v>
+        <v>444819</v>
       </c>
       <c r="AP71" s="17">
-        <v>527770</v>
+        <v>448902</v>
       </c>
       <c r="AQ71" s="17">
-        <v>444819</v>
+        <v>722744</v>
       </c>
       <c r="AR71" s="17">
-        <v>448902</v>
+        <v>197299</v>
       </c>
       <c r="AS71" s="17">
-        <v>722744</v>
+        <v>576435</v>
       </c>
       <c r="AT71" s="17">
-        <v>197299</v>
+        <v>782815</v>
       </c>
       <c r="AU71" s="17">
-        <v>576435</v>
+        <v>760610</v>
       </c>
       <c r="AV71" s="17">
-        <v>782815</v>
+        <v>697464</v>
       </c>
       <c r="AW71" s="17">
-        <v>760610</v>
+        <v>623246</v>
       </c>
       <c r="AX71" s="17">
-        <v>697464</v>
+        <v>535548</v>
       </c>
       <c r="AY71" s="17">
-        <v>623246</v>
+        <v>724387</v>
       </c>
       <c r="AZ71" s="17">
-        <v>535548</v>
+        <v>836051</v>
       </c>
       <c r="BA71" s="17">
-        <v>724387</v>
+        <v>715039</v>
       </c>
       <c r="BB71" s="17">
-        <v>836051</v>
+        <v>760821</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9202,7 +9202,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9257,7 +9257,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9312,7 +9312,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>83</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9524,7 +9524,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>84</v>
       </c>
@@ -9581,7 +9581,7 @@
       <c r="BA77" s="9"/>
       <c r="BB77" s="9"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>56</v>
       </c>
@@ -9643,104 +9643,104 @@
       <c r="V78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" s="11" t="s">
-        <v>58</v>
+      <c r="W78" s="11">
+        <v>14419146</v>
+      </c>
+      <c r="X78" s="11">
+        <v>14870161</v>
       </c>
       <c r="Y78" s="11">
-        <v>14419146</v>
+        <v>14846250</v>
       </c>
       <c r="Z78" s="11">
-        <v>14870161</v>
+        <v>16594400</v>
       </c>
       <c r="AA78" s="11">
-        <v>14846250</v>
+        <v>19307708</v>
       </c>
       <c r="AB78" s="11">
-        <v>16594400</v>
+        <v>21125229</v>
       </c>
       <c r="AC78" s="11">
-        <v>19307708</v>
+        <v>25525345</v>
       </c>
       <c r="AD78" s="11">
-        <v>21125229</v>
+        <v>28361076</v>
       </c>
       <c r="AE78" s="11">
-        <v>25525345</v>
+        <v>28689187</v>
       </c>
       <c r="AF78" s="11">
-        <v>28361076</v>
+        <v>25619269</v>
       </c>
       <c r="AG78" s="11">
-        <v>28689187</v>
+        <v>25535506</v>
       </c>
       <c r="AH78" s="11">
-        <v>25619269</v>
+        <v>25507483</v>
       </c>
       <c r="AI78" s="11">
-        <v>25535506</v>
+        <v>25904134</v>
       </c>
       <c r="AJ78" s="11">
-        <v>25507483</v>
+        <v>25618330</v>
       </c>
       <c r="AK78" s="11">
-        <v>25904134</v>
+        <v>25930504</v>
       </c>
       <c r="AL78" s="11">
-        <v>25618330</v>
+        <v>27254159</v>
       </c>
       <c r="AM78" s="11">
-        <v>25930504</v>
+        <v>28028486</v>
       </c>
       <c r="AN78" s="11">
-        <v>27254159</v>
+        <v>28351686</v>
       </c>
       <c r="AO78" s="11">
-        <v>28028486</v>
+        <v>28408427</v>
       </c>
       <c r="AP78" s="11">
-        <v>28351686</v>
+        <v>29237797</v>
       </c>
       <c r="AQ78" s="11">
-        <v>28408427</v>
+        <v>28387707</v>
       </c>
       <c r="AR78" s="11">
-        <v>29237797</v>
+        <v>28384735</v>
       </c>
       <c r="AS78" s="11">
-        <v>28387707</v>
+        <v>28256724</v>
       </c>
       <c r="AT78" s="11">
-        <v>28384735</v>
+        <v>29325671</v>
       </c>
       <c r="AU78" s="11">
-        <v>28256724</v>
+        <v>31063010</v>
       </c>
       <c r="AV78" s="11">
-        <v>29325671</v>
+        <v>32311437</v>
       </c>
       <c r="AW78" s="11">
-        <v>31063010</v>
+        <v>35237492</v>
       </c>
       <c r="AX78" s="11">
-        <v>32311437</v>
+        <v>35091226</v>
       </c>
       <c r="AY78" s="11">
-        <v>35237492</v>
+        <v>35563278</v>
       </c>
       <c r="AZ78" s="11">
-        <v>35091226</v>
+        <v>35239541</v>
       </c>
       <c r="BA78" s="11">
-        <v>35563278</v>
+        <v>35262865</v>
       </c>
       <c r="BB78" s="11">
-        <v>35239541</v>
+        <v>36004739</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>59</v>
       </c>
@@ -9802,104 +9802,104 @@
       <c r="V79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="13" t="s">
-        <v>58</v>
+      <c r="W79" s="13">
+        <v>7044459</v>
+      </c>
+      <c r="X79" s="13">
+        <v>7681400</v>
       </c>
       <c r="Y79" s="13">
-        <v>7044459</v>
+        <v>7395471</v>
       </c>
       <c r="Z79" s="13">
-        <v>7681400</v>
+        <v>8085448</v>
       </c>
       <c r="AA79" s="13">
-        <v>7395471</v>
+        <v>10031243</v>
       </c>
       <c r="AB79" s="13">
-        <v>8085448</v>
+        <v>10331910</v>
       </c>
       <c r="AC79" s="13">
-        <v>10031243</v>
+        <v>10539376</v>
       </c>
       <c r="AD79" s="13">
-        <v>10331910</v>
+        <v>9974906</v>
       </c>
       <c r="AE79" s="13">
-        <v>10539376</v>
+        <v>9662844</v>
       </c>
       <c r="AF79" s="13">
-        <v>9974906</v>
+        <v>10438197</v>
       </c>
       <c r="AG79" s="13">
-        <v>9662844</v>
+        <v>11197567</v>
       </c>
       <c r="AH79" s="13">
-        <v>10438197</v>
+        <v>10851754</v>
       </c>
       <c r="AI79" s="13">
-        <v>11197567</v>
+        <v>12058694</v>
       </c>
       <c r="AJ79" s="13">
-        <v>10851754</v>
+        <v>12860037</v>
       </c>
       <c r="AK79" s="13">
-        <v>12058694</v>
+        <v>12547268</v>
       </c>
       <c r="AL79" s="13">
-        <v>12860037</v>
+        <v>12238507</v>
       </c>
       <c r="AM79" s="13">
-        <v>12547268</v>
+        <v>12490152</v>
       </c>
       <c r="AN79" s="13">
-        <v>12238507</v>
+        <v>13045858</v>
       </c>
       <c r="AO79" s="13">
-        <v>12490152</v>
+        <v>13706952</v>
       </c>
       <c r="AP79" s="13">
-        <v>13045858</v>
+        <v>13878030</v>
       </c>
       <c r="AQ79" s="13">
-        <v>13706952</v>
+        <v>14394535</v>
       </c>
       <c r="AR79" s="13">
-        <v>13878030</v>
+        <v>15277812</v>
       </c>
       <c r="AS79" s="13">
-        <v>14394535</v>
+        <v>15844645</v>
       </c>
       <c r="AT79" s="13">
-        <v>15277812</v>
+        <v>15737288</v>
       </c>
       <c r="AU79" s="13">
-        <v>15844645</v>
+        <v>15324570</v>
       </c>
       <c r="AV79" s="13">
-        <v>15737288</v>
+        <v>16129548</v>
       </c>
       <c r="AW79" s="13">
-        <v>15324570</v>
+        <v>15624635</v>
       </c>
       <c r="AX79" s="13">
-        <v>16129548</v>
+        <v>15622750</v>
       </c>
       <c r="AY79" s="13">
-        <v>15624635</v>
+        <v>15334196</v>
       </c>
       <c r="AZ79" s="13">
-        <v>15622750</v>
+        <v>16493689</v>
       </c>
       <c r="BA79" s="13">
-        <v>15334196</v>
+        <v>17505075</v>
       </c>
       <c r="BB79" s="13">
-        <v>16493689</v>
+        <v>15958070</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>86</v>
       </c>
@@ -9956,7 +9956,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>56</v>
       </c>
@@ -10018,104 +10018,104 @@
       <c r="V81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>58</v>
+      <c r="W81" s="11">
+        <v>24968504</v>
+      </c>
+      <c r="X81" s="11">
+        <v>27683036</v>
       </c>
       <c r="Y81" s="11">
-        <v>24968504</v>
+        <v>29749004</v>
       </c>
       <c r="Z81" s="11">
-        <v>27683036</v>
+        <v>39032110</v>
       </c>
       <c r="AA81" s="11">
-        <v>29749004</v>
+        <v>39979592</v>
       </c>
       <c r="AB81" s="11">
-        <v>39032110</v>
+        <v>34904040</v>
       </c>
       <c r="AC81" s="11">
-        <v>39979592</v>
+        <v>37201794</v>
       </c>
       <c r="AD81" s="11">
-        <v>34904040</v>
+        <v>33540000</v>
       </c>
       <c r="AE81" s="11">
-        <v>37201794</v>
+        <v>37169014</v>
       </c>
       <c r="AF81" s="11">
-        <v>33540000</v>
+        <v>36510204</v>
       </c>
       <c r="AG81" s="11">
-        <v>37169014</v>
+        <v>32658163</v>
       </c>
       <c r="AH81" s="11">
-        <v>36510204</v>
+        <v>33950000</v>
       </c>
       <c r="AI81" s="11">
-        <v>32658163</v>
+        <v>36370000</v>
       </c>
       <c r="AJ81" s="11">
-        <v>33950000</v>
+        <v>36875000</v>
       </c>
       <c r="AK81" s="11">
-        <v>36370000</v>
+        <v>39959184</v>
       </c>
       <c r="AL81" s="11">
-        <v>36875000</v>
+        <v>31950495</v>
       </c>
       <c r="AM81" s="11">
-        <v>39959184</v>
+        <v>34099371</v>
       </c>
       <c r="AN81" s="11">
-        <v>31950495</v>
+        <v>31566879</v>
       </c>
       <c r="AO81" s="11">
-        <v>34099371</v>
+        <v>35794872</v>
       </c>
       <c r="AP81" s="11">
-        <v>31566879</v>
+        <v>32206897</v>
       </c>
       <c r="AQ81" s="11">
-        <v>35794872</v>
+        <v>32238739</v>
       </c>
       <c r="AR81" s="11">
-        <v>32206897</v>
+        <v>28666667</v>
       </c>
       <c r="AS81" s="11">
-        <v>32238739</v>
+        <v>31661386</v>
       </c>
       <c r="AT81" s="11">
-        <v>28666667</v>
+        <v>32590764</v>
       </c>
       <c r="AU81" s="11">
-        <v>31661386</v>
+        <v>38205645</v>
       </c>
       <c r="AV81" s="11">
-        <v>32590764</v>
+        <v>35136842</v>
       </c>
       <c r="AW81" s="11">
-        <v>38205645</v>
+        <v>36635934</v>
       </c>
       <c r="AX81" s="11">
-        <v>35136842</v>
+        <v>41507042</v>
       </c>
       <c r="AY81" s="11">
-        <v>36635934</v>
+        <v>44123977</v>
       </c>
       <c r="AZ81" s="11">
-        <v>41507042</v>
+        <v>42808777</v>
       </c>
       <c r="BA81" s="11">
-        <v>44123977</v>
+        <v>44671518</v>
       </c>
       <c r="BB81" s="11">
-        <v>42808777</v>
+        <v>52713987</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>59</v>
       </c>
@@ -10177,101 +10177,101 @@
       <c r="V82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X82" s="13" t="s">
-        <v>58</v>
+      <c r="W82" s="13">
+        <v>4271043</v>
+      </c>
+      <c r="X82" s="13">
+        <v>5664321</v>
       </c>
       <c r="Y82" s="13">
-        <v>4271043</v>
+        <v>5023612</v>
       </c>
       <c r="Z82" s="13">
-        <v>5664321</v>
+        <v>4515239</v>
       </c>
       <c r="AA82" s="13">
-        <v>5023612</v>
+        <v>5398281</v>
       </c>
       <c r="AB82" s="13">
-        <v>4515239</v>
+        <v>7696505</v>
       </c>
       <c r="AC82" s="13">
-        <v>5398281</v>
+        <v>5468916</v>
       </c>
       <c r="AD82" s="13">
-        <v>7696505</v>
+        <v>4683145</v>
       </c>
       <c r="AE82" s="13">
-        <v>5468916</v>
+        <v>4730292</v>
       </c>
       <c r="AF82" s="13">
-        <v>4683145</v>
+        <v>5653665</v>
       </c>
       <c r="AG82" s="13">
-        <v>4730292</v>
+        <v>5504233</v>
       </c>
       <c r="AH82" s="13">
-        <v>5653665</v>
+        <v>6200249</v>
       </c>
       <c r="AI82" s="13">
-        <v>5504233</v>
+        <v>7419854</v>
       </c>
       <c r="AJ82" s="13">
-        <v>6200249</v>
+        <v>7091558</v>
       </c>
       <c r="AK82" s="13">
-        <v>7419854</v>
+        <v>7564130</v>
       </c>
       <c r="AL82" s="13">
-        <v>7091558</v>
+        <v>8136740</v>
       </c>
       <c r="AM82" s="13">
-        <v>7564130</v>
+        <v>7770091</v>
       </c>
       <c r="AN82" s="13">
-        <v>8136740</v>
+        <v>7695155</v>
       </c>
       <c r="AO82" s="13">
-        <v>7770091</v>
+        <v>7890879</v>
       </c>
       <c r="AP82" s="13">
-        <v>7695155</v>
+        <v>9370394</v>
       </c>
       <c r="AQ82" s="13">
-        <v>7890879</v>
+        <v>10815592</v>
       </c>
       <c r="AR82" s="13">
-        <v>9370394</v>
+        <v>9618769</v>
       </c>
       <c r="AS82" s="13">
-        <v>10815592</v>
+        <v>9058896</v>
       </c>
       <c r="AT82" s="13">
-        <v>9618769</v>
+        <v>9399077</v>
       </c>
       <c r="AU82" s="13">
-        <v>9058896</v>
+        <v>9332095</v>
       </c>
       <c r="AV82" s="13">
-        <v>9399077</v>
+        <v>10629842</v>
       </c>
       <c r="AW82" s="13">
-        <v>9332095</v>
+        <v>10768051</v>
       </c>
       <c r="AX82" s="13">
-        <v>10629842</v>
+        <v>10574083</v>
       </c>
       <c r="AY82" s="13">
-        <v>10768051</v>
+        <v>13643395</v>
       </c>
       <c r="AZ82" s="13">
-        <v>10574083</v>
+        <v>12551447</v>
       </c>
       <c r="BA82" s="13">
-        <v>13643395</v>
+        <v>12805854</v>
       </c>
       <c r="BB82" s="13">
-        <v>12551447</v>
+        <v>13156295</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/chemical/shamla/product/monthly_seprated.xlsx
+++ b/database/industries/chemical/shamla/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="87">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3293,107 +3293,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>15865</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>15865</v>
+        <v>15442</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>15442</v>
+        <v>14913</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>14913</v>
+        <v>13300</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>13300</v>
+        <v>15554</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>15554</v>
+        <v>15322</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>15322</v>
+        <v>14110</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>14110</v>
+        <v>15234</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>15234</v>
+        <v>14448</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>14448</v>
+        <v>15652</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>15652</v>
+        <v>15091</v>
       </c>
       <c r="AF11" s="13" t="n">
+        <v>15695</v>
+      </c>
+      <c r="AG11" s="13" t="n">
+        <v>15525</v>
+      </c>
+      <c r="AH11" s="13" t="n">
+        <v>14911</v>
+      </c>
+      <c r="AI11" s="13" t="n">
+        <v>15546</v>
+      </c>
+      <c r="AJ11" s="13" t="n">
+        <v>15626</v>
+      </c>
+      <c r="AK11" s="13" t="n">
         <v>15091</v>
       </c>
-      <c r="AG11" s="13" t="n">
-        <v>15695</v>
-      </c>
-      <c r="AH11" s="13" t="n">
-        <v>15525</v>
-      </c>
-      <c r="AI11" s="13" t="n">
-        <v>14911</v>
-      </c>
-      <c r="AJ11" s="13" t="n">
-        <v>15546</v>
-      </c>
-      <c r="AK11" s="13" t="n">
-        <v>15626</v>
-      </c>
       <c r="AL11" s="13" t="n">
-        <v>15091</v>
+        <v>15366</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>15366</v>
+        <v>15587</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>15587</v>
+        <v>15066</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>15066</v>
+        <v>14828</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>14828</v>
+        <v>15760</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>15760</v>
+        <v>15258</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>15258</v>
+        <v>15269</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>15269</v>
+        <v>15656</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>15656</v>
+        <v>15268</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>15268</v>
+        <v>14926</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>14926</v>
+        <v>15140</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>15140</v>
+        <v>14754</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>14754</v>
+        <v>14391</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>14391</v>
+        <v>14720</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>14720</v>
+        <v>14801</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>14801</v>
+        <v>13348</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>13348</v>
+        <v>15052</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,107 +3452,107 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>3712</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>3712</v>
+        <v>4617</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>4617</v>
+        <v>4989</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>4989</v>
+        <v>4534</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>4534</v>
+        <v>5046</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>5046</v>
+        <v>4593</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>4593</v>
+        <v>3612</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>3612</v>
+        <v>5126</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>5126</v>
+        <v>4973</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>4973</v>
+        <v>4121</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>4121</v>
+        <v>6316</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>6316</v>
+        <v>4298</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>4298</v>
+        <v>4876</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>4876</v>
+        <v>4583</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>4583</v>
+        <v>6362</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>6362</v>
+        <v>6125</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>6125</v>
+        <v>4515</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>4515</v>
+        <v>6602</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>6602</v>
+        <v>6378</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>6378</v>
+        <v>6984</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>6984</v>
+        <v>6540</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>6540</v>
+        <v>1748</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>1748</v>
+        <v>5565</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>5565</v>
+        <v>5317</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>5317</v>
+        <v>5984</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>5984</v>
+        <v>5271</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>5271</v>
+        <v>6867</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>6867</v>
+        <v>6040</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>6040</v>
+        <v>7027</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>7027</v>
+        <v>6151</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>6151</v>
+        <v>3732</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>3732</v>
+        <v>5440</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>5440</v>
+        <v>7642</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>7642</v>
+        <v>5829</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3674,8 +3674,8 @@
       <c r="AO13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP13" s="13" t="s">
-        <v>58</v>
+      <c r="AP13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ13" s="13" t="n">
         <v>0</v>
@@ -3833,8 +3833,8 @@
       <c r="AO14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP14" s="16" t="s">
-        <v>58</v>
+      <c r="AP14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ14" s="16" t="n">
         <v>0</v>
@@ -3928,106 +3928,106 @@
         <v>0</v>
       </c>
       <c r="U15" s="18" t="n">
-        <v>0</v>
+        <v>19577</v>
       </c>
       <c r="V15" s="18" t="n">
-        <v>19577</v>
+        <v>20059</v>
       </c>
       <c r="W15" s="18" t="n">
-        <v>20059</v>
+        <v>19902</v>
       </c>
       <c r="X15" s="18" t="n">
-        <v>19902</v>
+        <v>17834</v>
       </c>
       <c r="Y15" s="18" t="n">
-        <v>17834</v>
+        <v>20600</v>
       </c>
       <c r="Z15" s="18" t="n">
-        <v>20600</v>
+        <v>19915</v>
       </c>
       <c r="AA15" s="18" t="n">
-        <v>19915</v>
+        <v>17722</v>
       </c>
       <c r="AB15" s="18" t="n">
-        <v>17722</v>
+        <v>20360</v>
       </c>
       <c r="AC15" s="18" t="n">
-        <v>20360</v>
+        <v>19421</v>
       </c>
       <c r="AD15" s="18" t="n">
-        <v>19421</v>
+        <v>19773</v>
       </c>
       <c r="AE15" s="18" t="n">
-        <v>19773</v>
+        <v>21407</v>
       </c>
       <c r="AF15" s="18" t="n">
-        <v>21407</v>
+        <v>19993</v>
       </c>
       <c r="AG15" s="18" t="n">
-        <v>19993</v>
+        <v>20401</v>
       </c>
       <c r="AH15" s="18" t="n">
-        <v>20401</v>
+        <v>19494</v>
       </c>
       <c r="AI15" s="18" t="n">
-        <v>19494</v>
+        <v>21908</v>
       </c>
       <c r="AJ15" s="18" t="n">
-        <v>21908</v>
+        <v>21751</v>
       </c>
       <c r="AK15" s="18" t="n">
-        <v>21751</v>
+        <v>19606</v>
       </c>
       <c r="AL15" s="18" t="n">
-        <v>19606</v>
+        <v>21968</v>
       </c>
       <c r="AM15" s="18" t="n">
-        <v>21968</v>
+        <v>21965</v>
       </c>
       <c r="AN15" s="18" t="n">
-        <v>21965</v>
+        <v>22050</v>
       </c>
       <c r="AO15" s="18" t="n">
-        <v>22050</v>
+        <v>21368</v>
       </c>
       <c r="AP15" s="18" t="n">
-        <v>21368</v>
+        <v>17508</v>
       </c>
       <c r="AQ15" s="18" t="n">
-        <v>17508</v>
+        <v>20823</v>
       </c>
       <c r="AR15" s="18" t="n">
-        <v>20823</v>
+        <v>20586</v>
       </c>
       <c r="AS15" s="18" t="n">
-        <v>20586</v>
+        <v>21640</v>
       </c>
       <c r="AT15" s="18" t="n">
-        <v>21640</v>
+        <v>20539</v>
       </c>
       <c r="AU15" s="18" t="n">
-        <v>20539</v>
+        <v>21793</v>
       </c>
       <c r="AV15" s="18" t="n">
-        <v>21793</v>
+        <v>21180</v>
       </c>
       <c r="AW15" s="18" t="n">
-        <v>21180</v>
+        <v>21781</v>
       </c>
       <c r="AX15" s="18" t="n">
-        <v>21781</v>
+        <v>20542</v>
       </c>
       <c r="AY15" s="18" t="n">
-        <v>20542</v>
+        <v>18452</v>
       </c>
       <c r="AZ15" s="18" t="n">
-        <v>18452</v>
+        <v>20241</v>
       </c>
       <c r="BA15" s="18" t="n">
-        <v>20241</v>
+        <v>20990</v>
       </c>
       <c r="BB15" s="18" t="n">
-        <v>20990</v>
+        <v>20881</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,107 +4143,107 @@
       <c r="T17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>58</v>
+      <c r="U17" s="13" t="n">
+        <v>254</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="W17" s="13" t="n">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="X17" s="13" t="n">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="AC17" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="AD17" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AE17" s="13" t="n">
+        <v>196</v>
+      </c>
+      <c r="AF17" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG17" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="AD17" s="13" t="n">
-        <v>71</v>
-      </c>
-      <c r="AE17" s="13" t="n">
+      <c r="AH17" s="13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI17" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="AF17" s="13" t="n">
-        <v>196</v>
-      </c>
-      <c r="AG17" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH17" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI17" s="13" t="n">
-        <v>48</v>
-      </c>
       <c r="AJ17" s="13" t="n">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>101</v>
+        <v>795</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>795</v>
+        <v>471</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>471</v>
+        <v>234</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>234</v>
+        <v>667</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>444</v>
+        <v>126</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>126</v>
+        <v>505</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>505</v>
+        <v>628</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>628</v>
+        <v>248</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>248</v>
+        <v>475</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>475</v>
+        <v>846</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>846</v>
+        <v>426</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>426</v>
+        <v>855</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>855</v>
+        <v>957</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>957</v>
+        <v>481</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>479</v>
+        <v>761</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>761</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4302,107 +4302,107 @@
       <c r="T18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>58</v>
+      <c r="U18" s="16" t="n">
+        <v>2476</v>
       </c>
       <c r="V18" s="16" t="n">
-        <v>2476</v>
+        <v>1847</v>
       </c>
       <c r="W18" s="16" t="n">
-        <v>1847</v>
+        <v>2289</v>
       </c>
       <c r="X18" s="16" t="n">
-        <v>2289</v>
+        <v>2428</v>
       </c>
       <c r="Y18" s="16" t="n">
-        <v>2428</v>
+        <v>2094</v>
       </c>
       <c r="Z18" s="16" t="n">
-        <v>2094</v>
+        <v>1173</v>
       </c>
       <c r="AA18" s="16" t="n">
-        <v>1173</v>
+        <v>3201</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>3201</v>
+        <v>2124</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>2124</v>
+        <v>2258</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>2258</v>
+        <v>3179</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>3179</v>
+        <v>1063</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>1063</v>
+        <v>2407</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>2407</v>
+        <v>2327</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>2327</v>
+        <v>3222</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>3222</v>
+        <v>2760</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>2760</v>
+        <v>2896</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>2896</v>
+        <v>2862</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>2862</v>
+        <v>3674</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>3674</v>
+        <v>1843</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>1843</v>
+        <v>1573</v>
       </c>
       <c r="AO18" s="16" t="n">
-        <v>1573</v>
+        <v>3194</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>3194</v>
+        <v>3591</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>3591</v>
+        <v>4075</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>4075</v>
+        <v>4984</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>4984</v>
+        <v>5116</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>5116</v>
+        <v>6454</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>6454</v>
+        <v>4432</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>4432</v>
+        <v>4360</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>4360</v>
+        <v>2922</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>2922</v>
+        <v>3975</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>3975</v>
+        <v>3724</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>3724</v>
+        <v>691</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>691</v>
+        <v>2007</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>2007</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4524,8 +4524,8 @@
       <c r="AO19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP19" s="13" t="s">
-        <v>58</v>
+      <c r="AP19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ19" s="13" t="n">
         <v>0</v>
@@ -4619,106 +4619,106 @@
         <v>0</v>
       </c>
       <c r="U20" s="20" t="n">
-        <v>0</v>
+        <v>2730</v>
       </c>
       <c r="V20" s="20" t="n">
-        <v>2730</v>
+        <v>2071</v>
       </c>
       <c r="W20" s="20" t="n">
-        <v>2071</v>
+        <v>2540</v>
       </c>
       <c r="X20" s="20" t="n">
-        <v>2540</v>
+        <v>2646</v>
       </c>
       <c r="Y20" s="20" t="n">
-        <v>2646</v>
+        <v>2192</v>
       </c>
       <c r="Z20" s="20" t="n">
-        <v>2192</v>
+        <v>1371</v>
       </c>
       <c r="AA20" s="20" t="n">
-        <v>1371</v>
+        <v>3424</v>
       </c>
       <c r="AB20" s="20" t="n">
-        <v>3424</v>
+        <v>2224</v>
       </c>
       <c r="AC20" s="20" t="n">
-        <v>2224</v>
+        <v>2329</v>
       </c>
       <c r="AD20" s="20" t="n">
-        <v>2329</v>
+        <v>3228</v>
       </c>
       <c r="AE20" s="20" t="n">
-        <v>3228</v>
+        <v>1259</v>
       </c>
       <c r="AF20" s="20" t="n">
-        <v>1259</v>
+        <v>2447</v>
       </c>
       <c r="AG20" s="20" t="n">
-        <v>2447</v>
+        <v>2427</v>
       </c>
       <c r="AH20" s="20" t="n">
-        <v>2427</v>
+        <v>3270</v>
       </c>
       <c r="AI20" s="20" t="n">
-        <v>3270</v>
+        <v>2809</v>
       </c>
       <c r="AJ20" s="20" t="n">
-        <v>2809</v>
+        <v>2997</v>
       </c>
       <c r="AK20" s="20" t="n">
-        <v>2997</v>
+        <v>3657</v>
       </c>
       <c r="AL20" s="20" t="n">
-        <v>3657</v>
+        <v>4145</v>
       </c>
       <c r="AM20" s="20" t="n">
-        <v>4145</v>
+        <v>2077</v>
       </c>
       <c r="AN20" s="20" t="n">
-        <v>2077</v>
+        <v>2240</v>
       </c>
       <c r="AO20" s="20" t="n">
-        <v>2240</v>
+        <v>3638</v>
       </c>
       <c r="AP20" s="20" t="n">
-        <v>3638</v>
+        <v>3717</v>
       </c>
       <c r="AQ20" s="20" t="n">
-        <v>3717</v>
+        <v>4580</v>
       </c>
       <c r="AR20" s="20" t="n">
-        <v>4580</v>
+        <v>5612</v>
       </c>
       <c r="AS20" s="20" t="n">
-        <v>5612</v>
+        <v>5364</v>
       </c>
       <c r="AT20" s="20" t="n">
-        <v>5364</v>
+        <v>6929</v>
       </c>
       <c r="AU20" s="20" t="n">
-        <v>6929</v>
+        <v>5278</v>
       </c>
       <c r="AV20" s="20" t="n">
-        <v>5278</v>
+        <v>4786</v>
       </c>
       <c r="AW20" s="20" t="n">
-        <v>4786</v>
+        <v>3777</v>
       </c>
       <c r="AX20" s="20" t="n">
-        <v>3777</v>
+        <v>4932</v>
       </c>
       <c r="AY20" s="20" t="n">
-        <v>4932</v>
+        <v>4205</v>
       </c>
       <c r="AZ20" s="20" t="n">
-        <v>4205</v>
+        <v>1170</v>
       </c>
       <c r="BA20" s="20" t="n">
-        <v>1170</v>
+        <v>2768</v>
       </c>
       <c r="BB20" s="20" t="n">
-        <v>2768</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,8 +4832,8 @@
       <c r="T22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="18" t="s">
-        <v>58</v>
+      <c r="U22" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V22" s="18" t="n">
         <v>0</v>
@@ -4990,106 +4990,106 @@
         <v>0</v>
       </c>
       <c r="U23" s="20" t="n">
-        <v>0</v>
+        <v>22307</v>
       </c>
       <c r="V23" s="20" t="n">
-        <v>22307</v>
+        <v>22130</v>
       </c>
       <c r="W23" s="20" t="n">
-        <v>22130</v>
+        <v>22442</v>
       </c>
       <c r="X23" s="20" t="n">
-        <v>22442</v>
+        <v>20480</v>
       </c>
       <c r="Y23" s="20" t="n">
-        <v>20480</v>
+        <v>22792</v>
       </c>
       <c r="Z23" s="20" t="n">
-        <v>22792</v>
+        <v>21286</v>
       </c>
       <c r="AA23" s="20" t="n">
-        <v>21286</v>
+        <v>21146</v>
       </c>
       <c r="AB23" s="20" t="n">
-        <v>21146</v>
+        <v>22584</v>
       </c>
       <c r="AC23" s="20" t="n">
-        <v>22584</v>
+        <v>21750</v>
       </c>
       <c r="AD23" s="20" t="n">
-        <v>21750</v>
+        <v>23001</v>
       </c>
       <c r="AE23" s="20" t="n">
-        <v>23001</v>
+        <v>22666</v>
       </c>
       <c r="AF23" s="20" t="n">
-        <v>22666</v>
+        <v>22440</v>
       </c>
       <c r="AG23" s="20" t="n">
-        <v>22440</v>
+        <v>22828</v>
       </c>
       <c r="AH23" s="20" t="n">
-        <v>22828</v>
+        <v>22764</v>
       </c>
       <c r="AI23" s="20" t="n">
-        <v>22764</v>
+        <v>24717</v>
       </c>
       <c r="AJ23" s="20" t="n">
-        <v>24717</v>
+        <v>24748</v>
       </c>
       <c r="AK23" s="20" t="n">
-        <v>24748</v>
+        <v>23263</v>
       </c>
       <c r="AL23" s="20" t="n">
-        <v>23263</v>
+        <v>26113</v>
       </c>
       <c r="AM23" s="20" t="n">
-        <v>26113</v>
+        <v>24042</v>
       </c>
       <c r="AN23" s="20" t="n">
-        <v>24042</v>
+        <v>24290</v>
       </c>
       <c r="AO23" s="20" t="n">
-        <v>24290</v>
+        <v>25006</v>
       </c>
       <c r="AP23" s="20" t="n">
-        <v>25006</v>
+        <v>21225</v>
       </c>
       <c r="AQ23" s="20" t="n">
-        <v>21225</v>
+        <v>25403</v>
       </c>
       <c r="AR23" s="20" t="n">
-        <v>25403</v>
+        <v>26198</v>
       </c>
       <c r="AS23" s="20" t="n">
-        <v>26198</v>
+        <v>27004</v>
       </c>
       <c r="AT23" s="20" t="n">
-        <v>27004</v>
+        <v>27468</v>
       </c>
       <c r="AU23" s="20" t="n">
-        <v>27468</v>
+        <v>27071</v>
       </c>
       <c r="AV23" s="20" t="n">
-        <v>27071</v>
+        <v>25966</v>
       </c>
       <c r="AW23" s="20" t="n">
-        <v>25966</v>
+        <v>25558</v>
       </c>
       <c r="AX23" s="20" t="n">
-        <v>25558</v>
+        <v>25474</v>
       </c>
       <c r="AY23" s="20" t="n">
-        <v>25474</v>
+        <v>22657</v>
       </c>
       <c r="AZ23" s="20" t="n">
-        <v>22657</v>
+        <v>21411</v>
       </c>
       <c r="BA23" s="20" t="n">
-        <v>21411</v>
+        <v>23758</v>
       </c>
       <c r="BB23" s="20" t="n">
-        <v>23758</v>
+        <v>25256</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5582,107 +5582,107 @@
       <c r="T30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U30" s="13" t="s">
-        <v>58</v>
+      <c r="U30" s="13" t="n">
+        <v>16672</v>
       </c>
       <c r="V30" s="13" t="n">
-        <v>16672</v>
+        <v>14880</v>
       </c>
       <c r="W30" s="13" t="n">
-        <v>14880</v>
+        <v>15265</v>
       </c>
       <c r="X30" s="13" t="n">
-        <v>15265</v>
+        <v>13358</v>
       </c>
       <c r="Y30" s="13" t="n">
-        <v>13358</v>
+        <v>15115</v>
       </c>
       <c r="Z30" s="13" t="n">
-        <v>15115</v>
+        <v>15276</v>
       </c>
       <c r="AA30" s="13" t="n">
-        <v>15276</v>
+        <v>14421</v>
       </c>
       <c r="AB30" s="13" t="n">
-        <v>14421</v>
+        <v>14911</v>
       </c>
       <c r="AC30" s="13" t="n">
-        <v>14911</v>
+        <v>13336</v>
       </c>
       <c r="AD30" s="13" t="n">
-        <v>13336</v>
+        <v>12715</v>
       </c>
       <c r="AE30" s="13" t="n">
-        <v>12715</v>
+        <v>17490</v>
       </c>
       <c r="AF30" s="13" t="n">
-        <v>17490</v>
+        <v>16505</v>
       </c>
       <c r="AG30" s="13" t="n">
-        <v>16505</v>
+        <v>15991</v>
       </c>
       <c r="AH30" s="13" t="n">
-        <v>15991</v>
+        <v>11937</v>
       </c>
       <c r="AI30" s="13" t="n">
-        <v>11937</v>
+        <v>17109</v>
       </c>
       <c r="AJ30" s="13" t="n">
-        <v>17109</v>
+        <v>14487</v>
       </c>
       <c r="AK30" s="13" t="n">
-        <v>14487</v>
+        <v>15446</v>
       </c>
       <c r="AL30" s="13" t="n">
-        <v>15446</v>
+        <v>14294</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>14294</v>
+        <v>11985</v>
       </c>
       <c r="AN30" s="13" t="n">
-        <v>11985</v>
+        <v>11001</v>
       </c>
       <c r="AO30" s="13" t="n">
-        <v>11001</v>
+        <v>20825</v>
       </c>
       <c r="AP30" s="13" t="n">
-        <v>20825</v>
+        <v>3865</v>
       </c>
       <c r="AQ30" s="13" t="n">
-        <v>3865</v>
+        <v>15355</v>
       </c>
       <c r="AR30" s="13" t="n">
-        <v>15355</v>
+        <v>21359</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>21359</v>
+        <v>20092</v>
       </c>
       <c r="AT30" s="13" t="n">
-        <v>20092</v>
+        <v>16106</v>
       </c>
       <c r="AU30" s="13" t="n">
-        <v>16106</v>
+        <v>12872</v>
       </c>
       <c r="AV30" s="13" t="n">
-        <v>12872</v>
+        <v>10896</v>
       </c>
       <c r="AW30" s="13" t="n">
-        <v>10896</v>
+        <v>15021</v>
       </c>
       <c r="AX30" s="13" t="n">
-        <v>15021</v>
+        <v>18143</v>
       </c>
       <c r="AY30" s="13" t="n">
-        <v>18143</v>
+        <v>15430</v>
       </c>
       <c r="AZ30" s="13" t="n">
-        <v>15430</v>
+        <v>17725</v>
       </c>
       <c r="BA30" s="13" t="n">
-        <v>17725</v>
+        <v>16515</v>
       </c>
       <c r="BB30" s="13" t="n">
-        <v>16515</v>
+        <v>16340</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,107 +5741,107 @@
       <c r="T31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="16" t="s">
-        <v>58</v>
+      <c r="U31" s="16" t="n">
+        <v>4611</v>
       </c>
       <c r="V31" s="16" t="n">
-        <v>4611</v>
+        <v>3801</v>
       </c>
       <c r="W31" s="16" t="n">
-        <v>3801</v>
+        <v>4769</v>
       </c>
       <c r="X31" s="16" t="n">
-        <v>4769</v>
+        <v>4728</v>
       </c>
       <c r="Y31" s="16" t="n">
-        <v>4728</v>
+        <v>4417</v>
       </c>
       <c r="Z31" s="16" t="n">
-        <v>4417</v>
+        <v>4685</v>
       </c>
       <c r="AA31" s="16" t="n">
-        <v>4685</v>
+        <v>4292</v>
       </c>
       <c r="AB31" s="16" t="n">
-        <v>4292</v>
+        <v>5061</v>
       </c>
       <c r="AC31" s="16" t="n">
-        <v>5061</v>
+        <v>4621</v>
       </c>
       <c r="AD31" s="16" t="n">
-        <v>4621</v>
+        <v>4304</v>
       </c>
       <c r="AE31" s="16" t="n">
-        <v>4304</v>
+        <v>5178</v>
       </c>
       <c r="AF31" s="16" t="n">
-        <v>5178</v>
+        <v>5302</v>
       </c>
       <c r="AG31" s="16" t="n">
-        <v>5302</v>
+        <v>4532</v>
       </c>
       <c r="AH31" s="16" t="n">
-        <v>4532</v>
+        <v>4344</v>
       </c>
       <c r="AI31" s="16" t="n">
-        <v>4344</v>
+        <v>5765</v>
       </c>
       <c r="AJ31" s="16" t="n">
-        <v>5765</v>
+        <v>5438</v>
       </c>
       <c r="AK31" s="16" t="n">
-        <v>5438</v>
+        <v>5788</v>
       </c>
       <c r="AL31" s="16" t="n">
-        <v>5788</v>
+        <v>6084</v>
       </c>
       <c r="AM31" s="16" t="n">
-        <v>6084</v>
+        <v>5941</v>
       </c>
       <c r="AN31" s="16" t="n">
-        <v>5941</v>
+        <v>6559</v>
       </c>
       <c r="AO31" s="16" t="n">
-        <v>6559</v>
+        <v>5746</v>
       </c>
       <c r="AP31" s="16" t="n">
-        <v>5746</v>
+        <v>3236</v>
       </c>
       <c r="AQ31" s="16" t="n">
-        <v>3236</v>
+        <v>5658</v>
       </c>
       <c r="AR31" s="16" t="n">
-        <v>5658</v>
+        <v>5664</v>
       </c>
       <c r="AS31" s="16" t="n">
-        <v>5664</v>
+        <v>5173</v>
       </c>
       <c r="AT31" s="16" t="n">
-        <v>5173</v>
+        <v>5689</v>
       </c>
       <c r="AU31" s="16" t="n">
-        <v>5689</v>
+        <v>5821</v>
       </c>
       <c r="AV31" s="16" t="n">
-        <v>5821</v>
+        <v>5723</v>
       </c>
       <c r="AW31" s="16" t="n">
-        <v>5723</v>
+        <v>7343</v>
       </c>
       <c r="AX31" s="16" t="n">
-        <v>7343</v>
+        <v>6417</v>
       </c>
       <c r="AY31" s="16" t="n">
-        <v>6417</v>
+        <v>5813</v>
       </c>
       <c r="AZ31" s="16" t="n">
-        <v>5813</v>
+        <v>5533</v>
       </c>
       <c r="BA31" s="16" t="n">
-        <v>5533</v>
+        <v>6279</v>
       </c>
       <c r="BB31" s="16" t="n">
-        <v>6279</v>
+        <v>8830</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5963,8 +5963,8 @@
       <c r="AO32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP32" s="13" t="s">
-        <v>58</v>
+      <c r="AP32" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ32" s="13" t="n">
         <v>0</v>
@@ -6122,8 +6122,8 @@
       <c r="AO33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP33" s="16" t="s">
-        <v>58</v>
+      <c r="AP33" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ33" s="16" t="n">
         <v>0</v>
@@ -6217,106 +6217,106 @@
         <v>0</v>
       </c>
       <c r="U34" s="18" t="n">
-        <v>0</v>
+        <v>21283</v>
       </c>
       <c r="V34" s="18" t="n">
-        <v>21283</v>
+        <v>18681</v>
       </c>
       <c r="W34" s="18" t="n">
-        <v>18681</v>
+        <v>20034</v>
       </c>
       <c r="X34" s="18" t="n">
-        <v>20034</v>
+        <v>18086</v>
       </c>
       <c r="Y34" s="18" t="n">
-        <v>18086</v>
+        <v>19532</v>
       </c>
       <c r="Z34" s="18" t="n">
-        <v>19532</v>
+        <v>19961</v>
       </c>
       <c r="AA34" s="18" t="n">
-        <v>19961</v>
+        <v>18713</v>
       </c>
       <c r="AB34" s="18" t="n">
-        <v>18713</v>
+        <v>19972</v>
       </c>
       <c r="AC34" s="18" t="n">
-        <v>19972</v>
+        <v>17957</v>
       </c>
       <c r="AD34" s="18" t="n">
-        <v>17957</v>
+        <v>17019</v>
       </c>
       <c r="AE34" s="18" t="n">
-        <v>17019</v>
+        <v>22668</v>
       </c>
       <c r="AF34" s="18" t="n">
-        <v>22668</v>
+        <v>21807</v>
       </c>
       <c r="AG34" s="18" t="n">
-        <v>21807</v>
+        <v>20523</v>
       </c>
       <c r="AH34" s="18" t="n">
-        <v>20523</v>
+        <v>16281</v>
       </c>
       <c r="AI34" s="18" t="n">
-        <v>16281</v>
+        <v>22874</v>
       </c>
       <c r="AJ34" s="18" t="n">
-        <v>22874</v>
+        <v>19925</v>
       </c>
       <c r="AK34" s="18" t="n">
-        <v>19925</v>
+        <v>21234</v>
       </c>
       <c r="AL34" s="18" t="n">
-        <v>21234</v>
+        <v>20378</v>
       </c>
       <c r="AM34" s="18" t="n">
-        <v>20378</v>
+        <v>17926</v>
       </c>
       <c r="AN34" s="18" t="n">
-        <v>17926</v>
+        <v>17560</v>
       </c>
       <c r="AO34" s="18" t="n">
-        <v>17560</v>
+        <v>26571</v>
       </c>
       <c r="AP34" s="18" t="n">
-        <v>26571</v>
+        <v>7101</v>
       </c>
       <c r="AQ34" s="18" t="n">
-        <v>7101</v>
+        <v>21013</v>
       </c>
       <c r="AR34" s="18" t="n">
-        <v>21013</v>
+        <v>27023</v>
       </c>
       <c r="AS34" s="18" t="n">
-        <v>27023</v>
+        <v>25265</v>
       </c>
       <c r="AT34" s="18" t="n">
-        <v>25265</v>
+        <v>21795</v>
       </c>
       <c r="AU34" s="18" t="n">
-        <v>21795</v>
+        <v>18693</v>
       </c>
       <c r="AV34" s="18" t="n">
-        <v>18693</v>
+        <v>16619</v>
       </c>
       <c r="AW34" s="18" t="n">
-        <v>16619</v>
+        <v>22364</v>
       </c>
       <c r="AX34" s="18" t="n">
-        <v>22364</v>
+        <v>24560</v>
       </c>
       <c r="AY34" s="18" t="n">
-        <v>24560</v>
+        <v>21243</v>
       </c>
       <c r="AZ34" s="18" t="n">
-        <v>21243</v>
+        <v>23258</v>
       </c>
       <c r="BA34" s="18" t="n">
-        <v>23258</v>
+        <v>22794</v>
       </c>
       <c r="BB34" s="18" t="n">
-        <v>22794</v>
+        <v>25170</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6432,107 +6432,107 @@
       <c r="T36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U36" s="13" t="s">
-        <v>58</v>
+      <c r="U36" s="13" t="n">
+        <v>254</v>
       </c>
       <c r="V36" s="13" t="n">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="W36" s="13" t="n">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="X36" s="13" t="n">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="Y36" s="13" t="n">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="Z36" s="13" t="n">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="AA36" s="13" t="n">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="AB36" s="13" t="n">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="AC36" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="AD36" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AE36" s="13" t="n">
+        <v>196</v>
+      </c>
+      <c r="AF36" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG36" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="AD36" s="13" t="n">
-        <v>71</v>
-      </c>
-      <c r="AE36" s="13" t="n">
+      <c r="AH36" s="13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI36" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="AF36" s="13" t="n">
-        <v>196</v>
-      </c>
-      <c r="AG36" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH36" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI36" s="13" t="n">
-        <v>48</v>
-      </c>
       <c r="AJ36" s="13" t="n">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="AK36" s="13" t="n">
-        <v>101</v>
+        <v>795</v>
       </c>
       <c r="AL36" s="13" t="n">
-        <v>795</v>
+        <v>471</v>
       </c>
       <c r="AM36" s="13" t="n">
-        <v>471</v>
+        <v>234</v>
       </c>
       <c r="AN36" s="13" t="n">
-        <v>234</v>
+        <v>667</v>
       </c>
       <c r="AO36" s="13" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="AP36" s="13" t="n">
-        <v>444</v>
+        <v>126</v>
       </c>
       <c r="AQ36" s="13" t="n">
-        <v>126</v>
+        <v>505</v>
       </c>
       <c r="AR36" s="13" t="n">
-        <v>505</v>
+        <v>628</v>
       </c>
       <c r="AS36" s="13" t="n">
-        <v>628</v>
+        <v>248</v>
       </c>
       <c r="AT36" s="13" t="n">
-        <v>248</v>
+        <v>475</v>
       </c>
       <c r="AU36" s="13" t="n">
-        <v>475</v>
+        <v>846</v>
       </c>
       <c r="AV36" s="13" t="n">
-        <v>846</v>
+        <v>426</v>
       </c>
       <c r="AW36" s="13" t="n">
-        <v>426</v>
+        <v>855</v>
       </c>
       <c r="AX36" s="13" t="n">
-        <v>855</v>
+        <v>957</v>
       </c>
       <c r="AY36" s="13" t="n">
-        <v>957</v>
+        <v>481</v>
       </c>
       <c r="AZ36" s="13" t="n">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="BA36" s="13" t="n">
-        <v>479</v>
+        <v>761</v>
       </c>
       <c r="BB36" s="13" t="n">
-        <v>761</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,107 +6591,107 @@
       <c r="T37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U37" s="16" t="s">
-        <v>58</v>
+      <c r="U37" s="16" t="n">
+        <v>1889</v>
       </c>
       <c r="V37" s="16" t="n">
-        <v>1889</v>
+        <v>1847</v>
       </c>
       <c r="W37" s="16" t="n">
-        <v>1847</v>
+        <v>2287</v>
       </c>
       <c r="X37" s="16" t="n">
-        <v>2287</v>
+        <v>2428</v>
       </c>
       <c r="Y37" s="16" t="n">
-        <v>2428</v>
+        <v>2094</v>
       </c>
       <c r="Z37" s="16" t="n">
-        <v>2094</v>
+        <v>1173</v>
       </c>
       <c r="AA37" s="16" t="n">
-        <v>1173</v>
+        <v>3201</v>
       </c>
       <c r="AB37" s="16" t="n">
-        <v>3201</v>
+        <v>2124</v>
       </c>
       <c r="AC37" s="16" t="n">
-        <v>2124</v>
+        <v>2258</v>
       </c>
       <c r="AD37" s="16" t="n">
-        <v>2258</v>
+        <v>3179</v>
       </c>
       <c r="AE37" s="16" t="n">
-        <v>3179</v>
+        <v>1063</v>
       </c>
       <c r="AF37" s="16" t="n">
-        <v>1063</v>
+        <v>2407</v>
       </c>
       <c r="AG37" s="16" t="n">
-        <v>2407</v>
+        <v>2327</v>
       </c>
       <c r="AH37" s="16" t="n">
-        <v>2327</v>
+        <v>3222</v>
       </c>
       <c r="AI37" s="16" t="n">
-        <v>3222</v>
+        <v>2760</v>
       </c>
       <c r="AJ37" s="16" t="n">
-        <v>2760</v>
+        <v>2896</v>
       </c>
       <c r="AK37" s="16" t="n">
-        <v>2896</v>
+        <v>2862</v>
       </c>
       <c r="AL37" s="16" t="n">
-        <v>2862</v>
+        <v>3674</v>
       </c>
       <c r="AM37" s="16" t="n">
-        <v>3674</v>
+        <v>1842</v>
       </c>
       <c r="AN37" s="16" t="n">
-        <v>1842</v>
+        <v>1574</v>
       </c>
       <c r="AO37" s="16" t="n">
-        <v>1574</v>
+        <v>3194</v>
       </c>
       <c r="AP37" s="16" t="n">
-        <v>3194</v>
+        <v>3591</v>
       </c>
       <c r="AQ37" s="16" t="n">
-        <v>3591</v>
+        <v>4075</v>
       </c>
       <c r="AR37" s="16" t="n">
-        <v>4075</v>
+        <v>4984</v>
       </c>
       <c r="AS37" s="16" t="n">
-        <v>4984</v>
+        <v>5116</v>
       </c>
       <c r="AT37" s="16" t="n">
-        <v>5116</v>
+        <v>6454</v>
       </c>
       <c r="AU37" s="16" t="n">
-        <v>6454</v>
+        <v>4432</v>
       </c>
       <c r="AV37" s="16" t="n">
-        <v>4432</v>
+        <v>4360</v>
       </c>
       <c r="AW37" s="16" t="n">
-        <v>4360</v>
+        <v>2922</v>
       </c>
       <c r="AX37" s="16" t="n">
-        <v>2922</v>
+        <v>3975</v>
       </c>
       <c r="AY37" s="16" t="n">
-        <v>3975</v>
+        <v>3724</v>
       </c>
       <c r="AZ37" s="16" t="n">
-        <v>3724</v>
+        <v>691</v>
       </c>
       <c r="BA37" s="16" t="n">
-        <v>691</v>
+        <v>2007</v>
       </c>
       <c r="BB37" s="16" t="n">
-        <v>2007</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,8 +6813,8 @@
       <c r="AO38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP38" s="13" t="s">
-        <v>58</v>
+      <c r="AP38" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ38" s="13" t="n">
         <v>0</v>
@@ -6908,106 +6908,106 @@
         <v>0</v>
       </c>
       <c r="U39" s="20" t="n">
-        <v>0</v>
+        <v>2143</v>
       </c>
       <c r="V39" s="20" t="n">
-        <v>2143</v>
+        <v>2071</v>
       </c>
       <c r="W39" s="20" t="n">
-        <v>2071</v>
+        <v>2538</v>
       </c>
       <c r="X39" s="20" t="n">
-        <v>2538</v>
+        <v>2646</v>
       </c>
       <c r="Y39" s="20" t="n">
-        <v>2646</v>
+        <v>2192</v>
       </c>
       <c r="Z39" s="20" t="n">
-        <v>2192</v>
+        <v>1371</v>
       </c>
       <c r="AA39" s="20" t="n">
-        <v>1371</v>
+        <v>3424</v>
       </c>
       <c r="AB39" s="20" t="n">
-        <v>3424</v>
+        <v>2224</v>
       </c>
       <c r="AC39" s="20" t="n">
-        <v>2224</v>
+        <v>2329</v>
       </c>
       <c r="AD39" s="20" t="n">
-        <v>2329</v>
+        <v>3228</v>
       </c>
       <c r="AE39" s="20" t="n">
-        <v>3228</v>
+        <v>1259</v>
       </c>
       <c r="AF39" s="20" t="n">
-        <v>1259</v>
+        <v>2447</v>
       </c>
       <c r="AG39" s="20" t="n">
-        <v>2447</v>
+        <v>2427</v>
       </c>
       <c r="AH39" s="20" t="n">
-        <v>2427</v>
+        <v>3270</v>
       </c>
       <c r="AI39" s="20" t="n">
-        <v>3270</v>
+        <v>2809</v>
       </c>
       <c r="AJ39" s="20" t="n">
-        <v>2809</v>
+        <v>2997</v>
       </c>
       <c r="AK39" s="20" t="n">
-        <v>2997</v>
+        <v>3657</v>
       </c>
       <c r="AL39" s="20" t="n">
-        <v>3657</v>
+        <v>4145</v>
       </c>
       <c r="AM39" s="20" t="n">
-        <v>4145</v>
+        <v>2076</v>
       </c>
       <c r="AN39" s="20" t="n">
-        <v>2076</v>
+        <v>2241</v>
       </c>
       <c r="AO39" s="20" t="n">
-        <v>2241</v>
+        <v>3638</v>
       </c>
       <c r="AP39" s="20" t="n">
-        <v>3638</v>
+        <v>3717</v>
       </c>
       <c r="AQ39" s="20" t="n">
-        <v>3717</v>
+        <v>4580</v>
       </c>
       <c r="AR39" s="20" t="n">
-        <v>4580</v>
+        <v>5612</v>
       </c>
       <c r="AS39" s="20" t="n">
-        <v>5612</v>
+        <v>5364</v>
       </c>
       <c r="AT39" s="20" t="n">
-        <v>5364</v>
+        <v>6929</v>
       </c>
       <c r="AU39" s="20" t="n">
-        <v>6929</v>
+        <v>5278</v>
       </c>
       <c r="AV39" s="20" t="n">
-        <v>5278</v>
+        <v>4786</v>
       </c>
       <c r="AW39" s="20" t="n">
-        <v>4786</v>
+        <v>3777</v>
       </c>
       <c r="AX39" s="20" t="n">
-        <v>3777</v>
+        <v>4932</v>
       </c>
       <c r="AY39" s="20" t="n">
-        <v>4932</v>
+        <v>4205</v>
       </c>
       <c r="AZ39" s="20" t="n">
-        <v>4205</v>
+        <v>1170</v>
       </c>
       <c r="BA39" s="20" t="n">
-        <v>1170</v>
+        <v>2768</v>
       </c>
       <c r="BB39" s="20" t="n">
-        <v>2768</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7121,8 +7121,8 @@
       <c r="T41" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="18" t="s">
-        <v>58</v>
+      <c r="U41" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V41" s="18" t="n">
         <v>0</v>
@@ -7337,8 +7337,8 @@
       <c r="T43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="13" t="s">
-        <v>58</v>
+      <c r="U43" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="13" t="n">
         <v>0</v>
@@ -7367,8 +7367,8 @@
       <c r="AD43" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE43" s="13" t="n">
-        <v>0</v>
+      <c r="AE43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF43" s="13" t="s">
         <v>58</v>
@@ -7496,8 +7496,8 @@
       <c r="T44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U44" s="16" t="s">
-        <v>58</v>
+      <c r="U44" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V44" s="16" t="n">
         <v>0</v>
@@ -7526,8 +7526,8 @@
       <c r="AD44" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE44" s="16" t="n">
-        <v>0</v>
+      <c r="AE44" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF44" s="16" t="s">
         <v>58</v>
@@ -7653,8 +7653,8 @@
       <c r="T45" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="18" t="s">
-        <v>58</v>
+      <c r="U45" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="18" t="n">
         <v>0</v>
@@ -7811,106 +7811,106 @@
         <v>0</v>
       </c>
       <c r="U46" s="20" t="n">
-        <v>0</v>
+        <v>23426</v>
       </c>
       <c r="V46" s="20" t="n">
-        <v>23426</v>
+        <v>20752</v>
       </c>
       <c r="W46" s="20" t="n">
-        <v>20752</v>
+        <v>22572</v>
       </c>
       <c r="X46" s="20" t="n">
-        <v>22572</v>
+        <v>20732</v>
       </c>
       <c r="Y46" s="20" t="n">
-        <v>20732</v>
+        <v>21724</v>
       </c>
       <c r="Z46" s="20" t="n">
-        <v>21724</v>
+        <v>21332</v>
       </c>
       <c r="AA46" s="20" t="n">
-        <v>21332</v>
+        <v>22137</v>
       </c>
       <c r="AB46" s="20" t="n">
-        <v>22137</v>
+        <v>22196</v>
       </c>
       <c r="AC46" s="20" t="n">
-        <v>22196</v>
+        <v>20286</v>
       </c>
       <c r="AD46" s="20" t="n">
-        <v>20286</v>
+        <v>20247</v>
       </c>
       <c r="AE46" s="20" t="n">
-        <v>20247</v>
+        <v>23927</v>
       </c>
       <c r="AF46" s="20" t="n">
-        <v>23927</v>
+        <v>24254</v>
       </c>
       <c r="AG46" s="20" t="n">
-        <v>24254</v>
+        <v>22950</v>
       </c>
       <c r="AH46" s="20" t="n">
-        <v>22950</v>
+        <v>19551</v>
       </c>
       <c r="AI46" s="20" t="n">
-        <v>19551</v>
+        <v>25683</v>
       </c>
       <c r="AJ46" s="20" t="n">
-        <v>25683</v>
+        <v>22922</v>
       </c>
       <c r="AK46" s="20" t="n">
-        <v>22922</v>
+        <v>24891</v>
       </c>
       <c r="AL46" s="20" t="n">
-        <v>24891</v>
+        <v>24523</v>
       </c>
       <c r="AM46" s="20" t="n">
-        <v>24523</v>
+        <v>20002</v>
       </c>
       <c r="AN46" s="20" t="n">
-        <v>20002</v>
+        <v>19801</v>
       </c>
       <c r="AO46" s="20" t="n">
-        <v>19801</v>
+        <v>30209</v>
       </c>
       <c r="AP46" s="20" t="n">
-        <v>30209</v>
+        <v>10818</v>
       </c>
       <c r="AQ46" s="20" t="n">
-        <v>10818</v>
+        <v>25593</v>
       </c>
       <c r="AR46" s="20" t="n">
-        <v>25593</v>
+        <v>32635</v>
       </c>
       <c r="AS46" s="20" t="n">
-        <v>32635</v>
+        <v>30629</v>
       </c>
       <c r="AT46" s="20" t="n">
-        <v>30629</v>
+        <v>28724</v>
       </c>
       <c r="AU46" s="20" t="n">
-        <v>28724</v>
+        <v>23971</v>
       </c>
       <c r="AV46" s="20" t="n">
-        <v>23971</v>
+        <v>21405</v>
       </c>
       <c r="AW46" s="20" t="n">
-        <v>21405</v>
+        <v>26141</v>
       </c>
       <c r="AX46" s="20" t="n">
-        <v>26141</v>
+        <v>29492</v>
       </c>
       <c r="AY46" s="20" t="n">
-        <v>29492</v>
+        <v>25448</v>
       </c>
       <c r="AZ46" s="20" t="n">
-        <v>25448</v>
+        <v>24428</v>
       </c>
       <c r="BA46" s="20" t="n">
-        <v>24428</v>
+        <v>25562</v>
       </c>
       <c r="BB46" s="20" t="n">
-        <v>25562</v>
+        <v>29545</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8403,107 +8403,107 @@
       <c r="T53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>58</v>
+      <c r="U53" s="13" t="n">
+        <v>240396</v>
       </c>
       <c r="V53" s="13" t="n">
-        <v>240396</v>
+        <v>221268</v>
       </c>
       <c r="W53" s="13" t="n">
-        <v>221268</v>
+        <v>226628</v>
       </c>
       <c r="X53" s="13" t="n">
-        <v>226628</v>
+        <v>221668</v>
       </c>
       <c r="Y53" s="13" t="n">
-        <v>221668</v>
+        <v>291836</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>291836</v>
+        <v>322709</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>322709</v>
+        <v>368101</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>368101</v>
+        <v>422892</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>422892</v>
+        <v>382599</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>382599</v>
+        <v>325749</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>325749</v>
+        <v>446616</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>446616</v>
+        <v>421001</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>421001</v>
+        <v>414233</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>414233</v>
+        <v>305806</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>305806</v>
+        <v>443645</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>443645</v>
+        <v>394831</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>394831</v>
+        <v>432928</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>432928</v>
+        <v>405259</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>405259</v>
+        <v>340475</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>340475</v>
+        <v>321645</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>321645</v>
+        <v>591174</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>591174</v>
+        <v>109707</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>109707</v>
+        <v>433882</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>433882</v>
+        <v>626367</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>626367</v>
+        <v>624118</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>624118</v>
+        <v>520408</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>520408</v>
+        <v>453577</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>453577</v>
+        <v>382354</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>382354</v>
+        <v>534196</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>534196</v>
+        <v>639351</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>639351</v>
+        <v>544106</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>544106</v>
+        <v>638184</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>638184</v>
+        <v>658237</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>658237</v>
+        <v>754615</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8562,107 +8562,107 @@
       <c r="T54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U54" s="16" t="s">
-        <v>58</v>
+      <c r="U54" s="16" t="n">
+        <v>32482</v>
       </c>
       <c r="V54" s="16" t="n">
-        <v>32482</v>
+        <v>29197</v>
       </c>
       <c r="W54" s="16" t="n">
-        <v>29197</v>
+        <v>35269</v>
       </c>
       <c r="X54" s="16" t="n">
-        <v>35269</v>
+        <v>38228</v>
       </c>
       <c r="Y54" s="16" t="n">
-        <v>38228</v>
+        <v>44308</v>
       </c>
       <c r="Z54" s="16" t="n">
-        <v>44308</v>
+        <v>48405</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>48405</v>
+        <v>45235</v>
       </c>
       <c r="AB54" s="16" t="n">
-        <v>45235</v>
+        <v>50483</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>50483</v>
+        <v>44652</v>
       </c>
       <c r="AD54" s="16" t="n">
-        <v>44652</v>
+        <v>44926</v>
       </c>
       <c r="AE54" s="16" t="n">
-        <v>44926</v>
+        <v>57981</v>
       </c>
       <c r="AF54" s="16" t="n">
-        <v>57981</v>
+        <v>57536</v>
       </c>
       <c r="AG54" s="16" t="n">
-        <v>57536</v>
+        <v>54650</v>
       </c>
       <c r="AH54" s="16" t="n">
-        <v>54650</v>
+        <v>55864</v>
       </c>
       <c r="AI54" s="16" t="n">
-        <v>55864</v>
+        <v>72335</v>
       </c>
       <c r="AJ54" s="16" t="n">
-        <v>72335</v>
+        <v>66553</v>
       </c>
       <c r="AK54" s="16" t="n">
-        <v>66553</v>
+        <v>72293</v>
       </c>
       <c r="AL54" s="16" t="n">
-        <v>72293</v>
+        <v>79371</v>
       </c>
       <c r="AM54" s="16" t="n">
-        <v>79371</v>
+        <v>81433</v>
       </c>
       <c r="AN54" s="16" t="n">
-        <v>81433</v>
+        <v>91026</v>
       </c>
       <c r="AO54" s="16" t="n">
-        <v>91026</v>
+        <v>82711</v>
       </c>
       <c r="AP54" s="16" t="n">
-        <v>82711</v>
+        <v>49439</v>
       </c>
       <c r="AQ54" s="16" t="n">
-        <v>49439</v>
+        <v>89649</v>
       </c>
       <c r="AR54" s="16" t="n">
-        <v>89649</v>
+        <v>89136</v>
       </c>
       <c r="AS54" s="16" t="n">
-        <v>89136</v>
+        <v>79274</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>79274</v>
+        <v>91761</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>91761</v>
+        <v>90951</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>90951</v>
+        <v>89409</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>89409</v>
+        <v>112599</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>112599</v>
+        <v>105840</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>105840</v>
+        <v>101757</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>101757</v>
+        <v>88296</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>88296</v>
+        <v>112735</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>112735</v>
+        <v>123922</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8784,8 +8784,8 @@
       <c r="AO55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP55" s="13" t="s">
-        <v>58</v>
+      <c r="AP55" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ55" s="13" t="n">
         <v>0</v>
@@ -8943,8 +8943,8 @@
       <c r="AO56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP56" s="16" t="s">
-        <v>58</v>
+      <c r="AP56" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ56" s="16" t="n">
         <v>0</v>
@@ -9038,106 +9038,106 @@
         <v>0</v>
       </c>
       <c r="U57" s="18" t="n">
-        <v>0</v>
+        <v>272878</v>
       </c>
       <c r="V57" s="18" t="n">
-        <v>272878</v>
+        <v>250465</v>
       </c>
       <c r="W57" s="18" t="n">
-        <v>250465</v>
+        <v>261897</v>
       </c>
       <c r="X57" s="18" t="n">
-        <v>261897</v>
+        <v>259896</v>
       </c>
       <c r="Y57" s="18" t="n">
-        <v>259896</v>
+        <v>336144</v>
       </c>
       <c r="Z57" s="18" t="n">
-        <v>336144</v>
+        <v>371114</v>
       </c>
       <c r="AA57" s="18" t="n">
-        <v>371114</v>
+        <v>413336</v>
       </c>
       <c r="AB57" s="18" t="n">
-        <v>413336</v>
+        <v>473375</v>
       </c>
       <c r="AC57" s="18" t="n">
-        <v>473375</v>
+        <v>427251</v>
       </c>
       <c r="AD57" s="18" t="n">
-        <v>427251</v>
+        <v>370675</v>
       </c>
       <c r="AE57" s="18" t="n">
-        <v>370675</v>
+        <v>504597</v>
       </c>
       <c r="AF57" s="18" t="n">
-        <v>504597</v>
+        <v>478537</v>
       </c>
       <c r="AG57" s="18" t="n">
-        <v>478537</v>
+        <v>468883</v>
       </c>
       <c r="AH57" s="18" t="n">
-        <v>468883</v>
+        <v>361670</v>
       </c>
       <c r="AI57" s="18" t="n">
-        <v>361670</v>
+        <v>515980</v>
       </c>
       <c r="AJ57" s="18" t="n">
-        <v>515980</v>
+        <v>461384</v>
       </c>
       <c r="AK57" s="18" t="n">
-        <v>461384</v>
+        <v>505221</v>
       </c>
       <c r="AL57" s="18" t="n">
-        <v>505221</v>
+        <v>484630</v>
       </c>
       <c r="AM57" s="18" t="n">
-        <v>484630</v>
+        <v>421908</v>
       </c>
       <c r="AN57" s="18" t="n">
-        <v>421908</v>
+        <v>412671</v>
       </c>
       <c r="AO57" s="18" t="n">
-        <v>412671</v>
+        <v>673885</v>
       </c>
       <c r="AP57" s="18" t="n">
-        <v>673885</v>
+        <v>159146</v>
       </c>
       <c r="AQ57" s="18" t="n">
-        <v>159146</v>
+        <v>523531</v>
       </c>
       <c r="AR57" s="18" t="n">
-        <v>523531</v>
+        <v>715503</v>
       </c>
       <c r="AS57" s="18" t="n">
-        <v>715503</v>
+        <v>703392</v>
       </c>
       <c r="AT57" s="18" t="n">
-        <v>703392</v>
+        <v>612169</v>
       </c>
       <c r="AU57" s="18" t="n">
-        <v>612169</v>
+        <v>544528</v>
       </c>
       <c r="AV57" s="18" t="n">
-        <v>544528</v>
+        <v>471763</v>
       </c>
       <c r="AW57" s="18" t="n">
-        <v>471763</v>
+        <v>646795</v>
       </c>
       <c r="AX57" s="18" t="n">
-        <v>646795</v>
+        <v>745191</v>
       </c>
       <c r="AY57" s="18" t="n">
-        <v>745191</v>
+        <v>645863</v>
       </c>
       <c r="AZ57" s="18" t="n">
-        <v>645863</v>
+        <v>726480</v>
       </c>
       <c r="BA57" s="18" t="n">
-        <v>726480</v>
+        <v>770972</v>
       </c>
       <c r="BB57" s="18" t="n">
-        <v>770972</v>
+        <v>878537</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9253,107 +9253,107 @@
       <c r="T59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U59" s="13" t="s">
-        <v>58</v>
+      <c r="U59" s="13" t="n">
+        <v>6342</v>
       </c>
       <c r="V59" s="13" t="n">
-        <v>6342</v>
+        <v>6201</v>
       </c>
       <c r="W59" s="13" t="n">
-        <v>6201</v>
+        <v>7467</v>
       </c>
       <c r="X59" s="13" t="n">
-        <v>7467</v>
+        <v>8509</v>
       </c>
       <c r="Y59" s="13" t="n">
-        <v>8509</v>
+        <v>3918</v>
       </c>
       <c r="Z59" s="13" t="n">
-        <v>3918</v>
+        <v>6911</v>
       </c>
       <c r="AA59" s="13" t="n">
-        <v>6911</v>
+        <v>8296</v>
       </c>
       <c r="AB59" s="13" t="n">
-        <v>8296</v>
+        <v>3354</v>
       </c>
       <c r="AC59" s="13" t="n">
-        <v>3354</v>
+        <v>2639</v>
       </c>
       <c r="AD59" s="13" t="n">
-        <v>2639</v>
+        <v>1789</v>
       </c>
       <c r="AE59" s="13" t="n">
-        <v>1789</v>
+        <v>6401</v>
       </c>
       <c r="AF59" s="13" t="n">
-        <v>6401</v>
+        <v>1358</v>
       </c>
       <c r="AG59" s="13" t="n">
-        <v>1358</v>
+        <v>3637</v>
       </c>
       <c r="AH59" s="13" t="n">
-        <v>3637</v>
+        <v>1770</v>
       </c>
       <c r="AI59" s="13" t="n">
-        <v>1770</v>
+        <v>1958</v>
       </c>
       <c r="AJ59" s="13" t="n">
-        <v>1958</v>
+        <v>3227</v>
       </c>
       <c r="AK59" s="13" t="n">
-        <v>3227</v>
+        <v>27109</v>
       </c>
       <c r="AL59" s="13" t="n">
-        <v>27109</v>
+        <v>14868</v>
       </c>
       <c r="AM59" s="13" t="n">
-        <v>14868</v>
+        <v>8376</v>
       </c>
       <c r="AN59" s="13" t="n">
-        <v>8376</v>
+        <v>21482</v>
       </c>
       <c r="AO59" s="13" t="n">
-        <v>21482</v>
+        <v>14314</v>
       </c>
       <c r="AP59" s="13" t="n">
-        <v>14314</v>
+        <v>3612</v>
       </c>
       <c r="AQ59" s="13" t="n">
-        <v>3612</v>
+        <v>15989</v>
       </c>
       <c r="AR59" s="13" t="n">
-        <v>15989</v>
+        <v>20467</v>
       </c>
       <c r="AS59" s="13" t="n">
-        <v>20467</v>
+        <v>9475</v>
       </c>
       <c r="AT59" s="13" t="n">
-        <v>9475</v>
+        <v>16690</v>
       </c>
       <c r="AU59" s="13" t="n">
-        <v>16690</v>
+        <v>30994</v>
       </c>
       <c r="AV59" s="13" t="n">
-        <v>30994</v>
+        <v>17682</v>
       </c>
       <c r="AW59" s="13" t="n">
-        <v>17682</v>
+        <v>37726</v>
       </c>
       <c r="AX59" s="13" t="n">
-        <v>37726</v>
+        <v>40968</v>
       </c>
       <c r="AY59" s="13" t="n">
-        <v>40968</v>
+        <v>21487</v>
       </c>
       <c r="AZ59" s="13" t="n">
-        <v>21487</v>
+        <v>25250</v>
       </c>
       <c r="BA59" s="13" t="n">
-        <v>25250</v>
+        <v>40052</v>
       </c>
       <c r="BB59" s="13" t="n">
-        <v>40052</v>
+        <v>25637</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9412,107 +9412,107 @@
       <c r="T60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U60" s="16" t="s">
-        <v>58</v>
+      <c r="U60" s="16" t="n">
+        <v>8068</v>
       </c>
       <c r="V60" s="16" t="n">
-        <v>8068</v>
+        <v>10462</v>
       </c>
       <c r="W60" s="16" t="n">
-        <v>10462</v>
+        <v>11489</v>
       </c>
       <c r="X60" s="16" t="n">
-        <v>11489</v>
+        <v>10963</v>
       </c>
       <c r="Y60" s="16" t="n">
-        <v>10963</v>
+        <v>11304</v>
       </c>
       <c r="Z60" s="16" t="n">
-        <v>11304</v>
+        <v>9028</v>
       </c>
       <c r="AA60" s="16" t="n">
-        <v>9028</v>
+        <v>17506</v>
       </c>
       <c r="AB60" s="16" t="n">
-        <v>17506</v>
+        <v>9947</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>9947</v>
+        <v>10681</v>
       </c>
       <c r="AD60" s="16" t="n">
-        <v>10681</v>
+        <v>17973</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>17973</v>
+        <v>5851</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>5851</v>
+        <v>14924</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>14924</v>
+        <v>17266</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>17266</v>
+        <v>22849</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>22849</v>
+        <v>20877</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>20877</v>
+        <v>23564</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>23564</v>
+        <v>22238</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>22238</v>
+        <v>28272</v>
       </c>
       <c r="AM60" s="16" t="n">
-        <v>28272</v>
+        <v>14535</v>
       </c>
       <c r="AN60" s="16" t="n">
-        <v>14535</v>
+        <v>14749</v>
       </c>
       <c r="AO60" s="16" t="n">
-        <v>14749</v>
+        <v>34545</v>
       </c>
       <c r="AP60" s="16" t="n">
-        <v>34545</v>
+        <v>34541</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>34541</v>
+        <v>36915</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>36915</v>
+        <v>46845</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>46845</v>
+        <v>47743</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>47743</v>
+        <v>68605</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>68605</v>
+        <v>47724</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>47724</v>
+        <v>46103</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>46103</v>
+        <v>39866</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>39866</v>
+        <v>49892</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>49892</v>
+        <v>47689</v>
       </c>
       <c r="AZ60" s="16" t="n">
-        <v>47689</v>
+        <v>9091</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>9091</v>
+        <v>25537</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>25537</v>
+        <v>48816</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9634,8 +9634,8 @@
       <c r="AO61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP61" s="13" t="s">
-        <v>58</v>
+      <c r="AP61" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ61" s="13" t="n">
         <v>0</v>
@@ -9729,106 +9729,106 @@
         <v>0</v>
       </c>
       <c r="U62" s="20" t="n">
-        <v>0</v>
+        <v>14410</v>
       </c>
       <c r="V62" s="20" t="n">
-        <v>14410</v>
+        <v>16663</v>
       </c>
       <c r="W62" s="20" t="n">
-        <v>16663</v>
+        <v>18956</v>
       </c>
       <c r="X62" s="20" t="n">
-        <v>18956</v>
+        <v>19472</v>
       </c>
       <c r="Y62" s="20" t="n">
-        <v>19472</v>
+        <v>15222</v>
       </c>
       <c r="Z62" s="20" t="n">
-        <v>15222</v>
+        <v>15939</v>
       </c>
       <c r="AA62" s="20" t="n">
-        <v>15939</v>
+        <v>25802</v>
       </c>
       <c r="AB62" s="20" t="n">
-        <v>25802</v>
+        <v>13301</v>
       </c>
       <c r="AC62" s="20" t="n">
-        <v>13301</v>
+        <v>13320</v>
       </c>
       <c r="AD62" s="20" t="n">
-        <v>13320</v>
+        <v>19762</v>
       </c>
       <c r="AE62" s="20" t="n">
-        <v>19762</v>
+        <v>12252</v>
       </c>
       <c r="AF62" s="20" t="n">
-        <v>12252</v>
+        <v>16282</v>
       </c>
       <c r="AG62" s="20" t="n">
-        <v>16282</v>
+        <v>20903</v>
       </c>
       <c r="AH62" s="20" t="n">
-        <v>20903</v>
+        <v>24619</v>
       </c>
       <c r="AI62" s="20" t="n">
-        <v>24619</v>
+        <v>22835</v>
       </c>
       <c r="AJ62" s="20" t="n">
-        <v>22835</v>
+        <v>26791</v>
       </c>
       <c r="AK62" s="20" t="n">
-        <v>26791</v>
+        <v>49347</v>
       </c>
       <c r="AL62" s="20" t="n">
-        <v>49347</v>
+        <v>43140</v>
       </c>
       <c r="AM62" s="20" t="n">
-        <v>43140</v>
+        <v>22911</v>
       </c>
       <c r="AN62" s="20" t="n">
-        <v>22911</v>
+        <v>36231</v>
       </c>
       <c r="AO62" s="20" t="n">
-        <v>36231</v>
+        <v>48859</v>
       </c>
       <c r="AP62" s="20" t="n">
-        <v>48859</v>
+        <v>38153</v>
       </c>
       <c r="AQ62" s="20" t="n">
-        <v>38153</v>
+        <v>52904</v>
       </c>
       <c r="AR62" s="20" t="n">
-        <v>52904</v>
+        <v>67312</v>
       </c>
       <c r="AS62" s="20" t="n">
-        <v>67312</v>
+        <v>57218</v>
       </c>
       <c r="AT62" s="20" t="n">
-        <v>57218</v>
+        <v>85295</v>
       </c>
       <c r="AU62" s="20" t="n">
-        <v>85295</v>
+        <v>78718</v>
       </c>
       <c r="AV62" s="20" t="n">
-        <v>78718</v>
+        <v>63785</v>
       </c>
       <c r="AW62" s="20" t="n">
-        <v>63785</v>
+        <v>77592</v>
       </c>
       <c r="AX62" s="20" t="n">
-        <v>77592</v>
+        <v>90860</v>
       </c>
       <c r="AY62" s="20" t="n">
-        <v>90860</v>
+        <v>69176</v>
       </c>
       <c r="AZ62" s="20" t="n">
-        <v>69176</v>
+        <v>34341</v>
       </c>
       <c r="BA62" s="20" t="n">
-        <v>34341</v>
+        <v>65589</v>
       </c>
       <c r="BB62" s="20" t="n">
-        <v>65589</v>
+        <v>74453</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9944,8 +9944,8 @@
       <c r="T64" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U64" s="18" t="s">
-        <v>58</v>
+      <c r="U64" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V64" s="23" t="n">
         <v>0</v>
@@ -10160,8 +10160,8 @@
       <c r="T66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U66" s="13" t="s">
-        <v>58</v>
+      <c r="U66" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V66" s="13" t="n">
         <v>0</v>
@@ -10223,8 +10223,8 @@
       <c r="AO66" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP66" s="13" t="n">
-        <v>0</v>
+      <c r="AP66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ66" s="13" t="s">
         <v>58</v>
@@ -10319,8 +10319,8 @@
       <c r="T67" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U67" s="16" t="s">
-        <v>58</v>
+      <c r="U67" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V67" s="16" t="n">
         <v>0</v>
@@ -10382,8 +10382,8 @@
       <c r="AO67" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP67" s="16" t="n">
-        <v>0</v>
+      <c r="AP67" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ67" s="16" t="s">
         <v>58</v>
@@ -10478,8 +10478,8 @@
       <c r="T68" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U68" s="18" t="s">
-        <v>58</v>
+      <c r="U68" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V68" s="23" t="n">
         <v>0</v>
@@ -10694,8 +10694,8 @@
       <c r="T70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U70" s="13" t="s">
-        <v>58</v>
+      <c r="U70" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V70" s="13" t="n">
         <v>0</v>
@@ -10852,106 +10852,106 @@
         <v>0</v>
       </c>
       <c r="U71" s="20" t="n">
-        <v>0</v>
+        <v>287288</v>
       </c>
       <c r="V71" s="20" t="n">
-        <v>287288</v>
+        <v>267128</v>
       </c>
       <c r="W71" s="20" t="n">
-        <v>267128</v>
+        <v>280853</v>
       </c>
       <c r="X71" s="20" t="n">
-        <v>280853</v>
+        <v>279368</v>
       </c>
       <c r="Y71" s="20" t="n">
-        <v>279368</v>
+        <v>351366</v>
       </c>
       <c r="Z71" s="20" t="n">
-        <v>351366</v>
+        <v>387053</v>
       </c>
       <c r="AA71" s="20" t="n">
-        <v>387053</v>
+        <v>439138</v>
       </c>
       <c r="AB71" s="20" t="n">
-        <v>439138</v>
+        <v>486676</v>
       </c>
       <c r="AC71" s="20" t="n">
-        <v>486676</v>
+        <v>440571</v>
       </c>
       <c r="AD71" s="20" t="n">
-        <v>440571</v>
+        <v>390437</v>
       </c>
       <c r="AE71" s="20" t="n">
-        <v>390437</v>
+        <v>516849</v>
       </c>
       <c r="AF71" s="20" t="n">
-        <v>516849</v>
+        <v>494819</v>
       </c>
       <c r="AG71" s="20" t="n">
-        <v>494819</v>
+        <v>489786</v>
       </c>
       <c r="AH71" s="20" t="n">
-        <v>489786</v>
+        <v>386289</v>
       </c>
       <c r="AI71" s="20" t="n">
-        <v>386289</v>
+        <v>538815</v>
       </c>
       <c r="AJ71" s="20" t="n">
-        <v>538815</v>
+        <v>488175</v>
       </c>
       <c r="AK71" s="20" t="n">
-        <v>488175</v>
+        <v>554568</v>
       </c>
       <c r="AL71" s="20" t="n">
-        <v>554568</v>
+        <v>527770</v>
       </c>
       <c r="AM71" s="20" t="n">
-        <v>527770</v>
+        <v>444819</v>
       </c>
       <c r="AN71" s="20" t="n">
-        <v>444819</v>
+        <v>448902</v>
       </c>
       <c r="AO71" s="20" t="n">
-        <v>448902</v>
+        <v>722744</v>
       </c>
       <c r="AP71" s="20" t="n">
-        <v>722744</v>
+        <v>197299</v>
       </c>
       <c r="AQ71" s="20" t="n">
-        <v>197299</v>
+        <v>576435</v>
       </c>
       <c r="AR71" s="20" t="n">
-        <v>576435</v>
+        <v>782815</v>
       </c>
       <c r="AS71" s="20" t="n">
-        <v>782815</v>
+        <v>760610</v>
       </c>
       <c r="AT71" s="20" t="n">
-        <v>760610</v>
+        <v>697464</v>
       </c>
       <c r="AU71" s="20" t="n">
-        <v>697464</v>
+        <v>623246</v>
       </c>
       <c r="AV71" s="20" t="n">
-        <v>623246</v>
+        <v>535548</v>
       </c>
       <c r="AW71" s="20" t="n">
-        <v>535548</v>
+        <v>724387</v>
       </c>
       <c r="AX71" s="20" t="n">
-        <v>724387</v>
+        <v>836051</v>
       </c>
       <c r="AY71" s="20" t="n">
-        <v>836051</v>
+        <v>715039</v>
       </c>
       <c r="AZ71" s="20" t="n">
-        <v>715039</v>
+        <v>760821</v>
       </c>
       <c r="BA71" s="20" t="n">
-        <v>760821</v>
+        <v>836561</v>
       </c>
       <c r="BB71" s="20" t="n">
-        <v>836561</v>
+        <v>952990</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11444,107 +11444,107 @@
       <c r="T78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U78" s="13" t="s">
-        <v>58</v>
+      <c r="U78" s="13" t="n">
+        <v>14419146</v>
       </c>
       <c r="V78" s="13" t="n">
-        <v>14419146</v>
+        <v>14870161</v>
       </c>
       <c r="W78" s="13" t="n">
-        <v>14870161</v>
+        <v>14846250</v>
       </c>
       <c r="X78" s="13" t="n">
-        <v>14846250</v>
+        <v>16594400</v>
       </c>
       <c r="Y78" s="13" t="n">
-        <v>16594400</v>
+        <v>19307708</v>
       </c>
       <c r="Z78" s="13" t="n">
-        <v>19307708</v>
+        <v>21125229</v>
       </c>
       <c r="AA78" s="13" t="n">
-        <v>21125229</v>
+        <v>25525345</v>
       </c>
       <c r="AB78" s="13" t="n">
-        <v>25525345</v>
+        <v>28361076</v>
       </c>
       <c r="AC78" s="13" t="n">
-        <v>28361076</v>
+        <v>28689187</v>
       </c>
       <c r="AD78" s="13" t="n">
-        <v>28689187</v>
+        <v>25619269</v>
       </c>
       <c r="AE78" s="13" t="n">
-        <v>25619269</v>
+        <v>25535506</v>
       </c>
       <c r="AF78" s="13" t="n">
-        <v>25535506</v>
+        <v>25507483</v>
       </c>
       <c r="AG78" s="13" t="n">
-        <v>25507483</v>
+        <v>25904134</v>
       </c>
       <c r="AH78" s="13" t="n">
-        <v>25904134</v>
+        <v>25618330</v>
       </c>
       <c r="AI78" s="13" t="n">
-        <v>25618330</v>
+        <v>25930504</v>
       </c>
       <c r="AJ78" s="13" t="n">
-        <v>25930504</v>
+        <v>27254159</v>
       </c>
       <c r="AK78" s="13" t="n">
-        <v>27254159</v>
+        <v>28028486</v>
       </c>
       <c r="AL78" s="13" t="n">
-        <v>28028486</v>
+        <v>28351686</v>
       </c>
       <c r="AM78" s="13" t="n">
-        <v>28351686</v>
+        <v>28408427</v>
       </c>
       <c r="AN78" s="13" t="n">
-        <v>28408427</v>
+        <v>29237797</v>
       </c>
       <c r="AO78" s="13" t="n">
-        <v>29237797</v>
+        <v>28387707</v>
       </c>
       <c r="AP78" s="13" t="n">
-        <v>28387707</v>
+        <v>28384735</v>
       </c>
       <c r="AQ78" s="13" t="n">
-        <v>28384735</v>
+        <v>28256724</v>
       </c>
       <c r="AR78" s="13" t="n">
-        <v>28256724</v>
+        <v>29325671</v>
       </c>
       <c r="AS78" s="13" t="n">
-        <v>29325671</v>
+        <v>31063010</v>
       </c>
       <c r="AT78" s="13" t="n">
-        <v>31063010</v>
+        <v>32311437</v>
       </c>
       <c r="AU78" s="13" t="n">
-        <v>32311437</v>
+        <v>35237492</v>
       </c>
       <c r="AV78" s="13" t="n">
-        <v>35237492</v>
+        <v>35091226</v>
       </c>
       <c r="AW78" s="13" t="n">
-        <v>35091226</v>
+        <v>35563278</v>
       </c>
       <c r="AX78" s="13" t="n">
-        <v>35563278</v>
+        <v>35239541</v>
       </c>
       <c r="AY78" s="13" t="n">
-        <v>35239541</v>
+        <v>35262865</v>
       </c>
       <c r="AZ78" s="13" t="n">
-        <v>35262865</v>
+        <v>36004739</v>
       </c>
       <c r="BA78" s="13" t="n">
-        <v>36004739</v>
+        <v>39856918</v>
       </c>
       <c r="BB78" s="13" t="n">
-        <v>39856918</v>
+        <v>46182069</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11603,107 +11603,107 @@
       <c r="T79" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U79" s="16" t="s">
-        <v>58</v>
+      <c r="U79" s="16" t="n">
+        <v>7044459</v>
       </c>
       <c r="V79" s="16" t="n">
-        <v>7044459</v>
+        <v>7681400</v>
       </c>
       <c r="W79" s="16" t="n">
-        <v>7681400</v>
+        <v>7395471</v>
       </c>
       <c r="X79" s="16" t="n">
-        <v>7395471</v>
+        <v>8085448</v>
       </c>
       <c r="Y79" s="16" t="n">
-        <v>8085448</v>
+        <v>10031243</v>
       </c>
       <c r="Z79" s="16" t="n">
-        <v>10031243</v>
+        <v>10331910</v>
       </c>
       <c r="AA79" s="16" t="n">
-        <v>10331910</v>
+        <v>10539376</v>
       </c>
       <c r="AB79" s="16" t="n">
-        <v>10539376</v>
+        <v>9974906</v>
       </c>
       <c r="AC79" s="16" t="n">
-        <v>9974906</v>
+        <v>9662844</v>
       </c>
       <c r="AD79" s="16" t="n">
-        <v>9662844</v>
+        <v>10438197</v>
       </c>
       <c r="AE79" s="16" t="n">
-        <v>10438197</v>
+        <v>11197567</v>
       </c>
       <c r="AF79" s="16" t="n">
-        <v>11197567</v>
+        <v>10851754</v>
       </c>
       <c r="AG79" s="16" t="n">
-        <v>10851754</v>
+        <v>12058694</v>
       </c>
       <c r="AH79" s="16" t="n">
-        <v>12058694</v>
+        <v>12860037</v>
       </c>
       <c r="AI79" s="16" t="n">
-        <v>12860037</v>
+        <v>12547268</v>
       </c>
       <c r="AJ79" s="16" t="n">
-        <v>12547268</v>
+        <v>12238507</v>
       </c>
       <c r="AK79" s="16" t="n">
-        <v>12238507</v>
+        <v>12490152</v>
       </c>
       <c r="AL79" s="16" t="n">
-        <v>12490152</v>
+        <v>13045858</v>
       </c>
       <c r="AM79" s="16" t="n">
-        <v>13045858</v>
+        <v>13706952</v>
       </c>
       <c r="AN79" s="16" t="n">
-        <v>13706952</v>
+        <v>13878030</v>
       </c>
       <c r="AO79" s="16" t="n">
-        <v>13878030</v>
+        <v>14394535</v>
       </c>
       <c r="AP79" s="16" t="n">
-        <v>14394535</v>
+        <v>15277812</v>
       </c>
       <c r="AQ79" s="16" t="n">
-        <v>15277812</v>
+        <v>15844645</v>
       </c>
       <c r="AR79" s="16" t="n">
-        <v>15844645</v>
+        <v>15737288</v>
       </c>
       <c r="AS79" s="16" t="n">
-        <v>15737288</v>
+        <v>15324570</v>
       </c>
       <c r="AT79" s="16" t="n">
-        <v>15324570</v>
+        <v>16129548</v>
       </c>
       <c r="AU79" s="16" t="n">
-        <v>16129548</v>
+        <v>15624635</v>
       </c>
       <c r="AV79" s="16" t="n">
-        <v>15624635</v>
+        <v>15622750</v>
       </c>
       <c r="AW79" s="16" t="n">
-        <v>15622750</v>
+        <v>15334196</v>
       </c>
       <c r="AX79" s="16" t="n">
-        <v>15334196</v>
+        <v>16493689</v>
       </c>
       <c r="AY79" s="16" t="n">
-        <v>16493689</v>
+        <v>17505075</v>
       </c>
       <c r="AZ79" s="16" t="n">
-        <v>17505075</v>
+        <v>15958070</v>
       </c>
       <c r="BA79" s="16" t="n">
-        <v>15958070</v>
+        <v>17954292</v>
       </c>
       <c r="BB79" s="16" t="n">
-        <v>17954292</v>
+        <v>14034202</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11819,107 +11819,107 @@
       <c r="T81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U81" s="13" t="s">
-        <v>58</v>
+      <c r="U81" s="13" t="n">
+        <v>24968504</v>
       </c>
       <c r="V81" s="13" t="n">
-        <v>24968504</v>
+        <v>27683036</v>
       </c>
       <c r="W81" s="13" t="n">
-        <v>27683036</v>
+        <v>29749004</v>
       </c>
       <c r="X81" s="13" t="n">
-        <v>29749004</v>
+        <v>39032110</v>
       </c>
       <c r="Y81" s="13" t="n">
-        <v>39032110</v>
+        <v>39979592</v>
       </c>
       <c r="Z81" s="13" t="n">
-        <v>39979592</v>
+        <v>34904040</v>
       </c>
       <c r="AA81" s="13" t="n">
-        <v>34904040</v>
+        <v>37201794</v>
       </c>
       <c r="AB81" s="13" t="n">
-        <v>37201794</v>
+        <v>33540000</v>
       </c>
       <c r="AC81" s="13" t="n">
-        <v>33540000</v>
+        <v>37169014</v>
       </c>
       <c r="AD81" s="13" t="n">
-        <v>37169014</v>
+        <v>36510204</v>
       </c>
       <c r="AE81" s="13" t="n">
-        <v>36510204</v>
+        <v>32658163</v>
       </c>
       <c r="AF81" s="13" t="n">
-        <v>32658163</v>
+        <v>33950000</v>
       </c>
       <c r="AG81" s="13" t="n">
-        <v>33950000</v>
+        <v>36370000</v>
       </c>
       <c r="AH81" s="13" t="n">
-        <v>36370000</v>
+        <v>36875000</v>
       </c>
       <c r="AI81" s="13" t="n">
-        <v>36875000</v>
+        <v>39959184</v>
       </c>
       <c r="AJ81" s="13" t="n">
-        <v>39959184</v>
+        <v>31950495</v>
       </c>
       <c r="AK81" s="13" t="n">
-        <v>31950495</v>
+        <v>34099371</v>
       </c>
       <c r="AL81" s="13" t="n">
-        <v>34099371</v>
+        <v>31566879</v>
       </c>
       <c r="AM81" s="13" t="n">
-        <v>31566879</v>
+        <v>35794872</v>
       </c>
       <c r="AN81" s="13" t="n">
-        <v>35794872</v>
+        <v>32206897</v>
       </c>
       <c r="AO81" s="13" t="n">
-        <v>32206897</v>
+        <v>32238739</v>
       </c>
       <c r="AP81" s="13" t="n">
-        <v>32238739</v>
+        <v>28666667</v>
       </c>
       <c r="AQ81" s="13" t="n">
-        <v>28666667</v>
+        <v>31661386</v>
       </c>
       <c r="AR81" s="13" t="n">
-        <v>31661386</v>
+        <v>32590764</v>
       </c>
       <c r="AS81" s="13" t="n">
-        <v>32590764</v>
+        <v>38205645</v>
       </c>
       <c r="AT81" s="13" t="n">
-        <v>38205645</v>
+        <v>35136842</v>
       </c>
       <c r="AU81" s="13" t="n">
-        <v>35136842</v>
+        <v>36635934</v>
       </c>
       <c r="AV81" s="13" t="n">
-        <v>36635934</v>
+        <v>41507042</v>
       </c>
       <c r="AW81" s="13" t="n">
-        <v>41507042</v>
+        <v>44123977</v>
       </c>
       <c r="AX81" s="13" t="n">
-        <v>44123977</v>
+        <v>42808777</v>
       </c>
       <c r="AY81" s="13" t="n">
-        <v>42808777</v>
+        <v>44671518</v>
       </c>
       <c r="AZ81" s="13" t="n">
-        <v>44671518</v>
+        <v>52713987</v>
       </c>
       <c r="BA81" s="13" t="n">
-        <v>52713987</v>
+        <v>52630749</v>
       </c>
       <c r="BB81" s="13" t="n">
-        <v>52630749</v>
+        <v>50867063</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11978,107 +11978,107 @@
       <c r="T82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U82" s="16" t="s">
-        <v>58</v>
+      <c r="U82" s="16" t="n">
+        <v>4271043</v>
       </c>
       <c r="V82" s="16" t="n">
-        <v>4271043</v>
+        <v>5664321</v>
       </c>
       <c r="W82" s="16" t="n">
-        <v>5664321</v>
+        <v>5023612</v>
       </c>
       <c r="X82" s="16" t="n">
-        <v>5023612</v>
+        <v>4515239</v>
       </c>
       <c r="Y82" s="16" t="n">
-        <v>4515239</v>
+        <v>5398281</v>
       </c>
       <c r="Z82" s="16" t="n">
-        <v>5398281</v>
+        <v>7696505</v>
       </c>
       <c r="AA82" s="16" t="n">
-        <v>7696505</v>
+        <v>5468916</v>
       </c>
       <c r="AB82" s="16" t="n">
-        <v>5468916</v>
+        <v>4683145</v>
       </c>
       <c r="AC82" s="16" t="n">
-        <v>4683145</v>
+        <v>4730292</v>
       </c>
       <c r="AD82" s="16" t="n">
-        <v>4730292</v>
+        <v>5653665</v>
       </c>
       <c r="AE82" s="16" t="n">
-        <v>5653665</v>
+        <v>5504233</v>
       </c>
       <c r="AF82" s="16" t="n">
-        <v>5504233</v>
+        <v>6200249</v>
       </c>
       <c r="AG82" s="16" t="n">
-        <v>6200249</v>
+        <v>7419854</v>
       </c>
       <c r="AH82" s="16" t="n">
-        <v>7419854</v>
+        <v>7091558</v>
       </c>
       <c r="AI82" s="16" t="n">
-        <v>7091558</v>
+        <v>7564130</v>
       </c>
       <c r="AJ82" s="16" t="n">
-        <v>7564130</v>
+        <v>8136740</v>
       </c>
       <c r="AK82" s="16" t="n">
-        <v>8136740</v>
+        <v>7770091</v>
       </c>
       <c r="AL82" s="16" t="n">
-        <v>7770091</v>
+        <v>7695155</v>
       </c>
       <c r="AM82" s="16" t="n">
-        <v>7695155</v>
+        <v>7890879</v>
       </c>
       <c r="AN82" s="16" t="n">
-        <v>7890879</v>
+        <v>9370394</v>
       </c>
       <c r="AO82" s="16" t="n">
-        <v>9370394</v>
+        <v>10815592</v>
       </c>
       <c r="AP82" s="16" t="n">
-        <v>10815592</v>
+        <v>9618769</v>
       </c>
       <c r="AQ82" s="16" t="n">
-        <v>9618769</v>
+        <v>9058896</v>
       </c>
       <c r="AR82" s="16" t="n">
-        <v>9058896</v>
+        <v>9399077</v>
       </c>
       <c r="AS82" s="16" t="n">
-        <v>9399077</v>
+        <v>9332095</v>
       </c>
       <c r="AT82" s="16" t="n">
-        <v>9332095</v>
+        <v>10629842</v>
       </c>
       <c r="AU82" s="16" t="n">
-        <v>10629842</v>
+        <v>10768051</v>
       </c>
       <c r="AV82" s="16" t="n">
-        <v>10768051</v>
+        <v>10574083</v>
       </c>
       <c r="AW82" s="16" t="n">
-        <v>10574083</v>
+        <v>13643395</v>
       </c>
       <c r="AX82" s="16" t="n">
-        <v>13643395</v>
+        <v>12551447</v>
       </c>
       <c r="AY82" s="16" t="n">
-        <v>12551447</v>
+        <v>12805854</v>
       </c>
       <c r="AZ82" s="16" t="n">
-        <v>12805854</v>
+        <v>13156295</v>
       </c>
       <c r="BA82" s="16" t="n">
-        <v>13156295</v>
+        <v>12723966</v>
       </c>
       <c r="BB82" s="16" t="n">
-        <v>12723966</v>
+        <v>12610695</v>
       </c>
     </row>
   </sheetData>
